--- a/XEF.GlobalStrength.xlsx
+++ b/XEF.GlobalStrength.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjeon\Git\EngXExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git.Project\EngXExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31F2121-7E8F-42B6-A8BA-531EC9C961D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA40426-9D6B-439B-ADC2-5DA4FB5FCCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,25 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Material Factor (k)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT36</t>
+  </si>
+  <si>
+    <t>HT36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -320,12 +339,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="182" formatCode="0.000"/>
-    <numFmt numFmtId="183" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="189" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -531,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,7 +560,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -550,10 +569,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -607,10 +626,10 @@
     <xf numFmtId="11" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,37 +647,40 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -975,67 +997,67 @@
             <c:numRef>
               <c:f>'Global BM'!$H$2:$H$57</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>1202250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1182425.9973237601</c:v>
+                  <c:v>1181250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1162601.9996035199</c:v>
+                  <c:v>1159200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1142777.99940528</c:v>
+                  <c:v>1136100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1122953.9992070401</c:v>
+                  <c:v>1113000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1103129.9992565999</c:v>
+                  <c:v>1088850</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1083305.99930616</c:v>
+                  <c:v>1064700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1063481.9993557199</c:v>
+                  <c:v>1040235</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1043657.99940528</c:v>
+                  <c:v>1015140</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1023833.99945484</c:v>
+                  <c:v>989520</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1004009.9995044</c:v>
+                  <c:v>963480</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>984185.99955396005</c:v>
+                  <c:v>936810</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>964361.99960352003</c:v>
+                  <c:v>909615</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>944537.99965308001</c:v>
+                  <c:v>881790</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>924713.99970263999</c:v>
+                  <c:v>853440</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>904889.99975219998</c:v>
+                  <c:v>824460</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>885065.99980176007</c:v>
+                  <c:v>805770</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>865241.99985132006</c:v>
+                  <c:v>805770</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>845417.99990088004</c:v>
+                  <c:v>805770</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>825593.99995044002</c:v>
+                  <c:v>805770</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>805770</c:v>
@@ -2704,6 +2726,390 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-478F-44C0-9B70-1D442E46B2FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Global BM'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Global BM'!$C$2:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800.00009999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3999.9999899999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4799.9999799999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5599.9999699999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6399.9999600000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7199.9999500000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7999.9999399999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8799.9999299999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9599.9999200000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10399.99991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11199.999900000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11999.999889999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12799.999879999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13599.99987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14399.99986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15199.99985</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15999.99984</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16799.999830000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17599.999820000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18399.999810000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19199.999800000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19999.999790000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20799.999779999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21599.999769999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22399.999759999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23199.999749999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23999.999739999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24799.99973</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25599.99972</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26399.99971</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27199.9997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27999.999690000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28799.999680000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29599.999670000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30399.999660000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31199.999650000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31999.999640000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32799.999629999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33599.999620000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>34399.999609999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35199.999600000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35999.999589999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36799.999580000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37599.99957</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38399.999559999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39199.99955</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39999.999539999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>40799.999530000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41599.999519999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42399.999510000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43199.999499999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43999.999490000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Global BM'!$I$2:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1054200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1036140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1017870</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>999180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>980070</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>960435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>940275</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>919695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>898695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>877065</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>855120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>832545</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>809340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>785610</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>761250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>736260</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>731745</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>731745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9A9-4EE1-B8FB-1F6D2CDD4D90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2804,7 +3210,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2862,8 +3268,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.22802857713288843"/>
           <c:y val="4.5161723565529444E-2"/>
-          <c:w val="0.54510658457444505"/>
-          <c:h val="4.5179578401877599E-2"/>
+          <c:w val="0.39633475397830076"/>
+          <c:h val="3.5206146880482729E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6296,16 +6702,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>292191</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>55246</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419191</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>331471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>591004</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>178707</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152854</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>58057</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8089,449 +8495,281 @@
           <cell r="I2">
             <v>1145000</v>
           </cell>
-          <cell r="K2">
-            <v>1202250</v>
-          </cell>
         </row>
         <row r="3">
           <cell r="I3">
             <v>1125000</v>
           </cell>
-          <cell r="K3">
-            <v>1182425.9973237601</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="I4">
             <v>1104000</v>
           </cell>
-          <cell r="K4">
-            <v>1162601.9996035199</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="I5">
             <v>1082000</v>
           </cell>
-          <cell r="K5">
-            <v>1142777.99940528</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="I6">
             <v>1060000</v>
           </cell>
-          <cell r="K6">
-            <v>1122953.9992070401</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="I7">
             <v>1037000</v>
           </cell>
-          <cell r="K7">
-            <v>1103129.9992565999</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="I8">
             <v>1014000</v>
           </cell>
-          <cell r="K8">
-            <v>1083305.99930616</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="I9">
             <v>990700</v>
           </cell>
-          <cell r="K9">
-            <v>1063481.9993557199</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="I10">
             <v>966800</v>
           </cell>
-          <cell r="K10">
-            <v>1043657.99940528</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="I11">
             <v>942400</v>
           </cell>
-          <cell r="K11">
-            <v>1023833.99945484</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="I12">
             <v>917600</v>
           </cell>
-          <cell r="K12">
-            <v>1004009.9995044</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="I13">
             <v>892200</v>
           </cell>
-          <cell r="K13">
-            <v>984185.99955396005</v>
-          </cell>
         </row>
         <row r="14">
           <cell r="I14">
             <v>866300</v>
           </cell>
-          <cell r="K14">
-            <v>964361.99960352003</v>
-          </cell>
         </row>
         <row r="15">
           <cell r="I15">
             <v>839800</v>
           </cell>
-          <cell r="K15">
-            <v>944537.99965308001</v>
-          </cell>
         </row>
         <row r="16">
           <cell r="I16">
             <v>812800</v>
           </cell>
-          <cell r="K16">
-            <v>924713.99970263999</v>
-          </cell>
         </row>
         <row r="17">
           <cell r="I17">
             <v>785200</v>
           </cell>
-          <cell r="K17">
-            <v>904889.99975219998</v>
-          </cell>
         </row>
         <row r="18">
           <cell r="I18">
             <v>757000</v>
           </cell>
-          <cell r="K18">
-            <v>885065.99980176007</v>
-          </cell>
         </row>
         <row r="19">
           <cell r="I19">
             <v>728200</v>
           </cell>
-          <cell r="K19">
-            <v>865241.99985132006</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="I20">
             <v>698900</v>
           </cell>
-          <cell r="K20">
-            <v>845417.99990088004</v>
-          </cell>
         </row>
         <row r="21">
           <cell r="I21">
             <v>669000</v>
           </cell>
-          <cell r="K21">
-            <v>825593.99995044002</v>
-          </cell>
         </row>
         <row r="22">
           <cell r="I22">
             <v>638500</v>
           </cell>
-          <cell r="K22">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="I23">
             <v>607400</v>
           </cell>
-          <cell r="K23">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="24">
           <cell r="I24">
             <v>575800</v>
           </cell>
-          <cell r="K24">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="I25">
             <v>543600</v>
           </cell>
-          <cell r="K25">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="26">
           <cell r="I26">
             <v>510800</v>
           </cell>
-          <cell r="K26">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="27">
           <cell r="I27">
             <v>477500</v>
           </cell>
-          <cell r="K27">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="28">
           <cell r="I28">
             <v>443600</v>
           </cell>
-          <cell r="K28">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="29">
           <cell r="I29">
             <v>409100</v>
           </cell>
-          <cell r="K29">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="30">
           <cell r="I30">
             <v>374100</v>
           </cell>
-          <cell r="K30">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="31">
           <cell r="I31">
             <v>338500</v>
           </cell>
-          <cell r="K31">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="32">
           <cell r="I32">
             <v>302300</v>
           </cell>
-          <cell r="K32">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="33">
           <cell r="I33">
             <v>265500</v>
           </cell>
-          <cell r="K33">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="34">
           <cell r="I34">
             <v>228200</v>
           </cell>
-          <cell r="K34">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="35">
           <cell r="I35">
             <v>190300</v>
           </cell>
-          <cell r="K35">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="36">
           <cell r="I36">
             <v>152800</v>
           </cell>
-          <cell r="K36">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="37">
           <cell r="I37">
             <v>114700</v>
           </cell>
-          <cell r="K37">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="38">
           <cell r="I38">
             <v>76070</v>
           </cell>
-          <cell r="K38">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="39">
           <cell r="I39">
             <v>36860</v>
           </cell>
-          <cell r="K39">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="40">
           <cell r="I40">
             <v>-49000</v>
           </cell>
-          <cell r="K40">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="41">
           <cell r="I41">
             <v>-67320</v>
           </cell>
-          <cell r="K41">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="42">
           <cell r="I42">
             <v>-90940</v>
           </cell>
-          <cell r="K42">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="43">
           <cell r="I43">
             <v>-133400</v>
           </cell>
-          <cell r="K43">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="44">
           <cell r="I44">
             <v>-176400</v>
           </cell>
-          <cell r="K44">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="45">
           <cell r="I45">
             <v>-220000</v>
           </cell>
-          <cell r="K45">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="46">
           <cell r="I46">
             <v>-264200</v>
           </cell>
-          <cell r="K46">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="47">
           <cell r="I47">
             <v>-309000</v>
           </cell>
-          <cell r="K47">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="48">
           <cell r="I48">
             <v>-354100</v>
           </cell>
-          <cell r="K48">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="49">
           <cell r="I49">
             <v>-399300</v>
           </cell>
-          <cell r="K49">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="50">
           <cell r="I50">
             <v>-444800</v>
           </cell>
-          <cell r="K50">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="51">
           <cell r="I51">
             <v>-490400</v>
           </cell>
-          <cell r="K51">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="52">
           <cell r="I52">
             <v>-536100</v>
           </cell>
-          <cell r="K52">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="53">
           <cell r="I53">
             <v>-582100</v>
           </cell>
-          <cell r="K53">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="54">
           <cell r="I54">
             <v>-628100</v>
           </cell>
-          <cell r="K54">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="55">
           <cell r="I55">
             <v>-674400</v>
           </cell>
-          <cell r="K55">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="56">
           <cell r="I56">
             <v>-720800</v>
           </cell>
-          <cell r="K56">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="57">
           <cell r="I57">
             <v>-767400</v>
           </cell>
-          <cell r="K57">
-            <v>805770</v>
-          </cell>
         </row>
         <row r="87">
           <cell r="I87">
@@ -8982,2292 +9220,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>Install
-B.M(kN-m)</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>OperX1
-B.M(kN-m)</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>OperX1.5
-B.M(kN-m)</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>OperX2
-B.M(kN-m)</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Allowable
-B.M (kN-m)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>596300</v>
-          </cell>
-          <cell r="E2">
-            <v>861800</v>
-          </cell>
-          <cell r="F2">
-            <v>1004000</v>
-          </cell>
-          <cell r="G2">
-            <v>1145000</v>
-          </cell>
-          <cell r="H2">
-            <v>1202250</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>800.00009999999997</v>
-          </cell>
-          <cell r="D3">
-            <v>591000</v>
-          </cell>
-          <cell r="E3">
-            <v>848800</v>
-          </cell>
-          <cell r="F3">
-            <v>986800</v>
-          </cell>
-          <cell r="G3">
-            <v>1125000</v>
-          </cell>
-          <cell r="H3">
-            <v>1182425.9973237601</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>1600</v>
-          </cell>
-          <cell r="D4">
-            <v>585100</v>
-          </cell>
-          <cell r="E4">
-            <v>835300</v>
-          </cell>
-          <cell r="F4">
-            <v>969400</v>
-          </cell>
-          <cell r="G4">
-            <v>1104000</v>
-          </cell>
-          <cell r="H4">
-            <v>1162601.9996035199</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>2400</v>
-          </cell>
-          <cell r="D5">
-            <v>578700</v>
-          </cell>
-          <cell r="E5">
-            <v>821400</v>
-          </cell>
-          <cell r="F5">
-            <v>951600</v>
-          </cell>
-          <cell r="G5">
-            <v>1082000</v>
-          </cell>
-          <cell r="H5">
-            <v>1142777.99940528</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>3200</v>
-          </cell>
-          <cell r="D6">
-            <v>571800</v>
-          </cell>
-          <cell r="E6">
-            <v>807000</v>
-          </cell>
-          <cell r="F6">
-            <v>933400</v>
-          </cell>
-          <cell r="G6">
-            <v>1060000</v>
-          </cell>
-          <cell r="H6">
-            <v>1122953.9992070401</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>3999.9999899999998</v>
-          </cell>
-          <cell r="D7">
-            <v>564300</v>
-          </cell>
-          <cell r="E7">
-            <v>792200</v>
-          </cell>
-          <cell r="F7">
-            <v>914700</v>
-          </cell>
-          <cell r="G7">
-            <v>1037000</v>
-          </cell>
-          <cell r="H7">
-            <v>1103129.9992565999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>4799.9999799999996</v>
-          </cell>
-          <cell r="D8">
-            <v>556300</v>
-          </cell>
-          <cell r="E8">
-            <v>776900</v>
-          </cell>
-          <cell r="F8">
-            <v>895500</v>
-          </cell>
-          <cell r="G8">
-            <v>1014000</v>
-          </cell>
-          <cell r="H8">
-            <v>1083305.99930616</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>5599.9999699999998</v>
-          </cell>
-          <cell r="D9">
-            <v>547800</v>
-          </cell>
-          <cell r="E9">
-            <v>761100</v>
-          </cell>
-          <cell r="F9">
-            <v>875900</v>
-          </cell>
-          <cell r="G9">
-            <v>990700</v>
-          </cell>
-          <cell r="H9">
-            <v>1063481.9993557199</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>6399.9999600000001</v>
-          </cell>
-          <cell r="D10">
-            <v>538800</v>
-          </cell>
-          <cell r="E10">
-            <v>744900</v>
-          </cell>
-          <cell r="F10">
-            <v>855900</v>
-          </cell>
-          <cell r="G10">
-            <v>966800</v>
-          </cell>
-          <cell r="H10">
-            <v>1043657.99940528</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>7199.9999500000004</v>
-          </cell>
-          <cell r="D11">
-            <v>529300</v>
-          </cell>
-          <cell r="E11">
-            <v>728300</v>
-          </cell>
-          <cell r="F11">
-            <v>835300</v>
-          </cell>
-          <cell r="G11">
-            <v>942400</v>
-          </cell>
-          <cell r="H11">
-            <v>1023833.99945484</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>7999.9999399999997</v>
-          </cell>
-          <cell r="D12">
-            <v>519200</v>
-          </cell>
-          <cell r="E12">
-            <v>711100</v>
-          </cell>
-          <cell r="F12">
-            <v>814400</v>
-          </cell>
-          <cell r="G12">
-            <v>917600</v>
-          </cell>
-          <cell r="H12">
-            <v>1004009.9995044</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>8799.9999299999999</v>
-          </cell>
-          <cell r="D13">
-            <v>508600</v>
-          </cell>
-          <cell r="E13">
-            <v>693500</v>
-          </cell>
-          <cell r="F13">
-            <v>792900</v>
-          </cell>
-          <cell r="G13">
-            <v>892200</v>
-          </cell>
-          <cell r="H13">
-            <v>984185.99955396005</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>9599.9999200000002</v>
-          </cell>
-          <cell r="D14">
-            <v>497400</v>
-          </cell>
-          <cell r="E14">
-            <v>675300</v>
-          </cell>
-          <cell r="F14">
-            <v>770800</v>
-          </cell>
-          <cell r="G14">
-            <v>866300</v>
-          </cell>
-          <cell r="H14">
-            <v>964361.99960352003</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>10399.99991</v>
-          </cell>
-          <cell r="D15">
-            <v>485700</v>
-          </cell>
-          <cell r="E15">
-            <v>656600</v>
-          </cell>
-          <cell r="F15">
-            <v>748200</v>
-          </cell>
-          <cell r="G15">
-            <v>839800</v>
-          </cell>
-          <cell r="H15">
-            <v>944537.99965308001</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>11199.999900000001</v>
-          </cell>
-          <cell r="D16">
-            <v>473400</v>
-          </cell>
-          <cell r="E16">
-            <v>637200</v>
-          </cell>
-          <cell r="F16">
-            <v>725000</v>
-          </cell>
-          <cell r="G16">
-            <v>812800</v>
-          </cell>
-          <cell r="H16">
-            <v>924713.99970263999</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>11999.999889999999</v>
-          </cell>
-          <cell r="D17">
-            <v>460500</v>
-          </cell>
-          <cell r="E17">
-            <v>617300</v>
-          </cell>
-          <cell r="F17">
-            <v>701200</v>
-          </cell>
-          <cell r="G17">
-            <v>785200</v>
-          </cell>
-          <cell r="H17">
-            <v>904889.99975219998</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>12799.999879999999</v>
-          </cell>
-          <cell r="D18">
-            <v>447100</v>
-          </cell>
-          <cell r="E18">
-            <v>596800</v>
-          </cell>
-          <cell r="F18">
-            <v>676900</v>
-          </cell>
-          <cell r="G18">
-            <v>757000</v>
-          </cell>
-          <cell r="H18">
-            <v>885065.99980176007</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>13599.99987</v>
-          </cell>
-          <cell r="D19">
-            <v>433100</v>
-          </cell>
-          <cell r="E19">
-            <v>575800</v>
-          </cell>
-          <cell r="F19">
-            <v>652000</v>
-          </cell>
-          <cell r="G19">
-            <v>728200</v>
-          </cell>
-          <cell r="H19">
-            <v>865241.99985132006</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>14399.99986</v>
-          </cell>
-          <cell r="D20">
-            <v>418500</v>
-          </cell>
-          <cell r="E20">
-            <v>554200</v>
-          </cell>
-          <cell r="F20">
-            <v>626500</v>
-          </cell>
-          <cell r="G20">
-            <v>698900</v>
-          </cell>
-          <cell r="H20">
-            <v>845417.99990088004</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>15199.99985</v>
-          </cell>
-          <cell r="D21">
-            <v>403400</v>
-          </cell>
-          <cell r="E21">
-            <v>532000</v>
-          </cell>
-          <cell r="F21">
-            <v>600500</v>
-          </cell>
-          <cell r="G21">
-            <v>669000</v>
-          </cell>
-          <cell r="H21">
-            <v>825593.99995044002</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>15999.99984</v>
-          </cell>
-          <cell r="D22">
-            <v>387700</v>
-          </cell>
-          <cell r="E22">
-            <v>509200</v>
-          </cell>
-          <cell r="F22">
-            <v>573800</v>
-          </cell>
-          <cell r="G22">
-            <v>638500</v>
-          </cell>
-          <cell r="H22">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>16799.999830000001</v>
-          </cell>
-          <cell r="D23">
-            <v>371500</v>
-          </cell>
-          <cell r="E23">
-            <v>485900</v>
-          </cell>
-          <cell r="F23">
-            <v>546700</v>
-          </cell>
-          <cell r="G23">
-            <v>607400</v>
-          </cell>
-          <cell r="H23">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>17599.999820000001</v>
-          </cell>
-          <cell r="D24">
-            <v>354700</v>
-          </cell>
-          <cell r="E24">
-            <v>462000</v>
-          </cell>
-          <cell r="F24">
-            <v>518900</v>
-          </cell>
-          <cell r="G24">
-            <v>575800</v>
-          </cell>
-          <cell r="H24">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>18399.999810000001</v>
-          </cell>
-          <cell r="D25">
-            <v>337300</v>
-          </cell>
-          <cell r="E25">
-            <v>437500</v>
-          </cell>
-          <cell r="F25">
-            <v>490600</v>
-          </cell>
-          <cell r="G25">
-            <v>543600</v>
-          </cell>
-          <cell r="H25">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>19199.999800000001</v>
-          </cell>
-          <cell r="D26">
-            <v>319400</v>
-          </cell>
-          <cell r="E26">
-            <v>412500</v>
-          </cell>
-          <cell r="F26">
-            <v>461700</v>
-          </cell>
-          <cell r="G26">
-            <v>510800</v>
-          </cell>
-          <cell r="H26">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>19999.999790000002</v>
-          </cell>
-          <cell r="D27">
-            <v>300900</v>
-          </cell>
-          <cell r="E27">
-            <v>386900</v>
-          </cell>
-          <cell r="F27">
-            <v>432200</v>
-          </cell>
-          <cell r="G27">
-            <v>477500</v>
-          </cell>
-          <cell r="H27">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>20799.999779999998</v>
-          </cell>
-          <cell r="D28">
-            <v>281900</v>
-          </cell>
-          <cell r="E28">
-            <v>360700</v>
-          </cell>
-          <cell r="F28">
-            <v>402100</v>
-          </cell>
-          <cell r="G28">
-            <v>443600</v>
-          </cell>
-          <cell r="H28">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>21599.999769999999</v>
-          </cell>
-          <cell r="D29">
-            <v>262300</v>
-          </cell>
-          <cell r="E29">
-            <v>333900</v>
-          </cell>
-          <cell r="F29">
-            <v>371500</v>
-          </cell>
-          <cell r="G29">
-            <v>409100</v>
-          </cell>
-          <cell r="H29">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>22399.999759999999</v>
-          </cell>
-          <cell r="D30">
-            <v>242100</v>
-          </cell>
-          <cell r="E30">
-            <v>306600</v>
-          </cell>
-          <cell r="F30">
-            <v>340300</v>
-          </cell>
-          <cell r="G30">
-            <v>374100</v>
-          </cell>
-          <cell r="H30">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>23199.999749999999</v>
-          </cell>
-          <cell r="D31">
-            <v>221400</v>
-          </cell>
-          <cell r="E31">
-            <v>278700</v>
-          </cell>
-          <cell r="F31">
-            <v>308600</v>
-          </cell>
-          <cell r="G31">
-            <v>338500</v>
-          </cell>
-          <cell r="H31">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>23999.999739999999</v>
-          </cell>
-          <cell r="D32">
-            <v>200100</v>
-          </cell>
-          <cell r="E32">
-            <v>250200</v>
-          </cell>
-          <cell r="F32">
-            <v>276300</v>
-          </cell>
-          <cell r="G32">
-            <v>302300</v>
-          </cell>
-          <cell r="H32">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>24799.99973</v>
-          </cell>
-          <cell r="D33">
-            <v>178200</v>
-          </cell>
-          <cell r="E33">
-            <v>221200</v>
-          </cell>
-          <cell r="F33">
-            <v>243400</v>
-          </cell>
-          <cell r="G33">
-            <v>265500</v>
-          </cell>
-          <cell r="H33">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>25599.99972</v>
-          </cell>
-          <cell r="D34">
-            <v>155800</v>
-          </cell>
-          <cell r="E34">
-            <v>191600</v>
-          </cell>
-          <cell r="F34">
-            <v>209900</v>
-          </cell>
-          <cell r="G34">
-            <v>228200</v>
-          </cell>
-          <cell r="H34">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>26399.99971</v>
-          </cell>
-          <cell r="D35">
-            <v>132800</v>
-          </cell>
-          <cell r="E35">
-            <v>161400</v>
-          </cell>
-          <cell r="F35">
-            <v>175900</v>
-          </cell>
-          <cell r="G35">
-            <v>190300</v>
-          </cell>
-          <cell r="H35">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>27199.9997</v>
-          </cell>
-          <cell r="D36">
-            <v>109200</v>
-          </cell>
-          <cell r="E36">
-            <v>131100</v>
-          </cell>
-          <cell r="F36">
-            <v>142000</v>
-          </cell>
-          <cell r="G36">
-            <v>152800</v>
-          </cell>
-          <cell r="H36">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>27999.999690000001</v>
-          </cell>
-          <cell r="D37">
-            <v>85140</v>
-          </cell>
-          <cell r="E37">
-            <v>100300</v>
-          </cell>
-          <cell r="F37">
-            <v>107500</v>
-          </cell>
-          <cell r="G37">
-            <v>114700</v>
-          </cell>
-          <cell r="H37">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>28799.999680000001</v>
-          </cell>
-          <cell r="D38">
-            <v>60470</v>
-          </cell>
-          <cell r="E38">
-            <v>68910</v>
-          </cell>
-          <cell r="F38">
-            <v>72490</v>
-          </cell>
-          <cell r="G38">
-            <v>76070</v>
-          </cell>
-          <cell r="H38">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>29599.999670000001</v>
-          </cell>
-          <cell r="D39">
-            <v>35230</v>
-          </cell>
-          <cell r="E39">
-            <v>36930</v>
-          </cell>
-          <cell r="F39">
-            <v>36890</v>
-          </cell>
-          <cell r="G39">
-            <v>36860</v>
-          </cell>
-          <cell r="H39">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>30399.999660000001</v>
-          </cell>
-          <cell r="D40">
-            <v>-39110</v>
-          </cell>
-          <cell r="E40">
-            <v>-42420</v>
-          </cell>
-          <cell r="F40">
-            <v>-45710</v>
-          </cell>
-          <cell r="G40">
-            <v>-49000</v>
-          </cell>
-          <cell r="H40">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>31199.999650000002</v>
-          </cell>
-          <cell r="D41">
-            <v>-65470</v>
-          </cell>
-          <cell r="E41">
-            <v>-64520</v>
-          </cell>
-          <cell r="F41">
-            <v>-65920</v>
-          </cell>
-          <cell r="G41">
-            <v>-67320</v>
-          </cell>
-          <cell r="H41">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>31999.999640000002</v>
-          </cell>
-          <cell r="D42">
-            <v>-92400</v>
-          </cell>
-          <cell r="E42">
-            <v>-87190</v>
-          </cell>
-          <cell r="F42">
-            <v>-86700</v>
-          </cell>
-          <cell r="G42">
-            <v>-90940</v>
-          </cell>
-          <cell r="H42">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>32799.999629999998</v>
-          </cell>
-          <cell r="D43">
-            <v>-119900</v>
-          </cell>
-          <cell r="E43">
-            <v>-110400</v>
-          </cell>
-          <cell r="F43">
-            <v>-117000</v>
-          </cell>
-          <cell r="G43">
-            <v>-133400</v>
-          </cell>
-          <cell r="H43">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>33599.999620000002</v>
-          </cell>
-          <cell r="D44">
-            <v>-147900</v>
-          </cell>
-          <cell r="E44">
-            <v>-135800</v>
-          </cell>
-          <cell r="F44">
-            <v>-156100</v>
-          </cell>
-          <cell r="G44">
-            <v>-176400</v>
-          </cell>
-          <cell r="H44">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>34399.999609999999</v>
-          </cell>
-          <cell r="D45">
-            <v>-176600</v>
-          </cell>
-          <cell r="E45">
-            <v>-171700</v>
-          </cell>
-          <cell r="F45">
-            <v>-195900</v>
-          </cell>
-          <cell r="G45">
-            <v>-220000</v>
-          </cell>
-          <cell r="H45">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>35199.999600000003</v>
-          </cell>
-          <cell r="D46">
-            <v>-205700</v>
-          </cell>
-          <cell r="E46">
-            <v>-208200</v>
-          </cell>
-          <cell r="F46">
-            <v>-236200</v>
-          </cell>
-          <cell r="G46">
-            <v>-264200</v>
-          </cell>
-          <cell r="H46">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>35999.999589999999</v>
-          </cell>
-          <cell r="D47">
-            <v>-235500</v>
-          </cell>
-          <cell r="E47">
-            <v>-245200</v>
-          </cell>
-          <cell r="F47">
-            <v>-277100</v>
-          </cell>
-          <cell r="G47">
-            <v>-309000</v>
-          </cell>
-          <cell r="H47">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>36799.999580000003</v>
-          </cell>
-          <cell r="D48">
-            <v>-265600</v>
-          </cell>
-          <cell r="E48">
-            <v>-282600</v>
-          </cell>
-          <cell r="F48">
-            <v>-318300</v>
-          </cell>
-          <cell r="G48">
-            <v>-354100</v>
-          </cell>
-          <cell r="H48">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>37599.99957</v>
-          </cell>
-          <cell r="D49">
-            <v>-295800</v>
-          </cell>
-          <cell r="E49">
-            <v>-320100</v>
-          </cell>
-          <cell r="F49">
-            <v>-359700</v>
-          </cell>
-          <cell r="G49">
-            <v>-399300</v>
-          </cell>
-          <cell r="H49">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>38399.999559999997</v>
-          </cell>
-          <cell r="D50">
-            <v>-326300</v>
-          </cell>
-          <cell r="E50">
-            <v>-357900</v>
-          </cell>
-          <cell r="F50">
-            <v>-401300</v>
-          </cell>
-          <cell r="G50">
-            <v>-444800</v>
-          </cell>
-          <cell r="H50">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>39199.99955</v>
-          </cell>
-          <cell r="D51">
-            <v>-356900</v>
-          </cell>
-          <cell r="E51">
-            <v>-395700</v>
-          </cell>
-          <cell r="F51">
-            <v>-443100</v>
-          </cell>
-          <cell r="G51">
-            <v>-490400</v>
-          </cell>
-          <cell r="H51">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>39999.999539999997</v>
-          </cell>
-          <cell r="D52">
-            <v>-387600</v>
-          </cell>
-          <cell r="E52">
-            <v>-433800</v>
-          </cell>
-          <cell r="F52">
-            <v>-485000</v>
-          </cell>
-          <cell r="G52">
-            <v>-536100</v>
-          </cell>
-          <cell r="H52">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>40799.999530000001</v>
-          </cell>
-          <cell r="D53">
-            <v>-418700</v>
-          </cell>
-          <cell r="E53">
-            <v>-472000</v>
-          </cell>
-          <cell r="F53">
-            <v>-527000</v>
-          </cell>
-          <cell r="G53">
-            <v>-582100</v>
-          </cell>
-          <cell r="H53">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>41599.999519999998</v>
-          </cell>
-          <cell r="D54">
-            <v>-450000</v>
-          </cell>
-          <cell r="E54">
-            <v>-510300</v>
-          </cell>
-          <cell r="F54">
-            <v>-569200</v>
-          </cell>
-          <cell r="G54">
-            <v>-628100</v>
-          </cell>
-          <cell r="H54">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>42399.999510000001</v>
-          </cell>
-          <cell r="D55">
-            <v>-481500</v>
-          </cell>
-          <cell r="E55">
-            <v>-548900</v>
-          </cell>
-          <cell r="F55">
-            <v>-611600</v>
-          </cell>
-          <cell r="G55">
-            <v>-674400</v>
-          </cell>
-          <cell r="H55">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>43199.999499999998</v>
-          </cell>
-          <cell r="D56">
-            <v>-513100</v>
-          </cell>
-          <cell r="E56">
-            <v>-587600</v>
-          </cell>
-          <cell r="F56">
-            <v>-654200</v>
-          </cell>
-          <cell r="G56">
-            <v>-720800</v>
-          </cell>
-          <cell r="H56">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>43999.999490000002</v>
-          </cell>
-          <cell r="D57">
-            <v>-544900</v>
-          </cell>
-          <cell r="E57">
-            <v>-626400</v>
-          </cell>
-          <cell r="F57">
-            <v>-696900</v>
-          </cell>
-          <cell r="G57">
-            <v>-767400</v>
-          </cell>
-          <cell r="H57">
-            <v>805770</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86" t="str">
-            <v>Install
-S.F (kN)</v>
-          </cell>
-          <cell r="E86" t="str">
-            <v>OperX1
-S.F (kN)</v>
-          </cell>
-          <cell r="F86" t="str">
-            <v>OperX1.5
-S.F (kN)</v>
-          </cell>
-          <cell r="G86" t="str">
-            <v>OperX2
-S.F (kN)</v>
-          </cell>
-          <cell r="H86" t="str">
-            <v>Allowable
-S.F (kN)</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87">
-            <v>0</v>
-          </cell>
-          <cell r="D87">
-            <v>6367</v>
-          </cell>
-          <cell r="E87">
-            <v>16000</v>
-          </cell>
-          <cell r="F87">
-            <v>20830</v>
-          </cell>
-          <cell r="G87">
-            <v>25650</v>
-          </cell>
-          <cell r="H87">
-            <v>26932.5</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88">
-            <v>800.00009999999997</v>
-          </cell>
-          <cell r="D88">
-            <v>7022</v>
-          </cell>
-          <cell r="E88">
-            <v>16570</v>
-          </cell>
-          <cell r="F88">
-            <v>21390</v>
-          </cell>
-          <cell r="G88">
-            <v>26220</v>
-          </cell>
-          <cell r="H88">
-            <v>27531</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89">
-            <v>1600</v>
-          </cell>
-          <cell r="D89">
-            <v>7677</v>
-          </cell>
-          <cell r="E89">
-            <v>17140</v>
-          </cell>
-          <cell r="F89">
-            <v>21960</v>
-          </cell>
-          <cell r="G89">
-            <v>26790</v>
-          </cell>
-          <cell r="H89">
-            <v>28129.5</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90">
-            <v>2400</v>
-          </cell>
-          <cell r="D90">
-            <v>8332</v>
-          </cell>
-          <cell r="E90">
-            <v>17700</v>
-          </cell>
-          <cell r="F90">
-            <v>22530</v>
-          </cell>
-          <cell r="G90">
-            <v>27350</v>
-          </cell>
-          <cell r="H90">
-            <v>28717.5</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91">
-            <v>3200</v>
-          </cell>
-          <cell r="D91">
-            <v>8987</v>
-          </cell>
-          <cell r="E91">
-            <v>18270</v>
-          </cell>
-          <cell r="F91">
-            <v>23090</v>
-          </cell>
-          <cell r="G91">
-            <v>27920</v>
-          </cell>
-          <cell r="H91">
-            <v>29316</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92">
-            <v>3999.9999899999998</v>
-          </cell>
-          <cell r="D92">
-            <v>9642</v>
-          </cell>
-          <cell r="E92">
-            <v>18840</v>
-          </cell>
-          <cell r="F92">
-            <v>23660</v>
-          </cell>
-          <cell r="G92">
-            <v>28490</v>
-          </cell>
-          <cell r="H92">
-            <v>29914.5</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93">
-            <v>4799.9999799999996</v>
-          </cell>
-          <cell r="D93">
-            <v>10300</v>
-          </cell>
-          <cell r="E93">
-            <v>19400</v>
-          </cell>
-          <cell r="F93">
-            <v>24230</v>
-          </cell>
-          <cell r="G93">
-            <v>29050</v>
-          </cell>
-          <cell r="H93">
-            <v>30502.5</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94">
-            <v>5599.9999699999998</v>
-          </cell>
-          <cell r="D94">
-            <v>10950</v>
-          </cell>
-          <cell r="E94">
-            <v>19970</v>
-          </cell>
-          <cell r="F94">
-            <v>24800</v>
-          </cell>
-          <cell r="G94">
-            <v>29620</v>
-          </cell>
-          <cell r="H94">
-            <v>31101</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95">
-            <v>6399.9999600000001</v>
-          </cell>
-          <cell r="D95">
-            <v>11620</v>
-          </cell>
-          <cell r="E95">
-            <v>20540</v>
-          </cell>
-          <cell r="F95">
-            <v>25360</v>
-          </cell>
-          <cell r="G95">
-            <v>30190</v>
-          </cell>
-          <cell r="H95">
-            <v>31699.5</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96">
-            <v>7199.9999500000004</v>
-          </cell>
-          <cell r="D96">
-            <v>12270</v>
-          </cell>
-          <cell r="E96">
-            <v>21110</v>
-          </cell>
-          <cell r="F96">
-            <v>25930</v>
-          </cell>
-          <cell r="G96">
-            <v>30760</v>
-          </cell>
-          <cell r="H96">
-            <v>32298</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97">
-            <v>7999.9999399999997</v>
-          </cell>
-          <cell r="D97">
-            <v>12920</v>
-          </cell>
-          <cell r="E97">
-            <v>21670</v>
-          </cell>
-          <cell r="F97">
-            <v>26500</v>
-          </cell>
-          <cell r="G97">
-            <v>31320</v>
-          </cell>
-          <cell r="H97">
-            <v>32886</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98">
-            <v>8799.9999299999999</v>
-          </cell>
-          <cell r="D98">
-            <v>13630</v>
-          </cell>
-          <cell r="E98">
-            <v>22390</v>
-          </cell>
-          <cell r="F98">
-            <v>27210</v>
-          </cell>
-          <cell r="G98">
-            <v>32040</v>
-          </cell>
-          <cell r="H98">
-            <v>33642</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99">
-            <v>9599.9999200000002</v>
-          </cell>
-          <cell r="D99">
-            <v>14330</v>
-          </cell>
-          <cell r="E99">
-            <v>23100</v>
-          </cell>
-          <cell r="F99">
-            <v>27930</v>
-          </cell>
-          <cell r="G99">
-            <v>32750</v>
-          </cell>
-          <cell r="H99">
-            <v>34387.5</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100">
-            <v>10399.99991</v>
-          </cell>
-          <cell r="D100">
-            <v>15030</v>
-          </cell>
-          <cell r="E100">
-            <v>23810</v>
-          </cell>
-          <cell r="F100">
-            <v>28640</v>
-          </cell>
-          <cell r="G100">
-            <v>33460</v>
-          </cell>
-          <cell r="H100">
-            <v>35133</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="C101">
-            <v>11199.999900000001</v>
-          </cell>
-          <cell r="D101">
-            <v>15740</v>
-          </cell>
-          <cell r="E101">
-            <v>24530</v>
-          </cell>
-          <cell r="F101">
-            <v>29350</v>
-          </cell>
-          <cell r="G101">
-            <v>34180</v>
-          </cell>
-          <cell r="H101">
-            <v>35889</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="C102">
-            <v>11999.999889999999</v>
-          </cell>
-          <cell r="D102">
-            <v>16440</v>
-          </cell>
-          <cell r="E102">
-            <v>25240</v>
-          </cell>
-          <cell r="F102">
-            <v>30070</v>
-          </cell>
-          <cell r="G102">
-            <v>34890</v>
-          </cell>
-          <cell r="H102">
-            <v>36634.5</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="C103">
-            <v>12799.999879999999</v>
-          </cell>
-          <cell r="D103">
-            <v>17140</v>
-          </cell>
-          <cell r="E103">
-            <v>25950</v>
-          </cell>
-          <cell r="F103">
-            <v>30780</v>
-          </cell>
-          <cell r="G103">
-            <v>35600</v>
-          </cell>
-          <cell r="H103">
-            <v>37380</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="C104">
-            <v>13599.99987</v>
-          </cell>
-          <cell r="D104">
-            <v>17840</v>
-          </cell>
-          <cell r="E104">
-            <v>26670</v>
-          </cell>
-          <cell r="F104">
-            <v>31490</v>
-          </cell>
-          <cell r="G104">
-            <v>36320</v>
-          </cell>
-          <cell r="H104">
-            <v>38136</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="C105">
-            <v>14399.99986</v>
-          </cell>
-          <cell r="D105">
-            <v>18550</v>
-          </cell>
-          <cell r="E105">
-            <v>27380</v>
-          </cell>
-          <cell r="F105">
-            <v>32200</v>
-          </cell>
-          <cell r="G105">
-            <v>37030</v>
-          </cell>
-          <cell r="H105">
-            <v>38881.5</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="C106">
-            <v>15199.99985</v>
-          </cell>
-          <cell r="D106">
-            <v>19250</v>
-          </cell>
-          <cell r="E106">
-            <v>28090</v>
-          </cell>
-          <cell r="F106">
-            <v>32920</v>
-          </cell>
-          <cell r="G106">
-            <v>37740</v>
-          </cell>
-          <cell r="H106">
-            <v>39627</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="C107">
-            <v>15999.99984</v>
-          </cell>
-          <cell r="D107">
-            <v>19950</v>
-          </cell>
-          <cell r="E107">
-            <v>28810</v>
-          </cell>
-          <cell r="F107">
-            <v>33630</v>
-          </cell>
-          <cell r="G107">
-            <v>38460</v>
-          </cell>
-          <cell r="H107">
-            <v>40383</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="C108">
-            <v>16799.999830000001</v>
-          </cell>
-          <cell r="D108">
-            <v>20660</v>
-          </cell>
-          <cell r="E108">
-            <v>29520</v>
-          </cell>
-          <cell r="F108">
-            <v>34340</v>
-          </cell>
-          <cell r="G108">
-            <v>39170</v>
-          </cell>
-          <cell r="H108">
-            <v>41128.5</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="C109">
-            <v>17599.999820000001</v>
-          </cell>
-          <cell r="D109">
-            <v>21360</v>
-          </cell>
-          <cell r="E109">
-            <v>30230</v>
-          </cell>
-          <cell r="F109">
-            <v>35060</v>
-          </cell>
-          <cell r="G109">
-            <v>39880</v>
-          </cell>
-          <cell r="H109">
-            <v>41874</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="C110">
-            <v>18399.999810000001</v>
-          </cell>
-          <cell r="D110">
-            <v>22060</v>
-          </cell>
-          <cell r="E110">
-            <v>30950</v>
-          </cell>
-          <cell r="F110">
-            <v>35770</v>
-          </cell>
-          <cell r="G110">
-            <v>40600</v>
-          </cell>
-          <cell r="H110">
-            <v>42630</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="C111">
-            <v>19199.999800000001</v>
-          </cell>
-          <cell r="D111">
-            <v>22770</v>
-          </cell>
-          <cell r="E111">
-            <v>31660</v>
-          </cell>
-          <cell r="F111">
-            <v>36480</v>
-          </cell>
-          <cell r="G111">
-            <v>41310</v>
-          </cell>
-          <cell r="H111">
-            <v>43375.5</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="C112">
-            <v>19999.999790000002</v>
-          </cell>
-          <cell r="D112">
-            <v>23470</v>
-          </cell>
-          <cell r="E112">
-            <v>32370</v>
-          </cell>
-          <cell r="F112">
-            <v>37200</v>
-          </cell>
-          <cell r="G112">
-            <v>42020</v>
-          </cell>
-          <cell r="H112">
-            <v>44121</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="C113">
-            <v>20799.999779999998</v>
-          </cell>
-          <cell r="D113">
-            <v>24170</v>
-          </cell>
-          <cell r="E113">
-            <v>33090</v>
-          </cell>
-          <cell r="F113">
-            <v>37910</v>
-          </cell>
-          <cell r="G113">
-            <v>42740</v>
-          </cell>
-          <cell r="H113">
-            <v>44877</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="C114">
-            <v>21599.999769999999</v>
-          </cell>
-          <cell r="D114">
-            <v>24870</v>
-          </cell>
-          <cell r="E114">
-            <v>33800</v>
-          </cell>
-          <cell r="F114">
-            <v>38620</v>
-          </cell>
-          <cell r="G114">
-            <v>43450</v>
-          </cell>
-          <cell r="H114">
-            <v>45622.5</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="C115">
-            <v>22399.999759999999</v>
-          </cell>
-          <cell r="D115">
-            <v>25580</v>
-          </cell>
-          <cell r="E115">
-            <v>34510</v>
-          </cell>
-          <cell r="F115">
-            <v>39340</v>
-          </cell>
-          <cell r="G115">
-            <v>44160</v>
-          </cell>
-          <cell r="H115">
-            <v>46368</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="C116">
-            <v>23199.999749999999</v>
-          </cell>
-          <cell r="D116">
-            <v>26280</v>
-          </cell>
-          <cell r="E116">
-            <v>35220</v>
-          </cell>
-          <cell r="F116">
-            <v>40050</v>
-          </cell>
-          <cell r="G116">
-            <v>44880</v>
-          </cell>
-          <cell r="H116">
-            <v>47124</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="C117">
-            <v>23999.999739999999</v>
-          </cell>
-          <cell r="D117">
-            <v>26980</v>
-          </cell>
-          <cell r="E117">
-            <v>35940</v>
-          </cell>
-          <cell r="F117">
-            <v>40760</v>
-          </cell>
-          <cell r="G117">
-            <v>45590</v>
-          </cell>
-          <cell r="H117">
-            <v>47869.5</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="C118">
-            <v>24799.99973</v>
-          </cell>
-          <cell r="D118">
-            <v>27690</v>
-          </cell>
-          <cell r="E118">
-            <v>36650</v>
-          </cell>
-          <cell r="F118">
-            <v>41480</v>
-          </cell>
-          <cell r="G118">
-            <v>46300</v>
-          </cell>
-          <cell r="H118">
-            <v>48615</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="C119">
-            <v>25599.99972</v>
-          </cell>
-          <cell r="D119">
-            <v>28390</v>
-          </cell>
-          <cell r="E119">
-            <v>37360</v>
-          </cell>
-          <cell r="F119">
-            <v>42190</v>
-          </cell>
-          <cell r="G119">
-            <v>47010</v>
-          </cell>
-          <cell r="H119">
-            <v>49360.5</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="C120">
-            <v>26399.99971</v>
-          </cell>
-          <cell r="D120">
-            <v>29090</v>
-          </cell>
-          <cell r="E120">
-            <v>38080</v>
-          </cell>
-          <cell r="F120">
-            <v>42900</v>
-          </cell>
-          <cell r="G120">
-            <v>47730</v>
-          </cell>
-          <cell r="H120">
-            <v>50116.5</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="C121">
-            <v>27199.9997</v>
-          </cell>
-          <cell r="D121">
-            <v>29790</v>
-          </cell>
-          <cell r="E121">
-            <v>38790</v>
-          </cell>
-          <cell r="F121">
-            <v>43620</v>
-          </cell>
-          <cell r="G121">
-            <v>48440</v>
-          </cell>
-          <cell r="H121">
-            <v>50862</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="C122">
-            <v>27999.999690000001</v>
-          </cell>
-          <cell r="D122">
-            <v>30500</v>
-          </cell>
-          <cell r="E122">
-            <v>39500</v>
-          </cell>
-          <cell r="F122">
-            <v>44330</v>
-          </cell>
-          <cell r="G122">
-            <v>49150</v>
-          </cell>
-          <cell r="H122">
-            <v>51607.5</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="C123">
-            <v>28799.999680000001</v>
-          </cell>
-          <cell r="D123">
-            <v>31200</v>
-          </cell>
-          <cell r="E123">
-            <v>40220</v>
-          </cell>
-          <cell r="F123">
-            <v>45040</v>
-          </cell>
-          <cell r="G123">
-            <v>49870</v>
-          </cell>
-          <cell r="H123">
-            <v>52363.5</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="C124">
-            <v>29599.999670000001</v>
-          </cell>
-          <cell r="D124">
-            <v>31900</v>
-          </cell>
-          <cell r="E124">
-            <v>40930</v>
-          </cell>
-          <cell r="F124">
-            <v>45760</v>
-          </cell>
-          <cell r="G124">
-            <v>50580</v>
-          </cell>
-          <cell r="H124">
-            <v>53109</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="C125">
-            <v>30399.999660000001</v>
-          </cell>
-          <cell r="D125">
-            <v>32610</v>
-          </cell>
-          <cell r="E125">
-            <v>41640</v>
-          </cell>
-          <cell r="F125">
-            <v>46470</v>
-          </cell>
-          <cell r="G125">
-            <v>51290</v>
-          </cell>
-          <cell r="H125">
-            <v>53854.5</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="C126">
-            <v>31199.999650000002</v>
-          </cell>
-          <cell r="D126">
-            <v>33310</v>
-          </cell>
-          <cell r="E126">
-            <v>42360</v>
-          </cell>
-          <cell r="F126">
-            <v>47180</v>
-          </cell>
-          <cell r="G126">
-            <v>52010</v>
-          </cell>
-          <cell r="H126">
-            <v>54610.5</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="C127">
-            <v>31999.999640000002</v>
-          </cell>
-          <cell r="D127">
-            <v>34010</v>
-          </cell>
-          <cell r="E127">
-            <v>43070</v>
-          </cell>
-          <cell r="F127">
-            <v>47900</v>
-          </cell>
-          <cell r="G127">
-            <v>52720</v>
-          </cell>
-          <cell r="H127">
-            <v>55356</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="C128">
-            <v>32799.999629999998</v>
-          </cell>
-          <cell r="D128">
-            <v>34710</v>
-          </cell>
-          <cell r="E128">
-            <v>43780</v>
-          </cell>
-          <cell r="F128">
-            <v>48610</v>
-          </cell>
-          <cell r="G128">
-            <v>53430</v>
-          </cell>
-          <cell r="H128">
-            <v>56101.5</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="C129">
-            <v>33599.999620000002</v>
-          </cell>
-          <cell r="D129">
-            <v>35420</v>
-          </cell>
-          <cell r="E129">
-            <v>44500</v>
-          </cell>
-          <cell r="F129">
-            <v>49320</v>
-          </cell>
-          <cell r="G129">
-            <v>54150</v>
-          </cell>
-          <cell r="H129">
-            <v>56857.5</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="C130">
-            <v>34399.999609999999</v>
-          </cell>
-          <cell r="D130">
-            <v>36120</v>
-          </cell>
-          <cell r="E130">
-            <v>45210</v>
-          </cell>
-          <cell r="F130">
-            <v>50030</v>
-          </cell>
-          <cell r="G130">
-            <v>54860</v>
-          </cell>
-          <cell r="H130">
-            <v>57603</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="C131">
-            <v>35199.999600000003</v>
-          </cell>
-          <cell r="D131">
-            <v>36820</v>
-          </cell>
-          <cell r="E131">
-            <v>45920</v>
-          </cell>
-          <cell r="F131">
-            <v>50750</v>
-          </cell>
-          <cell r="G131">
-            <v>55570</v>
-          </cell>
-          <cell r="H131">
-            <v>58348.5</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="C132">
-            <v>35999.999589999999</v>
-          </cell>
-          <cell r="D132">
-            <v>37530</v>
-          </cell>
-          <cell r="E132">
-            <v>46640</v>
-          </cell>
-          <cell r="F132">
-            <v>51460</v>
-          </cell>
-          <cell r="G132">
-            <v>56290</v>
-          </cell>
-          <cell r="H132">
-            <v>59104.5</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="C133">
-            <v>36799.999580000003</v>
-          </cell>
-          <cell r="D133">
-            <v>37730</v>
-          </cell>
-          <cell r="E133">
-            <v>46840</v>
-          </cell>
-          <cell r="F133">
-            <v>51660</v>
-          </cell>
-          <cell r="G133">
-            <v>56490</v>
-          </cell>
-          <cell r="H133">
-            <v>59314.5</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="C134">
-            <v>37599.99957</v>
-          </cell>
-          <cell r="D134">
-            <v>37930</v>
-          </cell>
-          <cell r="E134">
-            <v>47040</v>
-          </cell>
-          <cell r="F134">
-            <v>51870</v>
-          </cell>
-          <cell r="G134">
-            <v>56690</v>
-          </cell>
-          <cell r="H134">
-            <v>59524.5</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="C135">
-            <v>38399.999559999997</v>
-          </cell>
-          <cell r="D135">
-            <v>38130</v>
-          </cell>
-          <cell r="E135">
-            <v>47250</v>
-          </cell>
-          <cell r="F135">
-            <v>52070</v>
-          </cell>
-          <cell r="G135">
-            <v>56900</v>
-          </cell>
-          <cell r="H135">
-            <v>59745</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="C136">
-            <v>39199.99955</v>
-          </cell>
-          <cell r="D136">
-            <v>38340</v>
-          </cell>
-          <cell r="E136">
-            <v>47450</v>
-          </cell>
-          <cell r="F136">
-            <v>52270</v>
-          </cell>
-          <cell r="G136">
-            <v>57100</v>
-          </cell>
-          <cell r="H136">
-            <v>59955</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="C137">
-            <v>39999.999539999997</v>
-          </cell>
-          <cell r="D137">
-            <v>38810</v>
-          </cell>
-          <cell r="E137">
-            <v>47650</v>
-          </cell>
-          <cell r="F137">
-            <v>52480</v>
-          </cell>
-          <cell r="G137">
-            <v>57300</v>
-          </cell>
-          <cell r="H137">
-            <v>60165</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="C138">
-            <v>40799.999530000001</v>
-          </cell>
-          <cell r="D138">
-            <v>39020</v>
-          </cell>
-          <cell r="E138">
-            <v>47850</v>
-          </cell>
-          <cell r="F138">
-            <v>52680</v>
-          </cell>
-          <cell r="G138">
-            <v>57500</v>
-          </cell>
-          <cell r="H138">
-            <v>60375</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="C139">
-            <v>41599.999519999998</v>
-          </cell>
-          <cell r="D139">
-            <v>39220</v>
-          </cell>
-          <cell r="E139">
-            <v>48060</v>
-          </cell>
-          <cell r="F139">
-            <v>52880</v>
-          </cell>
-          <cell r="G139">
-            <v>57710</v>
-          </cell>
-          <cell r="H139">
-            <v>60595.5</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="C140">
-            <v>42399.999510000001</v>
-          </cell>
-          <cell r="D140">
-            <v>39420</v>
-          </cell>
-          <cell r="E140">
-            <v>48260</v>
-          </cell>
-          <cell r="F140">
-            <v>53080</v>
-          </cell>
-          <cell r="G140">
-            <v>57910</v>
-          </cell>
-          <cell r="H140">
-            <v>60805.5</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="C141">
-            <v>43199.999499999998</v>
-          </cell>
-          <cell r="D141">
-            <v>39630</v>
-          </cell>
-          <cell r="E141">
-            <v>48460</v>
-          </cell>
-          <cell r="F141">
-            <v>53290</v>
-          </cell>
-          <cell r="G141">
-            <v>58110</v>
-          </cell>
-          <cell r="H141">
-            <v>61015.5</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="C142">
-            <v>43999.999490000002</v>
-          </cell>
-          <cell r="D142">
-            <v>39830</v>
-          </cell>
-          <cell r="E142">
-            <v>48670</v>
-          </cell>
-          <cell r="F142">
-            <v>53490</v>
-          </cell>
-          <cell r="G142">
-            <v>58320</v>
-          </cell>
-          <cell r="H142">
-            <v>61236</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14129,10 +12082,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192E648E-45AA-4641-99DA-6DFEEF38926F}">
-  <dimension ref="A2:N19"/>
+  <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -14178,25 +12131,25 @@
       <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="39">
         <v>0</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="39">
         <v>8000</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="39">
         <v>160000</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="39">
         <v>240000</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="39">
         <v>300000</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="39">
         <v>360000</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="39">
         <v>440000</v>
       </c>
       <c r="K3" s="29"/>
@@ -14209,26 +12162,26 @@
       <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="40">
-        <v>10.5</v>
-      </c>
-      <c r="D4" s="40">
-        <v>10.5</v>
-      </c>
-      <c r="E4" s="40">
+      <c r="C4" s="38">
+        <v>11.9</v>
+      </c>
+      <c r="D4" s="38">
+        <v>11.9</v>
+      </c>
+      <c r="E4" s="38">
         <v>9.5</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="38">
         <v>8.75</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="38">
         <v>7.75</v>
       </c>
-      <c r="H4" s="40">
-        <v>7</v>
-      </c>
-      <c r="I4" s="40">
-        <v>7</v>
+      <c r="H4" s="38">
+        <v>8.4</v>
+      </c>
+      <c r="I4" s="38">
+        <v>8.4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -14239,10 +12192,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="30">
-        <v>5.4390000000000001</v>
+        <v>6.1079999999999997</v>
       </c>
       <c r="D5" s="30">
-        <v>5.43</v>
+        <v>5.468</v>
       </c>
       <c r="E5" s="31">
         <v>5.0069999999999997</v>
@@ -14257,7 +12210,7 @@
         <v>3.75</v>
       </c>
       <c r="I5" s="31">
-        <v>3.5510000000000002</v>
+        <v>4.2949999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -14268,10 +12221,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="30">
-        <v>24.898700000000002</v>
+        <v>31.978100000000001</v>
       </c>
       <c r="D6" s="30">
-        <v>22.220800000000001</v>
+        <v>19.790700000000001</v>
       </c>
       <c r="E6" s="30">
         <v>15.96</v>
@@ -14286,7 +12239,7 @@
         <v>11.5984</v>
       </c>
       <c r="I6" s="30">
-        <v>10.068</v>
+        <v>15.4503</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -14297,10 +12250,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="30">
-        <v>39.420099999999998</v>
+        <v>48.389000000000003</v>
       </c>
       <c r="D7" s="30">
-        <v>22.236999999999998</v>
+        <v>20.355699999999999</v>
       </c>
       <c r="E7" s="30">
         <v>18.899699999999999</v>
@@ -14315,7 +12268,7 @@
         <v>23.785900000000002</v>
       </c>
       <c r="I7" s="30">
-        <v>30.297000000000001</v>
+        <v>34.145200000000003</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -14325,14 +12278,17 @@
       <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="30">
-        <v>4.92</v>
-      </c>
-      <c r="D8" s="30">
-        <v>4.383</v>
-      </c>
-      <c r="E8" s="30">
-        <v>3.968</v>
+      <c r="C8" s="32">
+        <f t="shared" ref="C8:E8" si="0">C6/(C4-C5)</f>
+        <v>5.5210808011049721</v>
+      </c>
+      <c r="D8" s="32">
+        <f t="shared" si="0"/>
+        <v>3.0769123134328358</v>
+      </c>
+      <c r="E8" s="32">
+        <f t="shared" si="0"/>
+        <v>3.552192299131983</v>
       </c>
       <c r="F8" s="32">
         <f>F6/(F4-F5)</f>
@@ -14344,11 +12300,11 @@
       </c>
       <c r="H8" s="32">
         <f>H6/(H4-H5)</f>
-        <v>3.5687384615384614</v>
+        <v>2.4942795698924729</v>
       </c>
       <c r="I8" s="32">
         <f>I6/(I4-I5)</f>
-        <v>2.9191069875326181</v>
+        <v>3.7637758830694272</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -14358,30 +12314,33 @@
       <c r="B9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="30">
-        <v>4.577</v>
-      </c>
-      <c r="D9" s="30">
-        <v>4.0919999999999996</v>
-      </c>
-      <c r="E9" s="30">
-        <v>3.1040000000000001</v>
+      <c r="C9" s="32">
+        <f t="shared" ref="C9:E9" si="1">C6/C5</f>
+        <v>5.2354453176162412</v>
+      </c>
+      <c r="D9" s="32">
+        <f t="shared" si="1"/>
+        <v>3.6193672275054869</v>
+      </c>
+      <c r="E9" s="32">
+        <f t="shared" si="1"/>
+        <v>3.1875374475733977</v>
       </c>
       <c r="F9" s="32">
-        <f t="shared" ref="F9:H9" si="0">F6/F5</f>
+        <f t="shared" ref="F9:H9" si="2">F6/F5</f>
         <v>3.1910416666666661</v>
       </c>
       <c r="G9" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0443931229150634</v>
       </c>
       <c r="H9" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0929066666666665</v>
       </c>
       <c r="I9" s="32">
         <f>I6/I5</f>
-        <v>2.8352576738946773</v>
+        <v>3.5972759022118743</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -14392,32 +12351,32 @@
         <v>1</v>
       </c>
       <c r="C10" s="36">
-        <f>VLOOKUP(C3,'Global BM'!C2:H57,6)</f>
-        <v>1202250</v>
+        <f>VLOOKUP(C3,'Global BM'!$C$2:$I$57,7)</f>
+        <v>1054200</v>
       </c>
       <c r="D10" s="36">
-        <f>VLOOKUP(D3,'Global BM'!C2:H57,6)</f>
-        <v>1004009.9995044</v>
-      </c>
-      <c r="E10" s="37">
-        <f>VLOOKUP(E3,'Global BM'!C2:H57,6)</f>
-        <v>805770</v>
-      </c>
-      <c r="F10" s="37">
-        <f>VLOOKUP(F3,'Global BM'!C2:H57,6)</f>
-        <v>805770</v>
-      </c>
-      <c r="G10" s="37">
-        <f>VLOOKUP(G3,'Global BM'!C2:H57,6)</f>
-        <v>805770</v>
-      </c>
-      <c r="H10" s="37">
-        <f>VLOOKUP(H3,'Global BM'!C2:H57,6)</f>
-        <v>805770</v>
+        <f>VLOOKUP(D3,'Global BM'!$C$2:$I$57,7)</f>
+        <v>855120</v>
+      </c>
+      <c r="E10" s="36">
+        <f>VLOOKUP(E3,'Global BM'!$C$2:$I$57,7)</f>
+        <v>731745</v>
+      </c>
+      <c r="F10" s="36">
+        <f>VLOOKUP(F3,'Global BM'!$C$2:$I$57,7)</f>
+        <v>731745</v>
+      </c>
+      <c r="G10" s="36">
+        <f>VLOOKUP(G3,'Global BM'!$C$2:$I$57,7)</f>
+        <v>731745</v>
+      </c>
+      <c r="H10" s="36">
+        <f>VLOOKUP(H3,'Global BM'!$C$2:$I$57,7)</f>
+        <v>731745</v>
       </c>
       <c r="I10" s="36">
-        <f>VLOOKUP(I3,'Global BM'!C2:H57,6)</f>
-        <v>805770</v>
+        <f>VLOOKUP(I3,'Global BM'!$C$2:$I$57,7)</f>
+        <v>731745</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
@@ -14427,33 +12386,33 @@
       <c r="B11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="40">
         <f>C10/(C8*1000)</f>
-        <v>244.35975609756099</v>
-      </c>
-      <c r="D11" s="42">
+        <v>190.94087516143861</v>
+      </c>
+      <c r="D11" s="40">
         <f>D10/(D8*1000)</f>
-        <v>229.06913061930183</v>
-      </c>
-      <c r="E11" s="42">
-        <f t="shared" ref="E11:G11" si="1">E10/(E8*1000)</f>
-        <v>203.06703629032259</v>
-      </c>
-      <c r="F11" s="42">
+        <v>277.91497218390458</v>
+      </c>
+      <c r="E11" s="40">
+        <f t="shared" ref="E11:G11" si="3">E10/(E8*1000)</f>
+        <v>205.99813815789474</v>
+      </c>
+      <c r="F11" s="40">
         <f>F10/(F8*1000)</f>
-        <v>258.93967487105829</v>
-      </c>
-      <c r="G11" s="42">
-        <f t="shared" si="1"/>
-        <v>261.68508175994606</v>
-      </c>
-      <c r="H11" s="42">
+        <v>235.15123718743877</v>
+      </c>
+      <c r="G11" s="40">
+        <f t="shared" si="3"/>
+        <v>237.64442725893457</v>
+      </c>
+      <c r="H11" s="40">
         <f>H10/(H8*1000)</f>
-        <v>225.78566871292594</v>
-      </c>
-      <c r="I11" s="42">
+        <v>293.36927938336328</v>
+      </c>
+      <c r="I11" s="40">
         <f>I10/(I8*1000)</f>
-        <v>276.03304827175208</v>
+        <v>194.4177928583911</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
@@ -14463,33 +12422,33 @@
       <c r="B12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="40">
         <f>C10/(C9*1000)</f>
-        <v>262.67205593183309</v>
-      </c>
-      <c r="D12" s="42">
+        <v>201.35822953834028</v>
+      </c>
+      <c r="D12" s="40">
         <f>D10/(D9*1000)</f>
-        <v>245.35923741554254</v>
-      </c>
-      <c r="E12" s="42">
-        <f t="shared" ref="E12:G12" si="2">E10/(E9*1000)</f>
-        <v>259.5908505154639</v>
-      </c>
-      <c r="F12" s="42">
-        <f t="shared" si="2"/>
-        <v>252.51002154468895</v>
-      </c>
-      <c r="G12" s="42">
-        <f t="shared" si="2"/>
-        <v>264.67343981793658</v>
-      </c>
-      <c r="H12" s="42">
+        <v>236.26229289514768</v>
+      </c>
+      <c r="E12" s="40">
+        <f t="shared" ref="E12:G12" si="4">E10/(E9*1000)</f>
+        <v>229.56436184210523</v>
+      </c>
+      <c r="F12" s="40">
+        <f t="shared" si="4"/>
+        <v>229.31226741529025</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="4"/>
+        <v>240.35824890424809</v>
+      </c>
+      <c r="H12" s="40">
         <f>H10/(H9*1000)</f>
-        <v>260.52192543799146</v>
-      </c>
-      <c r="I12" s="42">
+        <v>236.58812853497037</v>
+      </c>
+      <c r="I12" s="40">
         <f>I10/(I9*1000)</f>
-        <v>284.19639153754474</v>
+        <v>203.41642395293294</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -14498,32 +12457,32 @@
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="32">
-        <f>C11/285</f>
-        <v>0.85740265297389817</v>
+        <f>C11/$E$16</f>
+        <v>0.78576491835982964</v>
       </c>
       <c r="D13" s="32">
-        <f t="shared" ref="D13:I14" si="3">D11/285</f>
-        <v>0.80375133550632216</v>
+        <f t="shared" ref="D13:I13" si="5">D11/$E$16</f>
+        <v>1.143683013102488</v>
       </c>
       <c r="E13" s="32">
-        <f t="shared" si="3"/>
-        <v>0.71251591680814941</v>
+        <f t="shared" si="5"/>
+        <v>0.84772896361273553</v>
       </c>
       <c r="F13" s="32">
-        <f t="shared" si="3"/>
-        <v>0.90856026270546764</v>
+        <f t="shared" si="5"/>
+        <v>0.9677005645573612</v>
       </c>
       <c r="G13" s="32">
-        <f t="shared" si="3"/>
-        <v>0.91819326933314405</v>
+        <f t="shared" si="5"/>
+        <v>0.97796060600384593</v>
       </c>
       <c r="H13" s="32">
-        <f t="shared" si="3"/>
-        <v>0.79223041653658222</v>
+        <f t="shared" si="5"/>
+        <v>1.2072809851167212</v>
       </c>
       <c r="I13" s="32">
-        <f t="shared" si="3"/>
-        <v>0.96853701147983184</v>
+        <f t="shared" si="5"/>
+        <v>0.80007322163946948</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -14532,50 +12491,60 @@
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="32">
-        <f>C12/285</f>
-        <v>0.92165633660292312</v>
+        <f>C12/$E$16</f>
+        <v>0.82863468945819041</v>
       </c>
       <c r="D14" s="32">
-        <f t="shared" si="3"/>
-        <v>0.8609096049668159</v>
+        <f t="shared" ref="D14:I14" si="6">D12/$E$16</f>
+        <v>0.97227281026809742</v>
       </c>
       <c r="E14" s="32">
-        <f t="shared" si="3"/>
-        <v>0.91084508952794352</v>
+        <f t="shared" si="6"/>
+        <v>0.94470930799220254</v>
       </c>
       <c r="F14" s="32">
-        <f t="shared" si="3"/>
-        <v>0.88600007559539984</v>
+        <f t="shared" si="6"/>
+        <v>0.94367188236744959</v>
       </c>
       <c r="G14" s="32">
-        <f t="shared" si="3"/>
-        <v>0.92867873620328623</v>
+        <f t="shared" si="6"/>
+        <v>0.98912859631377814</v>
       </c>
       <c r="H14" s="32">
-        <f t="shared" si="3"/>
-        <v>0.91411201908067174</v>
+        <f t="shared" si="6"/>
+        <v>0.97361369767477512</v>
       </c>
       <c r="I14" s="32">
-        <f t="shared" si="3"/>
-        <v>0.9971803211843675</v>
+        <f t="shared" si="6"/>
+        <v>0.83710462532071173</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="29">
-        <f>ROUND(175/0.72,0)</f>
+      <c r="D16" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="29">
+        <f>ROUND(175/VLOOKUP(D16,A19:B21,2,FALSE),0)</f>
         <v>243</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="F16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="G16" s="37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="41"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -14583,7 +12552,13 @@
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="42">
+        <v>1</v>
+      </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -14591,8 +12566,29 @@
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="29">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="29">
+        <v>0.72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16" xr:uid="{70BAA7E3-93DB-4E96-B789-5A27E63DE954}">
+      <formula1>$A$19:$A$21</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14601,8 +12597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E0669B-5B74-4678-97C2-20FC5B4CFC67}">
   <dimension ref="B1:AA60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -14664,9 +12660,13 @@
         <f>'[1]B.M(OperationX2)'!I2</f>
         <v>1145000</v>
       </c>
-      <c r="H2" s="19">
-        <f>'[1]B.M(OperationX2)'!K2</f>
+      <c r="H2" s="43">
+        <f>ABS(G2*1.05)</f>
         <v>1202250</v>
+      </c>
+      <c r="I2" s="26">
+        <f>ABS(F2*1.05)</f>
+        <v>1054200</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
@@ -14692,9 +12692,13 @@
         <f>'[1]B.M(OperationX2)'!I3</f>
         <v>1125000</v>
       </c>
-      <c r="H3" s="19">
-        <f>'[1]B.M(OperationX2)'!K3</f>
-        <v>1182425.9973237601</v>
+      <c r="H3" s="43">
+        <f t="shared" ref="H3:H56" si="0">ABS(G3*1.05)</f>
+        <v>1181250</v>
+      </c>
+      <c r="I3" s="26">
+        <f t="shared" ref="I3:I17" si="1">ABS(F3*1.05)</f>
+        <v>1036140</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
@@ -14720,9 +12724,13 @@
         <f>'[1]B.M(OperationX2)'!I4</f>
         <v>1104000</v>
       </c>
-      <c r="H4" s="19">
-        <f>'[1]B.M(OperationX2)'!K4</f>
-        <v>1162601.9996035199</v>
+      <c r="H4" s="43">
+        <f t="shared" si="0"/>
+        <v>1159200</v>
+      </c>
+      <c r="I4" s="26">
+        <f t="shared" si="1"/>
+        <v>1017870</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
@@ -14748,9 +12756,13 @@
         <f>'[1]B.M(OperationX2)'!I5</f>
         <v>1082000</v>
       </c>
-      <c r="H5" s="19">
-        <f>'[1]B.M(OperationX2)'!K5</f>
-        <v>1142777.99940528</v>
+      <c r="H5" s="43">
+        <f t="shared" si="0"/>
+        <v>1136100</v>
+      </c>
+      <c r="I5" s="26">
+        <f t="shared" si="1"/>
+        <v>999180</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
@@ -14776,9 +12788,13 @@
         <f>'[1]B.M(OperationX2)'!I6</f>
         <v>1060000</v>
       </c>
-      <c r="H6" s="19">
-        <f>'[1]B.M(OperationX2)'!K6</f>
-        <v>1122953.9992070401</v>
+      <c r="H6" s="43">
+        <f t="shared" si="0"/>
+        <v>1113000</v>
+      </c>
+      <c r="I6" s="26">
+        <f t="shared" si="1"/>
+        <v>980070</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
@@ -14804,9 +12820,13 @@
         <f>'[1]B.M(OperationX2)'!I7</f>
         <v>1037000</v>
       </c>
-      <c r="H7" s="19">
-        <f>'[1]B.M(OperationX2)'!K7</f>
-        <v>1103129.9992565999</v>
+      <c r="H7" s="43">
+        <f t="shared" si="0"/>
+        <v>1088850</v>
+      </c>
+      <c r="I7" s="26">
+        <f t="shared" si="1"/>
+        <v>960435</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
@@ -14832,9 +12852,13 @@
         <f>'[1]B.M(OperationX2)'!I8</f>
         <v>1014000</v>
       </c>
-      <c r="H8" s="19">
-        <f>'[1]B.M(OperationX2)'!K8</f>
-        <v>1083305.99930616</v>
+      <c r="H8" s="43">
+        <f t="shared" si="0"/>
+        <v>1064700</v>
+      </c>
+      <c r="I8" s="26">
+        <f t="shared" si="1"/>
+        <v>940275</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
@@ -14860,9 +12884,13 @@
         <f>'[1]B.M(OperationX2)'!I9</f>
         <v>990700</v>
       </c>
-      <c r="H9" s="19">
-        <f>'[1]B.M(OperationX2)'!K9</f>
-        <v>1063481.9993557199</v>
+      <c r="H9" s="43">
+        <f t="shared" si="0"/>
+        <v>1040235</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="1"/>
+        <v>919695</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
@@ -14888,9 +12916,13 @@
         <f>'[1]B.M(OperationX2)'!I10</f>
         <v>966800</v>
       </c>
-      <c r="H10" s="19">
-        <f>'[1]B.M(OperationX2)'!K10</f>
-        <v>1043657.99940528</v>
+      <c r="H10" s="43">
+        <f t="shared" si="0"/>
+        <v>1015140</v>
+      </c>
+      <c r="I10" s="26">
+        <f t="shared" si="1"/>
+        <v>898695</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
@@ -14916,11 +12948,14 @@
         <f>'[1]B.M(OperationX2)'!I11</f>
         <v>942400</v>
       </c>
-      <c r="H11" s="19">
-        <f>'[1]B.M(OperationX2)'!K11</f>
-        <v>1023833.99945484</v>
-      </c>
-      <c r="I11" s="20"/>
+      <c r="H11" s="43">
+        <f t="shared" si="0"/>
+        <v>989520</v>
+      </c>
+      <c r="I11" s="26">
+        <f t="shared" si="1"/>
+        <v>877065</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="21">
@@ -14945,11 +12980,14 @@
         <f>'[1]B.M(OperationX2)'!I12</f>
         <v>917600</v>
       </c>
-      <c r="H12" s="24">
-        <f>'[1]B.M(OperationX2)'!K12</f>
-        <v>1004009.9995044</v>
-      </c>
-      <c r="I12" s="20"/>
+      <c r="H12" s="43">
+        <f t="shared" si="0"/>
+        <v>963480</v>
+      </c>
+      <c r="I12" s="26">
+        <f t="shared" si="1"/>
+        <v>855120</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="12">
@@ -14974,11 +13012,14 @@
         <f>'[1]B.M(OperationX2)'!I13</f>
         <v>892200</v>
       </c>
-      <c r="H13" s="19">
-        <f>'[1]B.M(OperationX2)'!K13</f>
-        <v>984185.99955396005</v>
-      </c>
-      <c r="I13" s="20"/>
+      <c r="H13" s="43">
+        <f t="shared" si="0"/>
+        <v>936810</v>
+      </c>
+      <c r="I13" s="26">
+        <f t="shared" si="1"/>
+        <v>832545</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -15003,11 +13044,14 @@
         <f>'[1]B.M(OperationX2)'!I14</f>
         <v>866300</v>
       </c>
-      <c r="H14" s="19">
-        <f>'[1]B.M(OperationX2)'!K14</f>
-        <v>964361.99960352003</v>
-      </c>
-      <c r="I14" s="20"/>
+      <c r="H14" s="43">
+        <f t="shared" si="0"/>
+        <v>909615</v>
+      </c>
+      <c r="I14" s="26">
+        <f t="shared" si="1"/>
+        <v>809340</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="12">
@@ -15032,11 +13076,14 @@
         <f>'[1]B.M(OperationX2)'!I15</f>
         <v>839800</v>
       </c>
-      <c r="H15" s="19">
-        <f>'[1]B.M(OperationX2)'!K15</f>
-        <v>944537.99965308001</v>
-      </c>
-      <c r="I15" s="20"/>
+      <c r="H15" s="43">
+        <f t="shared" si="0"/>
+        <v>881790</v>
+      </c>
+      <c r="I15" s="26">
+        <f t="shared" si="1"/>
+        <v>785610</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="12">
@@ -15061,11 +13108,14 @@
         <f>'[1]B.M(OperationX2)'!I16</f>
         <v>812800</v>
       </c>
-      <c r="H16" s="19">
-        <f>'[1]B.M(OperationX2)'!K16</f>
-        <v>924713.99970263999</v>
-      </c>
-      <c r="I16" s="20"/>
+      <c r="H16" s="43">
+        <f t="shared" si="0"/>
+        <v>853440</v>
+      </c>
+      <c r="I16" s="26">
+        <f t="shared" si="1"/>
+        <v>761250</v>
+      </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B17" s="12">
@@ -15090,11 +13140,14 @@
         <f>'[1]B.M(OperationX2)'!I17</f>
         <v>785200</v>
       </c>
-      <c r="H17" s="19">
-        <f>'[1]B.M(OperationX2)'!K17</f>
-        <v>904889.99975219998</v>
-      </c>
-      <c r="I17" s="20"/>
+      <c r="H17" s="43">
+        <f t="shared" si="0"/>
+        <v>824460</v>
+      </c>
+      <c r="I17" s="26">
+        <f t="shared" si="1"/>
+        <v>736260</v>
+      </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B18" s="12">
@@ -15119,11 +13172,14 @@
         <f>'[1]B.M(OperationX2)'!I18</f>
         <v>757000</v>
       </c>
-      <c r="H18" s="19">
-        <f>'[1]B.M(OperationX2)'!K18</f>
-        <v>885065.99980176007</v>
-      </c>
-      <c r="I18" s="20"/>
+      <c r="H18" s="43">
+        <f t="shared" ref="H18:H21" si="2">H19</f>
+        <v>805770</v>
+      </c>
+      <c r="I18" s="26">
+        <f t="shared" ref="I18:I55" si="3">I19</f>
+        <v>731745</v>
+      </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B19" s="12">
@@ -15148,11 +13204,14 @@
         <f>'[1]B.M(OperationX2)'!I19</f>
         <v>728200</v>
       </c>
-      <c r="H19" s="19">
-        <f>'[1]B.M(OperationX2)'!K19</f>
-        <v>865241.99985132006</v>
-      </c>
-      <c r="I19" s="20"/>
+      <c r="H19" s="43">
+        <f t="shared" si="2"/>
+        <v>805770</v>
+      </c>
+      <c r="I19" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B20" s="12">
@@ -15177,11 +13236,14 @@
         <f>'[1]B.M(OperationX2)'!I20</f>
         <v>698900</v>
       </c>
-      <c r="H20" s="19">
-        <f>'[1]B.M(OperationX2)'!K20</f>
-        <v>845417.99990088004</v>
-      </c>
-      <c r="I20" s="20"/>
+      <c r="H20" s="43">
+        <f t="shared" si="2"/>
+        <v>805770</v>
+      </c>
+      <c r="I20" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B21" s="12">
@@ -15206,11 +13268,14 @@
         <f>'[1]B.M(OperationX2)'!I21</f>
         <v>669000</v>
       </c>
-      <c r="H21" s="19">
-        <f>'[1]B.M(OperationX2)'!K21</f>
-        <v>825593.99995044002</v>
-      </c>
-      <c r="I21" s="20"/>
+      <c r="H21" s="43">
+        <f t="shared" si="2"/>
+        <v>805770</v>
+      </c>
+      <c r="I21" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B22" s="12">
@@ -15235,11 +13300,14 @@
         <f>'[1]B.M(OperationX2)'!I22</f>
         <v>638500</v>
       </c>
-      <c r="H22" s="19">
-        <f>'[1]B.M(OperationX2)'!K22</f>
+      <c r="H22" s="43">
+        <f t="shared" ref="H22:H55" si="4">H23</f>
         <v>805770</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B23" s="12">
@@ -15264,11 +13332,14 @@
         <f>'[1]B.M(OperationX2)'!I23</f>
         <v>607400</v>
       </c>
-      <c r="H23" s="19">
-        <f>'[1]B.M(OperationX2)'!K23</f>
+      <c r="H23" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B24" s="12">
@@ -15293,11 +13364,14 @@
         <f>'[1]B.M(OperationX2)'!I24</f>
         <v>575800</v>
       </c>
-      <c r="H24" s="19">
-        <f>'[1]B.M(OperationX2)'!K24</f>
+      <c r="H24" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B25" s="12">
@@ -15322,11 +13396,14 @@
         <f>'[1]B.M(OperationX2)'!I25</f>
         <v>543600</v>
       </c>
-      <c r="H25" s="19">
-        <f>'[1]B.M(OperationX2)'!K25</f>
+      <c r="H25" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
       <c r="AA25" s="16">
         <f>10.5-5.8</f>
         <v>4.7</v>
@@ -15355,11 +13432,14 @@
         <f>'[1]B.M(OperationX2)'!I26</f>
         <v>510800</v>
       </c>
-      <c r="H26" s="19">
-        <f>'[1]B.M(OperationX2)'!K26</f>
+      <c r="H26" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B27" s="12">
@@ -15384,11 +13464,14 @@
         <f>'[1]B.M(OperationX2)'!I27</f>
         <v>477500</v>
       </c>
-      <c r="H27" s="19">
-        <f>'[1]B.M(OperationX2)'!K27</f>
+      <c r="H27" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B28" s="12">
@@ -15413,11 +13496,14 @@
         <f>'[1]B.M(OperationX2)'!I28</f>
         <v>443600</v>
       </c>
-      <c r="H28" s="19">
-        <f>'[1]B.M(OperationX2)'!K28</f>
+      <c r="H28" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B29" s="21">
@@ -15442,11 +13528,14 @@
         <f>'[1]B.M(OperationX2)'!I29</f>
         <v>409100</v>
       </c>
-      <c r="H29" s="24">
-        <f>'[1]B.M(OperationX2)'!K29</f>
+      <c r="H29" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B30" s="21">
@@ -15471,11 +13560,14 @@
         <f>'[1]B.M(OperationX2)'!I30</f>
         <v>374100</v>
       </c>
-      <c r="H30" s="24">
-        <f>'[1]B.M(OperationX2)'!K30</f>
+      <c r="H30" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B31" s="12">
@@ -15500,11 +13592,14 @@
         <f>'[1]B.M(OperationX2)'!I31</f>
         <v>338500</v>
       </c>
-      <c r="H31" s="19">
-        <f>'[1]B.M(OperationX2)'!K31</f>
+      <c r="H31" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B32" s="12">
@@ -15529,11 +13624,14 @@
         <f>'[1]B.M(OperationX2)'!I32</f>
         <v>302300</v>
       </c>
-      <c r="H32" s="19">
-        <f>'[1]B.M(OperationX2)'!K32</f>
+      <c r="H32" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I32" s="20"/>
+      <c r="I32" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33" s="12">
@@ -15558,11 +13656,14 @@
         <f>'[1]B.M(OperationX2)'!I33</f>
         <v>265500</v>
       </c>
-      <c r="H33" s="19">
-        <f>'[1]B.M(OperationX2)'!K33</f>
+      <c r="H33" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34" s="12">
@@ -15587,11 +13688,14 @@
         <f>'[1]B.M(OperationX2)'!I34</f>
         <v>228200</v>
       </c>
-      <c r="H34" s="19">
-        <f>'[1]B.M(OperationX2)'!K34</f>
+      <c r="H34" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I34" s="20"/>
+      <c r="I34" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35" s="12">
@@ -15616,11 +13720,14 @@
         <f>'[1]B.M(OperationX2)'!I35</f>
         <v>190300</v>
       </c>
-      <c r="H35" s="19">
-        <f>'[1]B.M(OperationX2)'!K35</f>
+      <c r="H35" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I35" s="20"/>
+      <c r="I35" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B36" s="12">
@@ -15645,11 +13752,14 @@
         <f>'[1]B.M(OperationX2)'!I36</f>
         <v>152800</v>
       </c>
-      <c r="H36" s="19">
-        <f>'[1]B.M(OperationX2)'!K36</f>
+      <c r="H36" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B37" s="12">
@@ -15674,11 +13784,14 @@
         <f>'[1]B.M(OperationX2)'!I37</f>
         <v>114700</v>
       </c>
-      <c r="H37" s="19">
-        <f>'[1]B.M(OperationX2)'!K37</f>
+      <c r="H37" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
+      </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B38" s="12">
@@ -15703,9 +13816,13 @@
         <f>'[1]B.M(OperationX2)'!I38</f>
         <v>76070</v>
       </c>
-      <c r="H38" s="19">
-        <f>'[1]B.M(OperationX2)'!K38</f>
+      <c r="H38" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I38" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.45">
@@ -15731,9 +13848,13 @@
         <f>'[1]B.M(OperationX2)'!I39</f>
         <v>36860</v>
       </c>
-      <c r="H39" s="19">
-        <f>'[1]B.M(OperationX2)'!K39</f>
+      <c r="H39" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I39" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.45">
@@ -15759,9 +13880,13 @@
         <f>'[1]B.M(OperationX2)'!I40</f>
         <v>-49000</v>
       </c>
-      <c r="H40" s="19">
-        <f>'[1]B.M(OperationX2)'!K40</f>
+      <c r="H40" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I40" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
       <c r="M40" s="25"/>
       <c r="N40" s="26"/>
@@ -15790,9 +13915,13 @@
         <f>'[1]B.M(OperationX2)'!I41</f>
         <v>-67320</v>
       </c>
-      <c r="H41" s="19">
-        <f>'[1]B.M(OperationX2)'!K41</f>
+      <c r="H41" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I41" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.45">
@@ -15818,9 +13947,13 @@
         <f>'[1]B.M(OperationX2)'!I42</f>
         <v>-90940</v>
       </c>
-      <c r="H42" s="19">
-        <f>'[1]B.M(OperationX2)'!K42</f>
+      <c r="H42" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I42" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.45">
@@ -15846,9 +13979,13 @@
         <f>'[1]B.M(OperationX2)'!I43</f>
         <v>-133400</v>
       </c>
-      <c r="H43" s="19">
-        <f>'[1]B.M(OperationX2)'!K43</f>
+      <c r="H43" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I43" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.45">
@@ -15874,9 +14011,13 @@
         <f>'[1]B.M(OperationX2)'!I44</f>
         <v>-176400</v>
       </c>
-      <c r="H44" s="19">
-        <f>'[1]B.M(OperationX2)'!K44</f>
+      <c r="H44" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I44" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.45">
@@ -15902,9 +14043,13 @@
         <f>'[1]B.M(OperationX2)'!I45</f>
         <v>-220000</v>
       </c>
-      <c r="H45" s="19">
-        <f>'[1]B.M(OperationX2)'!K45</f>
+      <c r="H45" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I45" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.45">
@@ -15930,9 +14075,13 @@
         <f>'[1]B.M(OperationX2)'!I46</f>
         <v>-264200</v>
       </c>
-      <c r="H46" s="19">
-        <f>'[1]B.M(OperationX2)'!K46</f>
+      <c r="H46" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I46" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.45">
@@ -15958,9 +14107,13 @@
         <f>'[1]B.M(OperationX2)'!I47</f>
         <v>-309000</v>
       </c>
-      <c r="H47" s="24">
-        <f>'[1]B.M(OperationX2)'!K47</f>
+      <c r="H47" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I47" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.45">
@@ -15986,9 +14139,13 @@
         <f>'[1]B.M(OperationX2)'!I48</f>
         <v>-354100</v>
       </c>
-      <c r="H48" s="19">
-        <f>'[1]B.M(OperationX2)'!K48</f>
+      <c r="H48" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I48" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.45">
@@ -16014,9 +14171,13 @@
         <f>'[1]B.M(OperationX2)'!I49</f>
         <v>-399300</v>
       </c>
-      <c r="H49" s="19">
-        <f>'[1]B.M(OperationX2)'!K49</f>
+      <c r="H49" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I49" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.45">
@@ -16042,9 +14203,13 @@
         <f>'[1]B.M(OperationX2)'!I50</f>
         <v>-444800</v>
       </c>
-      <c r="H50" s="19">
-        <f>'[1]B.M(OperationX2)'!K50</f>
+      <c r="H50" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I50" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
       <c r="M50" s="25"/>
       <c r="N50" s="26"/>
@@ -16073,9 +14238,13 @@
         <f>'[1]B.M(OperationX2)'!I51</f>
         <v>-490400</v>
       </c>
-      <c r="H51" s="19">
-        <f>'[1]B.M(OperationX2)'!K51</f>
+      <c r="H51" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I51" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.45">
@@ -16101,9 +14270,13 @@
         <f>'[1]B.M(OperationX2)'!I52</f>
         <v>-536100</v>
       </c>
-      <c r="H52" s="19">
-        <f>'[1]B.M(OperationX2)'!K52</f>
+      <c r="H52" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I52" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.45">
@@ -16129,9 +14302,13 @@
         <f>'[1]B.M(OperationX2)'!I53</f>
         <v>-582100</v>
       </c>
-      <c r="H53" s="19">
-        <f>'[1]B.M(OperationX2)'!K53</f>
+      <c r="H53" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I53" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.45">
@@ -16157,9 +14334,13 @@
         <f>'[1]B.M(OperationX2)'!I54</f>
         <v>-628100</v>
       </c>
-      <c r="H54" s="19">
-        <f>'[1]B.M(OperationX2)'!K54</f>
+      <c r="H54" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I54" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.45">
@@ -16185,9 +14366,13 @@
         <f>'[1]B.M(OperationX2)'!I55</f>
         <v>-674400</v>
       </c>
-      <c r="H55" s="19">
-        <f>'[1]B.M(OperationX2)'!K55</f>
+      <c r="H55" s="43">
+        <f t="shared" si="4"/>
         <v>805770</v>
+      </c>
+      <c r="I55" s="26">
+        <f t="shared" si="3"/>
+        <v>731745</v>
       </c>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.45">
@@ -16213,9 +14398,13 @@
         <f>'[1]B.M(OperationX2)'!I56</f>
         <v>-720800</v>
       </c>
-      <c r="H56" s="19">
-        <f>'[1]B.M(OperationX2)'!K56</f>
+      <c r="H56" s="43">
+        <f>H57</f>
         <v>805770</v>
+      </c>
+      <c r="I56" s="26">
+        <f>I57</f>
+        <v>731745</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.45">
@@ -16241,9 +14430,13 @@
         <f>'[1]B.M(OperationX2)'!I57</f>
         <v>-767400</v>
       </c>
-      <c r="H57" s="24">
-        <f>'[1]B.M(OperationX2)'!K57</f>
+      <c r="H57" s="43">
+        <f>ABS(G57*1.05)</f>
         <v>805770</v>
+      </c>
+      <c r="I57" s="26">
+        <f t="shared" ref="I57" si="5">ABS(F57*1.05)</f>
+        <v>731745</v>
       </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.45">
@@ -16270,6 +14463,7 @@
         <f>MAX(H2:H57)</f>
         <v>1202250</v>
       </c>
+      <c r="I58" s="20"/>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C59" s="16" t="s">

--- a/XEF.GlobalStrength.xlsx
+++ b/XEF.GlobalStrength.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git.Project\EngXExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA40426-9D6B-439B-ADC2-5DA4FB5FCCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441C13A-AF73-4973-8ADD-E7E51094D866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
     <sheet name="Global BM" sheetId="14" r:id="rId6"/>
     <sheet name="Global SF" sheetId="15" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BMLD">#REF!</definedName>
     <definedName name="Cb">#REF!</definedName>
@@ -550,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,9 +670,6 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -997,7 +991,7 @@
             <c:numRef>
               <c:f>'Global BM'!$H$2:$H$57</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>1202250</c:v>
@@ -2933,7 +2927,7 @@
             <c:numRef>
               <c:f>'Global BM'!$I$2:$I$57</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>1054200</c:v>
@@ -3210,7 +3204,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6784,2448 +6778,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Weight"/>
-      <sheetName val="ballast"/>
-      <sheetName val="load"/>
-      <sheetName val="B.M(Install)"/>
-      <sheetName val="B.M(Operation)"/>
-      <sheetName val="B.M(OperationX1_5)"/>
-      <sheetName val="B.M(OperationX2)"/>
-      <sheetName val="B.M(OperationTotal)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="I2">
-            <v>596300</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="I3">
-            <v>591000</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>585100</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>578700</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>571800</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="I7">
-            <v>564300</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="I8">
-            <v>556300</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="I9">
-            <v>547800</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="I10">
-            <v>538800</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="I11">
-            <v>529300</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="I12">
-            <v>519200</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="I13">
-            <v>508600</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="I14">
-            <v>497400</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15">
-            <v>485700</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16">
-            <v>473400</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17">
-            <v>460500</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18">
-            <v>447100</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19">
-            <v>433100</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20">
-            <v>418500</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21">
-            <v>403400</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22">
-            <v>387700</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23">
-            <v>371500</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24">
-            <v>354700</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25">
-            <v>337300</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26">
-            <v>319400</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="I27">
-            <v>300900</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28">
-            <v>281900</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29">
-            <v>262300</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="I30">
-            <v>242100</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="I31">
-            <v>221400</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="I32">
-            <v>200100</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="I33">
-            <v>178200</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34">
-            <v>155800</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="I35">
-            <v>132800</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="I36">
-            <v>109200</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="I37">
-            <v>85140</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="I38">
-            <v>60470</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="I39">
-            <v>35230</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="I40">
-            <v>-39110</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41">
-            <v>-65470</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="I42">
-            <v>-92400</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="I43">
-            <v>-119900</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="I44">
-            <v>-147900</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="I45">
-            <v>-176600</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="I46">
-            <v>-205700</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="I47">
-            <v>-235500</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="I48">
-            <v>-265600</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="I49">
-            <v>-295800</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="I50">
-            <v>-326300</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="I51">
-            <v>-356900</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="I52">
-            <v>-387600</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="I53">
-            <v>-418700</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="I54">
-            <v>-450000</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55">
-            <v>-481500</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56">
-            <v>-513100</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57">
-            <v>-544900</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="I87">
-            <v>6367</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="I88">
-            <v>7022</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="I89">
-            <v>7677</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="I90">
-            <v>8332</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="I91">
-            <v>8987</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="I92">
-            <v>9642</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="I93">
-            <v>10300</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="I94">
-            <v>10950</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="I95">
-            <v>11620</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="I96">
-            <v>12270</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="I97">
-            <v>12920</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="I98">
-            <v>13630</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="I99">
-            <v>14330</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="I100">
-            <v>15030</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="I101">
-            <v>15740</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="I102">
-            <v>16440</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="I103">
-            <v>17140</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="I104">
-            <v>17840</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="I105">
-            <v>18550</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="I106">
-            <v>19250</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="I107">
-            <v>19950</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="I108">
-            <v>20660</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="I109">
-            <v>21360</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="I110">
-            <v>22060</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="I111">
-            <v>22770</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="I112">
-            <v>23470</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="I113">
-            <v>24170</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="I114">
-            <v>24870</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="I115">
-            <v>25580</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="I116">
-            <v>26280</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="I117">
-            <v>26980</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="I118">
-            <v>27690</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="I119">
-            <v>28390</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="I120">
-            <v>29090</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="I121">
-            <v>29790</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="I122">
-            <v>30500</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="I123">
-            <v>31200</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="I124">
-            <v>31900</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="I125">
-            <v>32610</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="I126">
-            <v>33310</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="I127">
-            <v>34010</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="I128">
-            <v>34710</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="I129">
-            <v>35420</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="I130">
-            <v>36120</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="I131">
-            <v>36820</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="I132">
-            <v>37530</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="I133">
-            <v>37730</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="I134">
-            <v>37930</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="I135">
-            <v>38130</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="I136">
-            <v>38340</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="I137">
-            <v>38810</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="I138">
-            <v>39020</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="I139">
-            <v>39220</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="I140">
-            <v>39420</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="I141">
-            <v>39630</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="I142">
-            <v>39830</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="I2">
-            <v>861800</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="I3">
-            <v>848800</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>835300</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>821400</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>807000</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="I7">
-            <v>792200</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="I8">
-            <v>776900</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="I9">
-            <v>761100</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="I10">
-            <v>744900</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="I11">
-            <v>728300</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="I12">
-            <v>711100</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="I13">
-            <v>693500</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="I14">
-            <v>675300</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15">
-            <v>656600</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16">
-            <v>637200</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17">
-            <v>617300</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18">
-            <v>596800</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19">
-            <v>575800</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20">
-            <v>554200</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21">
-            <v>532000</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22">
-            <v>509200</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23">
-            <v>485900</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24">
-            <v>462000</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25">
-            <v>437500</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26">
-            <v>412500</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="I27">
-            <v>386900</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28">
-            <v>360700</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29">
-            <v>333900</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="I30">
-            <v>306600</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="I31">
-            <v>278700</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="I32">
-            <v>250200</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="I33">
-            <v>221200</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34">
-            <v>191600</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="I35">
-            <v>161400</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="I36">
-            <v>131100</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="I37">
-            <v>100300</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="I38">
-            <v>68910</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="I39">
-            <v>36930</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="I40">
-            <v>-42420</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41">
-            <v>-64520</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="I42">
-            <v>-87190</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="I43">
-            <v>-110400</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="I44">
-            <v>-135800</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="I45">
-            <v>-171700</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="I46">
-            <v>-208200</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="I47">
-            <v>-245200</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="I48">
-            <v>-282600</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="I49">
-            <v>-320100</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="I50">
-            <v>-357900</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="I51">
-            <v>-395700</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="I52">
-            <v>-433800</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="I53">
-            <v>-472000</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="I54">
-            <v>-510300</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55">
-            <v>-548900</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56">
-            <v>-587600</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57">
-            <v>-626400</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="I87">
-            <v>16000</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="I88">
-            <v>16570</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="I89">
-            <v>17140</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="I90">
-            <v>17700</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="I91">
-            <v>18270</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="I92">
-            <v>18840</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="I93">
-            <v>19400</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="I94">
-            <v>19970</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="I95">
-            <v>20540</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="I96">
-            <v>21110</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="I97">
-            <v>21670</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="I98">
-            <v>22390</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="I99">
-            <v>23100</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="I100">
-            <v>23810</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="I101">
-            <v>24530</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="I102">
-            <v>25240</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="I103">
-            <v>25950</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="I104">
-            <v>26670</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="I105">
-            <v>27380</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="I106">
-            <v>28090</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="I107">
-            <v>28810</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="I108">
-            <v>29520</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="I109">
-            <v>30230</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="I110">
-            <v>30950</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="I111">
-            <v>31660</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="I112">
-            <v>32370</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="I113">
-            <v>33090</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="I114">
-            <v>33800</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="I115">
-            <v>34510</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="I116">
-            <v>35220</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="I117">
-            <v>35940</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="I118">
-            <v>36650</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="I119">
-            <v>37360</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="I120">
-            <v>38080</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="I121">
-            <v>38790</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="I122">
-            <v>39500</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="I123">
-            <v>40220</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="I124">
-            <v>40930</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="I125">
-            <v>41640</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="I126">
-            <v>42360</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="I127">
-            <v>43070</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="I128">
-            <v>43780</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="I129">
-            <v>44500</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="I130">
-            <v>45210</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="I131">
-            <v>45920</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="I132">
-            <v>46640</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="I133">
-            <v>46840</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="I134">
-            <v>47040</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="I135">
-            <v>47250</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="I136">
-            <v>47450</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="I137">
-            <v>47650</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="I138">
-            <v>47850</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="I139">
-            <v>48060</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="I140">
-            <v>48260</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="I141">
-            <v>48460</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="I142">
-            <v>48670</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="I2">
-            <v>1004000</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="I3">
-            <v>986800</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>969400</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>951600</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>933400</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="I7">
-            <v>914700</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="I8">
-            <v>895500</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="I9">
-            <v>875900</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="I10">
-            <v>855900</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="I11">
-            <v>835300</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="I12">
-            <v>814400</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="I13">
-            <v>792900</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="I14">
-            <v>770800</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15">
-            <v>748200</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16">
-            <v>725000</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17">
-            <v>701200</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18">
-            <v>676900</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19">
-            <v>652000</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20">
-            <v>626500</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21">
-            <v>600500</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22">
-            <v>573800</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23">
-            <v>546700</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24">
-            <v>518900</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25">
-            <v>490600</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26">
-            <v>461700</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="I27">
-            <v>432200</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28">
-            <v>402100</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29">
-            <v>371500</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="I30">
-            <v>340300</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="I31">
-            <v>308600</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="I32">
-            <v>276300</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="I33">
-            <v>243400</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34">
-            <v>209900</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="I35">
-            <v>175900</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="I36">
-            <v>142000</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="I37">
-            <v>107500</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="I38">
-            <v>72490</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="I39">
-            <v>36890</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="I40">
-            <v>-45710</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41">
-            <v>-65920</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="I42">
-            <v>-86700</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="I43">
-            <v>-117000</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="I44">
-            <v>-156100</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="I45">
-            <v>-195900</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="I46">
-            <v>-236200</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="I47">
-            <v>-277100</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="I48">
-            <v>-318300</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="I49">
-            <v>-359700</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="I50">
-            <v>-401300</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="I51">
-            <v>-443100</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="I52">
-            <v>-485000</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="I53">
-            <v>-527000</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="I54">
-            <v>-569200</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55">
-            <v>-611600</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56">
-            <v>-654200</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57">
-            <v>-696900</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="I87">
-            <v>20830</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="I88">
-            <v>21390</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="I89">
-            <v>21960</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="I90">
-            <v>22530</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="I91">
-            <v>23090</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="I92">
-            <v>23660</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="I93">
-            <v>24230</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="I94">
-            <v>24800</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="I95">
-            <v>25360</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="I96">
-            <v>25930</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="I97">
-            <v>26500</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="I98">
-            <v>27210</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="I99">
-            <v>27930</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="I100">
-            <v>28640</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="I101">
-            <v>29350</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="I102">
-            <v>30070</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="I103">
-            <v>30780</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="I104">
-            <v>31490</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="I105">
-            <v>32200</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="I106">
-            <v>32920</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="I107">
-            <v>33630</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="I108">
-            <v>34340</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="I109">
-            <v>35060</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="I110">
-            <v>35770</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="I111">
-            <v>36480</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="I112">
-            <v>37200</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="I113">
-            <v>37910</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="I114">
-            <v>38620</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="I115">
-            <v>39340</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="I116">
-            <v>40050</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="I117">
-            <v>40760</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="I118">
-            <v>41480</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="I119">
-            <v>42190</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="I120">
-            <v>42900</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="I121">
-            <v>43620</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="I122">
-            <v>44330</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="I123">
-            <v>45040</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="I124">
-            <v>45760</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="I125">
-            <v>46470</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="I126">
-            <v>47180</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="I127">
-            <v>47900</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="I128">
-            <v>48610</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="I129">
-            <v>49320</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="I130">
-            <v>50030</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="I131">
-            <v>50750</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="I132">
-            <v>51460</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="I133">
-            <v>51660</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="I134">
-            <v>51870</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="I135">
-            <v>52070</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="I136">
-            <v>52270</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="I137">
-            <v>52480</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="I138">
-            <v>52680</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="I139">
-            <v>52880</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="I140">
-            <v>53080</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="I141">
-            <v>53290</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="I142">
-            <v>53490</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="I2">
-            <v>1145000</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="I3">
-            <v>1125000</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>1104000</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>1082000</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>1060000</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="I7">
-            <v>1037000</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="I8">
-            <v>1014000</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="I9">
-            <v>990700</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="I10">
-            <v>966800</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="I11">
-            <v>942400</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="I12">
-            <v>917600</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="I13">
-            <v>892200</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="I14">
-            <v>866300</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15">
-            <v>839800</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16">
-            <v>812800</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17">
-            <v>785200</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18">
-            <v>757000</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19">
-            <v>728200</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20">
-            <v>698900</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21">
-            <v>669000</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22">
-            <v>638500</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23">
-            <v>607400</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24">
-            <v>575800</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25">
-            <v>543600</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26">
-            <v>510800</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="I27">
-            <v>477500</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28">
-            <v>443600</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29">
-            <v>409100</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="I30">
-            <v>374100</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="I31">
-            <v>338500</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="I32">
-            <v>302300</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="I33">
-            <v>265500</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34">
-            <v>228200</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="I35">
-            <v>190300</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="I36">
-            <v>152800</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="I37">
-            <v>114700</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="I38">
-            <v>76070</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="I39">
-            <v>36860</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="I40">
-            <v>-49000</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41">
-            <v>-67320</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="I42">
-            <v>-90940</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="I43">
-            <v>-133400</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="I44">
-            <v>-176400</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="I45">
-            <v>-220000</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="I46">
-            <v>-264200</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="I47">
-            <v>-309000</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="I48">
-            <v>-354100</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="I49">
-            <v>-399300</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="I50">
-            <v>-444800</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="I51">
-            <v>-490400</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="I52">
-            <v>-536100</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="I53">
-            <v>-582100</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="I54">
-            <v>-628100</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55">
-            <v>-674400</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56">
-            <v>-720800</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57">
-            <v>-767400</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="I87">
-            <v>25650</v>
-          </cell>
-          <cell r="J87">
-            <v>26932.5</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="I88">
-            <v>26220</v>
-          </cell>
-          <cell r="J88">
-            <v>27531</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="I89">
-            <v>26790</v>
-          </cell>
-          <cell r="J89">
-            <v>28129.5</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="I90">
-            <v>27350</v>
-          </cell>
-          <cell r="J90">
-            <v>28717.5</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="I91">
-            <v>27920</v>
-          </cell>
-          <cell r="J91">
-            <v>29316</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="I92">
-            <v>28490</v>
-          </cell>
-          <cell r="J92">
-            <v>29914.5</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="I93">
-            <v>29050</v>
-          </cell>
-          <cell r="J93">
-            <v>30502.5</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="I94">
-            <v>29620</v>
-          </cell>
-          <cell r="J94">
-            <v>31101</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="I95">
-            <v>30190</v>
-          </cell>
-          <cell r="J95">
-            <v>31699.5</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="I96">
-            <v>30760</v>
-          </cell>
-          <cell r="J96">
-            <v>32298</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="I97">
-            <v>31320</v>
-          </cell>
-          <cell r="J97">
-            <v>32886</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="I98">
-            <v>32040</v>
-          </cell>
-          <cell r="J98">
-            <v>33642</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="I99">
-            <v>32750</v>
-          </cell>
-          <cell r="J99">
-            <v>34387.5</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="I100">
-            <v>33460</v>
-          </cell>
-          <cell r="J100">
-            <v>35133</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="I101">
-            <v>34180</v>
-          </cell>
-          <cell r="J101">
-            <v>35889</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="I102">
-            <v>34890</v>
-          </cell>
-          <cell r="J102">
-            <v>36634.5</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="I103">
-            <v>35600</v>
-          </cell>
-          <cell r="J103">
-            <v>37380</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="I104">
-            <v>36320</v>
-          </cell>
-          <cell r="J104">
-            <v>38136</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="I105">
-            <v>37030</v>
-          </cell>
-          <cell r="J105">
-            <v>38881.5</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="I106">
-            <v>37740</v>
-          </cell>
-          <cell r="J106">
-            <v>39627</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="I107">
-            <v>38460</v>
-          </cell>
-          <cell r="J107">
-            <v>40383</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="I108">
-            <v>39170</v>
-          </cell>
-          <cell r="J108">
-            <v>41128.5</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="I109">
-            <v>39880</v>
-          </cell>
-          <cell r="J109">
-            <v>41874</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="I110">
-            <v>40600</v>
-          </cell>
-          <cell r="J110">
-            <v>42630</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="I111">
-            <v>41310</v>
-          </cell>
-          <cell r="J111">
-            <v>43375.5</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="I112">
-            <v>42020</v>
-          </cell>
-          <cell r="J112">
-            <v>44121</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="I113">
-            <v>42740</v>
-          </cell>
-          <cell r="J113">
-            <v>44877</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="I114">
-            <v>43450</v>
-          </cell>
-          <cell r="J114">
-            <v>45622.5</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="I115">
-            <v>44160</v>
-          </cell>
-          <cell r="J115">
-            <v>46368</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="I116">
-            <v>44880</v>
-          </cell>
-          <cell r="J116">
-            <v>47124</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="I117">
-            <v>45590</v>
-          </cell>
-          <cell r="J117">
-            <v>47869.5</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="I118">
-            <v>46300</v>
-          </cell>
-          <cell r="J118">
-            <v>48615</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="I119">
-            <v>47010</v>
-          </cell>
-          <cell r="J119">
-            <v>49360.5</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="I120">
-            <v>47730</v>
-          </cell>
-          <cell r="J120">
-            <v>50116.5</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="I121">
-            <v>48440</v>
-          </cell>
-          <cell r="J121">
-            <v>50862</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="I122">
-            <v>49150</v>
-          </cell>
-          <cell r="J122">
-            <v>51607.5</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="I123">
-            <v>49870</v>
-          </cell>
-          <cell r="J123">
-            <v>52363.5</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="I124">
-            <v>50580</v>
-          </cell>
-          <cell r="J124">
-            <v>53109</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="I125">
-            <v>51290</v>
-          </cell>
-          <cell r="J125">
-            <v>53854.5</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="I126">
-            <v>52010</v>
-          </cell>
-          <cell r="J126">
-            <v>54610.5</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="I127">
-            <v>52720</v>
-          </cell>
-          <cell r="J127">
-            <v>55356</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="I128">
-            <v>53430</v>
-          </cell>
-          <cell r="J128">
-            <v>56101.5</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="I129">
-            <v>54150</v>
-          </cell>
-          <cell r="J129">
-            <v>56857.5</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="I130">
-            <v>54860</v>
-          </cell>
-          <cell r="J130">
-            <v>57603</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="I131">
-            <v>55570</v>
-          </cell>
-          <cell r="J131">
-            <v>58348.5</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="I132">
-            <v>56290</v>
-          </cell>
-          <cell r="J132">
-            <v>59104.5</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="I133">
-            <v>56490</v>
-          </cell>
-          <cell r="J133">
-            <v>59314.5</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="I134">
-            <v>56690</v>
-          </cell>
-          <cell r="J134">
-            <v>59524.5</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="I135">
-            <v>56900</v>
-          </cell>
-          <cell r="J135">
-            <v>59745</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="I136">
-            <v>57100</v>
-          </cell>
-          <cell r="J136">
-            <v>59955</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="I137">
-            <v>57300</v>
-          </cell>
-          <cell r="J137">
-            <v>60165</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="I138">
-            <v>57500</v>
-          </cell>
-          <cell r="J138">
-            <v>60375</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="I139">
-            <v>57710</v>
-          </cell>
-          <cell r="J139">
-            <v>60595.5</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="I140">
-            <v>57910</v>
-          </cell>
-          <cell r="J140">
-            <v>60805.5</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="I141">
-            <v>58110</v>
-          </cell>
-          <cell r="J141">
-            <v>61015.5</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="I142">
-            <v>58320</v>
-          </cell>
-          <cell r="J142">
-            <v>61236</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -12085,7 +9637,7 @@
   <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -12169,13 +9721,13 @@
         <v>11.9</v>
       </c>
       <c r="E4" s="38">
-        <v>9.5</v>
+        <v>10.9</v>
       </c>
       <c r="F4" s="38">
-        <v>8.75</v>
+        <v>9.9</v>
       </c>
       <c r="G4" s="38">
-        <v>7.75</v>
+        <v>9.15</v>
       </c>
       <c r="H4" s="38">
         <v>8.4</v>
@@ -12192,13 +9744,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="30">
-        <v>6.1079999999999997</v>
+        <v>6.0730000000000004</v>
       </c>
       <c r="D5" s="30">
-        <v>5.468</v>
+        <v>5.9619999999999997</v>
       </c>
       <c r="E5" s="31">
-        <v>5.0069999999999997</v>
+        <v>5.4370000000000003</v>
       </c>
       <c r="F5" s="31">
         <v>4.32</v>
@@ -12221,13 +9773,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="30">
-        <v>31.978100000000001</v>
+        <v>31.586300000000001</v>
       </c>
       <c r="D6" s="30">
-        <v>19.790700000000001</v>
+        <v>29.778400000000001</v>
       </c>
       <c r="E6" s="30">
-        <v>15.96</v>
+        <v>23.956199999999999</v>
       </c>
       <c r="F6" s="30">
         <v>13.785299999999999</v>
@@ -12250,13 +9802,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="30">
-        <v>48.389000000000003</v>
+        <v>51.558100000000003</v>
       </c>
       <c r="D7" s="30">
-        <v>20.355699999999999</v>
+        <v>27.726700000000001</v>
       </c>
       <c r="E7" s="30">
-        <v>18.899699999999999</v>
+        <v>24.478000000000002</v>
       </c>
       <c r="F7" s="30">
         <v>20.8903</v>
@@ -12280,23 +9832,23 @@
       </c>
       <c r="C8" s="32">
         <f t="shared" ref="C8:E8" si="0">C6/(C4-C5)</f>
-        <v>5.5210808011049721</v>
+        <v>5.4206795949888456</v>
       </c>
       <c r="D8" s="32">
         <f t="shared" si="0"/>
-        <v>3.0769123134328358</v>
+        <v>5.014887167396429</v>
       </c>
       <c r="E8" s="32">
         <f t="shared" si="0"/>
-        <v>3.552192299131983</v>
+        <v>4.3851729818780889</v>
       </c>
       <c r="F8" s="32">
         <f>F6/(F4-F5)</f>
-        <v>3.1118058690744923</v>
+        <v>2.4704838709677417</v>
       </c>
       <c r="G8" s="32">
         <f>G6/(G4-G5)</f>
-        <v>3.0791590968076825</v>
+        <v>2.2585189415572056</v>
       </c>
       <c r="H8" s="32">
         <f>H6/(H4-H5)</f>
@@ -12316,15 +9868,15 @@
       </c>
       <c r="C9" s="32">
         <f t="shared" ref="C9:E9" si="1">C6/C5</f>
-        <v>5.2354453176162412</v>
+        <v>5.2011032438662932</v>
       </c>
       <c r="D9" s="32">
         <f t="shared" si="1"/>
-        <v>3.6193672275054869</v>
+        <v>4.9946997651794707</v>
       </c>
       <c r="E9" s="32">
         <f t="shared" si="1"/>
-        <v>3.1875374475733977</v>
+        <v>4.4061430936178034</v>
       </c>
       <c r="F9" s="32">
         <f t="shared" ref="F9:H9" si="2">F6/F5</f>
@@ -12388,23 +9940,23 @@
       </c>
       <c r="C11" s="40">
         <f>C10/(C8*1000)</f>
-        <v>190.94087516143861</v>
+        <v>194.47746016469162</v>
       </c>
       <c r="D11" s="40">
         <f>D10/(D8*1000)</f>
-        <v>277.91497218390458</v>
+        <v>170.51629906240768</v>
       </c>
       <c r="E11" s="40">
         <f t="shared" ref="E11:G11" si="3">E10/(E8*1000)</f>
-        <v>205.99813815789474</v>
+        <v>166.86798970621385</v>
       </c>
       <c r="F11" s="40">
         <f>F10/(F8*1000)</f>
-        <v>235.15123718743877</v>
+        <v>296.19501207808321</v>
       </c>
       <c r="G11" s="40">
         <f t="shared" si="3"/>
-        <v>237.64442725893457</v>
+        <v>323.99329779163855</v>
       </c>
       <c r="H11" s="40">
         <f>H10/(H8*1000)</f>
@@ -12424,15 +9976,15 @@
       </c>
       <c r="C12" s="40">
         <f>C10/(C9*1000)</f>
-        <v>201.35822953834028</v>
+        <v>202.68776653169255</v>
       </c>
       <c r="D12" s="40">
         <f>D10/(D9*1000)</f>
-        <v>236.26229289514768</v>
+        <v>171.20548585551941</v>
       </c>
       <c r="E12" s="40">
         <f t="shared" ref="E12:G12" si="4">E10/(E9*1000)</f>
-        <v>229.56436184210523</v>
+        <v>166.07381659027729</v>
       </c>
       <c r="F12" s="40">
         <f t="shared" si="4"/>
@@ -12458,23 +10010,23 @@
       <c r="B13" s="27"/>
       <c r="C13" s="32">
         <f>C11/$E$16</f>
-        <v>0.78576491835982964</v>
+        <v>0.80031876610984209</v>
       </c>
       <c r="D13" s="32">
         <f t="shared" ref="D13:I13" si="5">D11/$E$16</f>
-        <v>1.143683013102488</v>
+        <v>0.70171316486587521</v>
       </c>
       <c r="E13" s="32">
         <f t="shared" si="5"/>
-        <v>0.84772896361273553</v>
+        <v>0.6866995461161064</v>
       </c>
       <c r="F13" s="32">
         <f t="shared" si="5"/>
-        <v>0.9677005645573612</v>
+        <v>1.2189095147246223</v>
       </c>
       <c r="G13" s="32">
         <f t="shared" si="5"/>
-        <v>0.97796060600384593</v>
+        <v>1.3333057522289653</v>
       </c>
       <c r="H13" s="32">
         <f t="shared" si="5"/>
@@ -12492,15 +10044,15 @@
       <c r="B14" s="27"/>
       <c r="C14" s="32">
         <f>C12/$E$16</f>
-        <v>0.82863468945819041</v>
+        <v>0.83410603510984582</v>
       </c>
       <c r="D14" s="32">
         <f t="shared" ref="D14:I14" si="6">D12/$E$16</f>
-        <v>0.97227281026809742</v>
+        <v>0.70454932450831032</v>
       </c>
       <c r="E14" s="32">
         <f t="shared" si="6"/>
-        <v>0.94470930799220254</v>
+        <v>0.68343134399291061</v>
       </c>
       <c r="F14" s="32">
         <f t="shared" si="6"/>
@@ -12541,10 +10093,10 @@
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="41"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -12556,7 +10108,7 @@
       <c r="A19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="41">
         <v>1</v>
       </c>
       <c r="C19" s="34"/>
@@ -12597,8 +10149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E0669B-5B74-4678-97C2-20FC5B4CFC67}">
   <dimension ref="B1:AA60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG27" sqref="AG27"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -12645,22 +10197,18 @@
         <v>0</v>
       </c>
       <c r="D2" s="18">
-        <f>'[1]B.M(Install)'!I2</f>
         <v>596300</v>
       </c>
       <c r="E2" s="18">
-        <f>'[1]B.M(Operation)'!I2</f>
         <v>861800</v>
       </c>
       <c r="F2" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I2</f>
         <v>1004000</v>
       </c>
       <c r="G2" s="18">
-        <f>'[1]B.M(OperationX2)'!I2</f>
         <v>1145000</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="42">
         <f>ABS(G2*1.05)</f>
         <v>1202250</v>
       </c>
@@ -12677,23 +10225,19 @@
         <v>800.00009999999997</v>
       </c>
       <c r="D3" s="18">
-        <f>'[1]B.M(Install)'!I3</f>
         <v>591000</v>
       </c>
       <c r="E3" s="18">
-        <f>'[1]B.M(Operation)'!I3</f>
         <v>848800</v>
       </c>
       <c r="F3" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I3</f>
         <v>986800</v>
       </c>
       <c r="G3" s="18">
-        <f>'[1]B.M(OperationX2)'!I3</f>
         <v>1125000</v>
       </c>
-      <c r="H3" s="43">
-        <f t="shared" ref="H3:H56" si="0">ABS(G3*1.05)</f>
+      <c r="H3" s="42">
+        <f t="shared" ref="H3:H17" si="0">ABS(G3*1.05)</f>
         <v>1181250</v>
       </c>
       <c r="I3" s="26">
@@ -12709,22 +10253,18 @@
         <v>1600</v>
       </c>
       <c r="D4" s="18">
-        <f>'[1]B.M(Install)'!I4</f>
         <v>585100</v>
       </c>
       <c r="E4" s="18">
-        <f>'[1]B.M(Operation)'!I4</f>
         <v>835300</v>
       </c>
       <c r="F4" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I4</f>
         <v>969400</v>
       </c>
       <c r="G4" s="18">
-        <f>'[1]B.M(OperationX2)'!I4</f>
         <v>1104000</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="42">
         <f t="shared" si="0"/>
         <v>1159200</v>
       </c>
@@ -12741,22 +10281,18 @@
         <v>2400</v>
       </c>
       <c r="D5" s="18">
-        <f>'[1]B.M(Install)'!I5</f>
         <v>578700</v>
       </c>
       <c r="E5" s="18">
-        <f>'[1]B.M(Operation)'!I5</f>
         <v>821400</v>
       </c>
       <c r="F5" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I5</f>
         <v>951600</v>
       </c>
       <c r="G5" s="18">
-        <f>'[1]B.M(OperationX2)'!I5</f>
         <v>1082000</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="42">
         <f t="shared" si="0"/>
         <v>1136100</v>
       </c>
@@ -12773,22 +10309,18 @@
         <v>3200</v>
       </c>
       <c r="D6" s="18">
-        <f>'[1]B.M(Install)'!I6</f>
         <v>571800</v>
       </c>
       <c r="E6" s="18">
-        <f>'[1]B.M(Operation)'!I6</f>
         <v>807000</v>
       </c>
       <c r="F6" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I6</f>
         <v>933400</v>
       </c>
       <c r="G6" s="18">
-        <f>'[1]B.M(OperationX2)'!I6</f>
         <v>1060000</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="42">
         <f t="shared" si="0"/>
         <v>1113000</v>
       </c>
@@ -12805,22 +10337,18 @@
         <v>3999.9999899999998</v>
       </c>
       <c r="D7" s="18">
-        <f>'[1]B.M(Install)'!I7</f>
         <v>564300</v>
       </c>
       <c r="E7" s="18">
-        <f>'[1]B.M(Operation)'!I7</f>
         <v>792200</v>
       </c>
       <c r="F7" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I7</f>
         <v>914700</v>
       </c>
       <c r="G7" s="18">
-        <f>'[1]B.M(OperationX2)'!I7</f>
         <v>1037000</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="42">
         <f t="shared" si="0"/>
         <v>1088850</v>
       </c>
@@ -12837,22 +10365,18 @@
         <v>4799.9999799999996</v>
       </c>
       <c r="D8" s="18">
-        <f>'[1]B.M(Install)'!I8</f>
         <v>556300</v>
       </c>
       <c r="E8" s="18">
-        <f>'[1]B.M(Operation)'!I8</f>
         <v>776900</v>
       </c>
       <c r="F8" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I8</f>
         <v>895500</v>
       </c>
       <c r="G8" s="18">
-        <f>'[1]B.M(OperationX2)'!I8</f>
         <v>1014000</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="42">
         <f t="shared" si="0"/>
         <v>1064700</v>
       </c>
@@ -12869,22 +10393,18 @@
         <v>5599.9999699999998</v>
       </c>
       <c r="D9" s="18">
-        <f>'[1]B.M(Install)'!I9</f>
         <v>547800</v>
       </c>
       <c r="E9" s="18">
-        <f>'[1]B.M(Operation)'!I9</f>
         <v>761100</v>
       </c>
       <c r="F9" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I9</f>
         <v>875900</v>
       </c>
       <c r="G9" s="18">
-        <f>'[1]B.M(OperationX2)'!I9</f>
         <v>990700</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="42">
         <f t="shared" si="0"/>
         <v>1040235</v>
       </c>
@@ -12901,22 +10421,18 @@
         <v>6399.9999600000001</v>
       </c>
       <c r="D10" s="18">
-        <f>'[1]B.M(Install)'!I10</f>
         <v>538800</v>
       </c>
       <c r="E10" s="18">
-        <f>'[1]B.M(Operation)'!I10</f>
         <v>744900</v>
       </c>
       <c r="F10" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I10</f>
         <v>855900</v>
       </c>
       <c r="G10" s="18">
-        <f>'[1]B.M(OperationX2)'!I10</f>
         <v>966800</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="42">
         <f t="shared" si="0"/>
         <v>1015140</v>
       </c>
@@ -12933,22 +10449,18 @@
         <v>7199.9999500000004</v>
       </c>
       <c r="D11" s="18">
-        <f>'[1]B.M(Install)'!I11</f>
         <v>529300</v>
       </c>
       <c r="E11" s="18">
-        <f>'[1]B.M(Operation)'!I11</f>
         <v>728300</v>
       </c>
       <c r="F11" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I11</f>
         <v>835300</v>
       </c>
       <c r="G11" s="18">
-        <f>'[1]B.M(OperationX2)'!I11</f>
         <v>942400</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="42">
         <f t="shared" si="0"/>
         <v>989520</v>
       </c>
@@ -12965,22 +10477,18 @@
         <v>7999.9999399999997</v>
       </c>
       <c r="D12" s="23">
-        <f>'[1]B.M(Install)'!I12</f>
         <v>519200</v>
       </c>
       <c r="E12" s="23">
-        <f>'[1]B.M(Operation)'!I12</f>
         <v>711100</v>
       </c>
       <c r="F12" s="23">
-        <f>'[1]B.M(OperationX1_5)'!I12</f>
         <v>814400</v>
       </c>
       <c r="G12" s="23">
-        <f>'[1]B.M(OperationX2)'!I12</f>
         <v>917600</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="42">
         <f t="shared" si="0"/>
         <v>963480</v>
       </c>
@@ -12997,22 +10505,18 @@
         <v>8799.9999299999999</v>
       </c>
       <c r="D13" s="18">
-        <f>'[1]B.M(Install)'!I13</f>
         <v>508600</v>
       </c>
       <c r="E13" s="18">
-        <f>'[1]B.M(Operation)'!I13</f>
         <v>693500</v>
       </c>
       <c r="F13" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I13</f>
         <v>792900</v>
       </c>
       <c r="G13" s="18">
-        <f>'[1]B.M(OperationX2)'!I13</f>
         <v>892200</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="42">
         <f t="shared" si="0"/>
         <v>936810</v>
       </c>
@@ -13029,22 +10533,18 @@
         <v>9599.9999200000002</v>
       </c>
       <c r="D14" s="18">
-        <f>'[1]B.M(Install)'!I14</f>
         <v>497400</v>
       </c>
       <c r="E14" s="18">
-        <f>'[1]B.M(Operation)'!I14</f>
         <v>675300</v>
       </c>
       <c r="F14" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I14</f>
         <v>770800</v>
       </c>
       <c r="G14" s="18">
-        <f>'[1]B.M(OperationX2)'!I14</f>
         <v>866300</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="42">
         <f t="shared" si="0"/>
         <v>909615</v>
       </c>
@@ -13061,22 +10561,18 @@
         <v>10399.99991</v>
       </c>
       <c r="D15" s="18">
-        <f>'[1]B.M(Install)'!I15</f>
         <v>485700</v>
       </c>
       <c r="E15" s="18">
-        <f>'[1]B.M(Operation)'!I15</f>
         <v>656600</v>
       </c>
       <c r="F15" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I15</f>
         <v>748200</v>
       </c>
       <c r="G15" s="18">
-        <f>'[1]B.M(OperationX2)'!I15</f>
         <v>839800</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="42">
         <f t="shared" si="0"/>
         <v>881790</v>
       </c>
@@ -13093,22 +10589,18 @@
         <v>11199.999900000001</v>
       </c>
       <c r="D16" s="18">
-        <f>'[1]B.M(Install)'!I16</f>
         <v>473400</v>
       </c>
       <c r="E16" s="18">
-        <f>'[1]B.M(Operation)'!I16</f>
         <v>637200</v>
       </c>
       <c r="F16" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I16</f>
         <v>725000</v>
       </c>
       <c r="G16" s="18">
-        <f>'[1]B.M(OperationX2)'!I16</f>
         <v>812800</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="42">
         <f t="shared" si="0"/>
         <v>853440</v>
       </c>
@@ -13125,22 +10617,18 @@
         <v>11999.999889999999</v>
       </c>
       <c r="D17" s="18">
-        <f>'[1]B.M(Install)'!I17</f>
         <v>460500</v>
       </c>
       <c r="E17" s="18">
-        <f>'[1]B.M(Operation)'!I17</f>
         <v>617300</v>
       </c>
       <c r="F17" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I17</f>
         <v>701200</v>
       </c>
       <c r="G17" s="18">
-        <f>'[1]B.M(OperationX2)'!I17</f>
         <v>785200</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="42">
         <f t="shared" si="0"/>
         <v>824460</v>
       </c>
@@ -13157,22 +10645,18 @@
         <v>12799.999879999999</v>
       </c>
       <c r="D18" s="18">
-        <f>'[1]B.M(Install)'!I18</f>
         <v>447100</v>
       </c>
       <c r="E18" s="18">
-        <f>'[1]B.M(Operation)'!I18</f>
         <v>596800</v>
       </c>
       <c r="F18" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I18</f>
         <v>676900</v>
       </c>
       <c r="G18" s="18">
-        <f>'[1]B.M(OperationX2)'!I18</f>
         <v>757000</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="42">
         <f t="shared" ref="H18:H21" si="2">H19</f>
         <v>805770</v>
       </c>
@@ -13189,22 +10673,18 @@
         <v>13599.99987</v>
       </c>
       <c r="D19" s="18">
-        <f>'[1]B.M(Install)'!I19</f>
         <v>433100</v>
       </c>
       <c r="E19" s="18">
-        <f>'[1]B.M(Operation)'!I19</f>
         <v>575800</v>
       </c>
       <c r="F19" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I19</f>
         <v>652000</v>
       </c>
       <c r="G19" s="18">
-        <f>'[1]B.M(OperationX2)'!I19</f>
         <v>728200</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="42">
         <f t="shared" si="2"/>
         <v>805770</v>
       </c>
@@ -13221,22 +10701,18 @@
         <v>14399.99986</v>
       </c>
       <c r="D20" s="18">
-        <f>'[1]B.M(Install)'!I20</f>
         <v>418500</v>
       </c>
       <c r="E20" s="18">
-        <f>'[1]B.M(Operation)'!I20</f>
         <v>554200</v>
       </c>
       <c r="F20" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I20</f>
         <v>626500</v>
       </c>
       <c r="G20" s="18">
-        <f>'[1]B.M(OperationX2)'!I20</f>
         <v>698900</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="42">
         <f t="shared" si="2"/>
         <v>805770</v>
       </c>
@@ -13253,22 +10729,18 @@
         <v>15199.99985</v>
       </c>
       <c r="D21" s="18">
-        <f>'[1]B.M(Install)'!I21</f>
         <v>403400</v>
       </c>
       <c r="E21" s="18">
-        <f>'[1]B.M(Operation)'!I21</f>
         <v>532000</v>
       </c>
       <c r="F21" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I21</f>
         <v>600500</v>
       </c>
       <c r="G21" s="18">
-        <f>'[1]B.M(OperationX2)'!I21</f>
         <v>669000</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="42">
         <f t="shared" si="2"/>
         <v>805770</v>
       </c>
@@ -13285,22 +10757,18 @@
         <v>15999.99984</v>
       </c>
       <c r="D22" s="18">
-        <f>'[1]B.M(Install)'!I22</f>
         <v>387700</v>
       </c>
       <c r="E22" s="18">
-        <f>'[1]B.M(Operation)'!I22</f>
         <v>509200</v>
       </c>
       <c r="F22" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I22</f>
         <v>573800</v>
       </c>
       <c r="G22" s="18">
-        <f>'[1]B.M(OperationX2)'!I22</f>
         <v>638500</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="42">
         <f t="shared" ref="H22:H55" si="4">H23</f>
         <v>805770</v>
       </c>
@@ -13317,22 +10785,18 @@
         <v>16799.999830000001</v>
       </c>
       <c r="D23" s="18">
-        <f>'[1]B.M(Install)'!I23</f>
         <v>371500</v>
       </c>
       <c r="E23" s="18">
-        <f>'[1]B.M(Operation)'!I23</f>
         <v>485900</v>
       </c>
       <c r="F23" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I23</f>
         <v>546700</v>
       </c>
       <c r="G23" s="18">
-        <f>'[1]B.M(OperationX2)'!I23</f>
         <v>607400</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13349,22 +10813,18 @@
         <v>17599.999820000001</v>
       </c>
       <c r="D24" s="18">
-        <f>'[1]B.M(Install)'!I24</f>
         <v>354700</v>
       </c>
       <c r="E24" s="18">
-        <f>'[1]B.M(Operation)'!I24</f>
         <v>462000</v>
       </c>
       <c r="F24" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I24</f>
         <v>518900</v>
       </c>
       <c r="G24" s="18">
-        <f>'[1]B.M(OperationX2)'!I24</f>
         <v>575800</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13381,22 +10841,18 @@
         <v>18399.999810000001</v>
       </c>
       <c r="D25" s="18">
-        <f>'[1]B.M(Install)'!I25</f>
         <v>337300</v>
       </c>
       <c r="E25" s="18">
-        <f>'[1]B.M(Operation)'!I25</f>
         <v>437500</v>
       </c>
       <c r="F25" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I25</f>
         <v>490600</v>
       </c>
       <c r="G25" s="18">
-        <f>'[1]B.M(OperationX2)'!I25</f>
         <v>543600</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13417,22 +10873,18 @@
         <v>19199.999800000001</v>
       </c>
       <c r="D26" s="18">
-        <f>'[1]B.M(Install)'!I26</f>
         <v>319400</v>
       </c>
       <c r="E26" s="18">
-        <f>'[1]B.M(Operation)'!I26</f>
         <v>412500</v>
       </c>
       <c r="F26" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I26</f>
         <v>461700</v>
       </c>
       <c r="G26" s="18">
-        <f>'[1]B.M(OperationX2)'!I26</f>
         <v>510800</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13449,22 +10901,18 @@
         <v>19999.999790000002</v>
       </c>
       <c r="D27" s="18">
-        <f>'[1]B.M(Install)'!I27</f>
         <v>300900</v>
       </c>
       <c r="E27" s="18">
-        <f>'[1]B.M(Operation)'!I27</f>
         <v>386900</v>
       </c>
       <c r="F27" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I27</f>
         <v>432200</v>
       </c>
       <c r="G27" s="18">
-        <f>'[1]B.M(OperationX2)'!I27</f>
         <v>477500</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13481,22 +10929,18 @@
         <v>20799.999779999998</v>
       </c>
       <c r="D28" s="18">
-        <f>'[1]B.M(Install)'!I28</f>
         <v>281900</v>
       </c>
       <c r="E28" s="18">
-        <f>'[1]B.M(Operation)'!I28</f>
         <v>360700</v>
       </c>
       <c r="F28" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I28</f>
         <v>402100</v>
       </c>
       <c r="G28" s="18">
-        <f>'[1]B.M(OperationX2)'!I28</f>
         <v>443600</v>
       </c>
-      <c r="H28" s="43">
+      <c r="H28" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13513,22 +10957,18 @@
         <v>21599.999769999999</v>
       </c>
       <c r="D29" s="23">
-        <f>'[1]B.M(Install)'!I29</f>
         <v>262300</v>
       </c>
       <c r="E29" s="23">
-        <f>'[1]B.M(Operation)'!I29</f>
         <v>333900</v>
       </c>
       <c r="F29" s="23">
-        <f>'[1]B.M(OperationX1_5)'!I29</f>
         <v>371500</v>
       </c>
       <c r="G29" s="23">
-        <f>'[1]B.M(OperationX2)'!I29</f>
         <v>409100</v>
       </c>
-      <c r="H29" s="43">
+      <c r="H29" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13545,22 +10985,18 @@
         <v>22399.999759999999</v>
       </c>
       <c r="D30" s="23">
-        <f>'[1]B.M(Install)'!I30</f>
         <v>242100</v>
       </c>
       <c r="E30" s="23">
-        <f>'[1]B.M(Operation)'!I30</f>
         <v>306600</v>
       </c>
       <c r="F30" s="23">
-        <f>'[1]B.M(OperationX1_5)'!I30</f>
         <v>340300</v>
       </c>
       <c r="G30" s="23">
-        <f>'[1]B.M(OperationX2)'!I30</f>
         <v>374100</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13577,22 +11013,18 @@
         <v>23199.999749999999</v>
       </c>
       <c r="D31" s="18">
-        <f>'[1]B.M(Install)'!I31</f>
         <v>221400</v>
       </c>
       <c r="E31" s="18">
-        <f>'[1]B.M(Operation)'!I31</f>
         <v>278700</v>
       </c>
       <c r="F31" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I31</f>
         <v>308600</v>
       </c>
       <c r="G31" s="18">
-        <f>'[1]B.M(OperationX2)'!I31</f>
         <v>338500</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13609,22 +11041,18 @@
         <v>23999.999739999999</v>
       </c>
       <c r="D32" s="18">
-        <f>'[1]B.M(Install)'!I32</f>
         <v>200100</v>
       </c>
       <c r="E32" s="18">
-        <f>'[1]B.M(Operation)'!I32</f>
         <v>250200</v>
       </c>
       <c r="F32" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I32</f>
         <v>276300</v>
       </c>
       <c r="G32" s="18">
-        <f>'[1]B.M(OperationX2)'!I32</f>
         <v>302300</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13641,22 +11069,18 @@
         <v>24799.99973</v>
       </c>
       <c r="D33" s="18">
-        <f>'[1]B.M(Install)'!I33</f>
         <v>178200</v>
       </c>
       <c r="E33" s="18">
-        <f>'[1]B.M(Operation)'!I33</f>
         <v>221200</v>
       </c>
       <c r="F33" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I33</f>
         <v>243400</v>
       </c>
       <c r="G33" s="18">
-        <f>'[1]B.M(OperationX2)'!I33</f>
         <v>265500</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13673,22 +11097,18 @@
         <v>25599.99972</v>
       </c>
       <c r="D34" s="18">
-        <f>'[1]B.M(Install)'!I34</f>
         <v>155800</v>
       </c>
       <c r="E34" s="18">
-        <f>'[1]B.M(Operation)'!I34</f>
         <v>191600</v>
       </c>
       <c r="F34" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I34</f>
         <v>209900</v>
       </c>
       <c r="G34" s="18">
-        <f>'[1]B.M(OperationX2)'!I34</f>
         <v>228200</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13705,22 +11125,18 @@
         <v>26399.99971</v>
       </c>
       <c r="D35" s="18">
-        <f>'[1]B.M(Install)'!I35</f>
         <v>132800</v>
       </c>
       <c r="E35" s="18">
-        <f>'[1]B.M(Operation)'!I35</f>
         <v>161400</v>
       </c>
       <c r="F35" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I35</f>
         <v>175900</v>
       </c>
       <c r="G35" s="18">
-        <f>'[1]B.M(OperationX2)'!I35</f>
         <v>190300</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13737,22 +11153,18 @@
         <v>27199.9997</v>
       </c>
       <c r="D36" s="18">
-        <f>'[1]B.M(Install)'!I36</f>
         <v>109200</v>
       </c>
       <c r="E36" s="18">
-        <f>'[1]B.M(Operation)'!I36</f>
         <v>131100</v>
       </c>
       <c r="F36" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I36</f>
         <v>142000</v>
       </c>
       <c r="G36" s="18">
-        <f>'[1]B.M(OperationX2)'!I36</f>
         <v>152800</v>
       </c>
-      <c r="H36" s="43">
+      <c r="H36" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13769,22 +11181,18 @@
         <v>27999.999690000001</v>
       </c>
       <c r="D37" s="18">
-        <f>'[1]B.M(Install)'!I37</f>
         <v>85140</v>
       </c>
       <c r="E37" s="18">
-        <f>'[1]B.M(Operation)'!I37</f>
         <v>100300</v>
       </c>
       <c r="F37" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I37</f>
         <v>107500</v>
       </c>
       <c r="G37" s="18">
-        <f>'[1]B.M(OperationX2)'!I37</f>
         <v>114700</v>
       </c>
-      <c r="H37" s="43">
+      <c r="H37" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13801,22 +11209,18 @@
         <v>28799.999680000001</v>
       </c>
       <c r="D38" s="18">
-        <f>'[1]B.M(Install)'!I38</f>
         <v>60470</v>
       </c>
       <c r="E38" s="18">
-        <f>'[1]B.M(Operation)'!I38</f>
         <v>68910</v>
       </c>
       <c r="F38" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I38</f>
         <v>72490</v>
       </c>
       <c r="G38" s="18">
-        <f>'[1]B.M(OperationX2)'!I38</f>
         <v>76070</v>
       </c>
-      <c r="H38" s="43">
+      <c r="H38" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13833,22 +11237,18 @@
         <v>29599.999670000001</v>
       </c>
       <c r="D39" s="18">
-        <f>'[1]B.M(Install)'!I39</f>
         <v>35230</v>
       </c>
       <c r="E39" s="18">
-        <f>'[1]B.M(Operation)'!I39</f>
         <v>36930</v>
       </c>
       <c r="F39" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I39</f>
         <v>36890</v>
       </c>
       <c r="G39" s="18">
-        <f>'[1]B.M(OperationX2)'!I39</f>
         <v>36860</v>
       </c>
-      <c r="H39" s="43">
+      <c r="H39" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13865,22 +11265,18 @@
         <v>30399.999660000001</v>
       </c>
       <c r="D40" s="18">
-        <f>'[1]B.M(Install)'!I40</f>
         <v>-39110</v>
       </c>
       <c r="E40" s="18">
-        <f>'[1]B.M(Operation)'!I40</f>
         <v>-42420</v>
       </c>
       <c r="F40" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I40</f>
         <v>-45710</v>
       </c>
       <c r="G40" s="18">
-        <f>'[1]B.M(OperationX2)'!I40</f>
         <v>-49000</v>
       </c>
-      <c r="H40" s="43">
+      <c r="H40" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13900,22 +11296,18 @@
         <v>31199.999650000002</v>
       </c>
       <c r="D41" s="18">
-        <f>'[1]B.M(Install)'!I41</f>
         <v>-65470</v>
       </c>
       <c r="E41" s="18">
-        <f>'[1]B.M(Operation)'!I41</f>
         <v>-64520</v>
       </c>
       <c r="F41" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I41</f>
         <v>-65920</v>
       </c>
       <c r="G41" s="18">
-        <f>'[1]B.M(OperationX2)'!I41</f>
         <v>-67320</v>
       </c>
-      <c r="H41" s="43">
+      <c r="H41" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13932,22 +11324,18 @@
         <v>31999.999640000002</v>
       </c>
       <c r="D42" s="18">
-        <f>'[1]B.M(Install)'!I42</f>
         <v>-92400</v>
       </c>
       <c r="E42" s="18">
-        <f>'[1]B.M(Operation)'!I42</f>
         <v>-87190</v>
       </c>
       <c r="F42" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I42</f>
         <v>-86700</v>
       </c>
       <c r="G42" s="18">
-        <f>'[1]B.M(OperationX2)'!I42</f>
         <v>-90940</v>
       </c>
-      <c r="H42" s="43">
+      <c r="H42" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13964,22 +11352,18 @@
         <v>32799.999629999998</v>
       </c>
       <c r="D43" s="18">
-        <f>'[1]B.M(Install)'!I43</f>
         <v>-119900</v>
       </c>
       <c r="E43" s="18">
-        <f>'[1]B.M(Operation)'!I43</f>
         <v>-110400</v>
       </c>
       <c r="F43" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I43</f>
         <v>-117000</v>
       </c>
       <c r="G43" s="18">
-        <f>'[1]B.M(OperationX2)'!I43</f>
         <v>-133400</v>
       </c>
-      <c r="H43" s="43">
+      <c r="H43" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -13996,22 +11380,18 @@
         <v>33599.999620000002</v>
       </c>
       <c r="D44" s="18">
-        <f>'[1]B.M(Install)'!I44</f>
         <v>-147900</v>
       </c>
       <c r="E44" s="18">
-        <f>'[1]B.M(Operation)'!I44</f>
         <v>-135800</v>
       </c>
       <c r="F44" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I44</f>
         <v>-156100</v>
       </c>
       <c r="G44" s="18">
-        <f>'[1]B.M(OperationX2)'!I44</f>
         <v>-176400</v>
       </c>
-      <c r="H44" s="43">
+      <c r="H44" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -14028,22 +11408,18 @@
         <v>34399.999609999999</v>
       </c>
       <c r="D45" s="18">
-        <f>'[1]B.M(Install)'!I45</f>
         <v>-176600</v>
       </c>
       <c r="E45" s="18">
-        <f>'[1]B.M(Operation)'!I45</f>
         <v>-171700</v>
       </c>
       <c r="F45" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I45</f>
         <v>-195900</v>
       </c>
       <c r="G45" s="18">
-        <f>'[1]B.M(OperationX2)'!I45</f>
         <v>-220000</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H45" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -14060,22 +11436,18 @@
         <v>35199.999600000003</v>
       </c>
       <c r="D46" s="18">
-        <f>'[1]B.M(Install)'!I46</f>
         <v>-205700</v>
       </c>
       <c r="E46" s="18">
-        <f>'[1]B.M(Operation)'!I46</f>
         <v>-208200</v>
       </c>
       <c r="F46" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I46</f>
         <v>-236200</v>
       </c>
       <c r="G46" s="18">
-        <f>'[1]B.M(OperationX2)'!I46</f>
         <v>-264200</v>
       </c>
-      <c r="H46" s="43">
+      <c r="H46" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -14092,22 +11464,18 @@
         <v>35999.999589999999</v>
       </c>
       <c r="D47" s="23">
-        <f>'[1]B.M(Install)'!I47</f>
         <v>-235500</v>
       </c>
       <c r="E47" s="23">
-        <f>'[1]B.M(Operation)'!I47</f>
         <v>-245200</v>
       </c>
       <c r="F47" s="23">
-        <f>'[1]B.M(OperationX1_5)'!I47</f>
         <v>-277100</v>
       </c>
       <c r="G47" s="23">
-        <f>'[1]B.M(OperationX2)'!I47</f>
         <v>-309000</v>
       </c>
-      <c r="H47" s="43">
+      <c r="H47" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -14124,22 +11492,18 @@
         <v>36799.999580000003</v>
       </c>
       <c r="D48" s="18">
-        <f>'[1]B.M(Install)'!I48</f>
         <v>-265600</v>
       </c>
       <c r="E48" s="18">
-        <f>'[1]B.M(Operation)'!I48</f>
         <v>-282600</v>
       </c>
       <c r="F48" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I48</f>
         <v>-318300</v>
       </c>
       <c r="G48" s="18">
-        <f>'[1]B.M(OperationX2)'!I48</f>
         <v>-354100</v>
       </c>
-      <c r="H48" s="43">
+      <c r="H48" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -14156,22 +11520,18 @@
         <v>37599.99957</v>
       </c>
       <c r="D49" s="18">
-        <f>'[1]B.M(Install)'!I49</f>
         <v>-295800</v>
       </c>
       <c r="E49" s="18">
-        <f>'[1]B.M(Operation)'!I49</f>
         <v>-320100</v>
       </c>
       <c r="F49" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I49</f>
         <v>-359700</v>
       </c>
       <c r="G49" s="18">
-        <f>'[1]B.M(OperationX2)'!I49</f>
         <v>-399300</v>
       </c>
-      <c r="H49" s="43">
+      <c r="H49" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -14188,22 +11548,18 @@
         <v>38399.999559999997</v>
       </c>
       <c r="D50" s="18">
-        <f>'[1]B.M(Install)'!I50</f>
         <v>-326300</v>
       </c>
       <c r="E50" s="18">
-        <f>'[1]B.M(Operation)'!I50</f>
         <v>-357900</v>
       </c>
       <c r="F50" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I50</f>
         <v>-401300</v>
       </c>
       <c r="G50" s="18">
-        <f>'[1]B.M(OperationX2)'!I50</f>
         <v>-444800</v>
       </c>
-      <c r="H50" s="43">
+      <c r="H50" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -14223,22 +11579,18 @@
         <v>39199.99955</v>
       </c>
       <c r="D51" s="18">
-        <f>'[1]B.M(Install)'!I51</f>
         <v>-356900</v>
       </c>
       <c r="E51" s="18">
-        <f>'[1]B.M(Operation)'!I51</f>
         <v>-395700</v>
       </c>
       <c r="F51" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I51</f>
         <v>-443100</v>
       </c>
       <c r="G51" s="18">
-        <f>'[1]B.M(OperationX2)'!I51</f>
         <v>-490400</v>
       </c>
-      <c r="H51" s="43">
+      <c r="H51" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -14255,22 +11607,18 @@
         <v>39999.999539999997</v>
       </c>
       <c r="D52" s="18">
-        <f>'[1]B.M(Install)'!I52</f>
         <v>-387600</v>
       </c>
       <c r="E52" s="18">
-        <f>'[1]B.M(Operation)'!I52</f>
         <v>-433800</v>
       </c>
       <c r="F52" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I52</f>
         <v>-485000</v>
       </c>
       <c r="G52" s="18">
-        <f>'[1]B.M(OperationX2)'!I52</f>
         <v>-536100</v>
       </c>
-      <c r="H52" s="43">
+      <c r="H52" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -14287,22 +11635,18 @@
         <v>40799.999530000001</v>
       </c>
       <c r="D53" s="18">
-        <f>'[1]B.M(Install)'!I53</f>
         <v>-418700</v>
       </c>
       <c r="E53" s="18">
-        <f>'[1]B.M(Operation)'!I53</f>
         <v>-472000</v>
       </c>
       <c r="F53" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I53</f>
         <v>-527000</v>
       </c>
       <c r="G53" s="18">
-        <f>'[1]B.M(OperationX2)'!I53</f>
         <v>-582100</v>
       </c>
-      <c r="H53" s="43">
+      <c r="H53" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -14319,22 +11663,18 @@
         <v>41599.999519999998</v>
       </c>
       <c r="D54" s="18">
-        <f>'[1]B.M(Install)'!I54</f>
         <v>-450000</v>
       </c>
       <c r="E54" s="18">
-        <f>'[1]B.M(Operation)'!I54</f>
         <v>-510300</v>
       </c>
       <c r="F54" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I54</f>
         <v>-569200</v>
       </c>
       <c r="G54" s="18">
-        <f>'[1]B.M(OperationX2)'!I54</f>
         <v>-628100</v>
       </c>
-      <c r="H54" s="43">
+      <c r="H54" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -14351,22 +11691,18 @@
         <v>42399.999510000001</v>
       </c>
       <c r="D55" s="18">
-        <f>'[1]B.M(Install)'!I55</f>
         <v>-481500</v>
       </c>
       <c r="E55" s="18">
-        <f>'[1]B.M(Operation)'!I55</f>
         <v>-548900</v>
       </c>
       <c r="F55" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I55</f>
         <v>-611600</v>
       </c>
       <c r="G55" s="18">
-        <f>'[1]B.M(OperationX2)'!I55</f>
         <v>-674400</v>
       </c>
-      <c r="H55" s="43">
+      <c r="H55" s="42">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -14383,22 +11719,18 @@
         <v>43199.999499999998</v>
       </c>
       <c r="D56" s="18">
-        <f>'[1]B.M(Install)'!I56</f>
         <v>-513100</v>
       </c>
       <c r="E56" s="18">
-        <f>'[1]B.M(Operation)'!I56</f>
         <v>-587600</v>
       </c>
       <c r="F56" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I56</f>
         <v>-654200</v>
       </c>
       <c r="G56" s="18">
-        <f>'[1]B.M(OperationX2)'!I56</f>
         <v>-720800</v>
       </c>
-      <c r="H56" s="43">
+      <c r="H56" s="42">
         <f>H57</f>
         <v>805770</v>
       </c>
@@ -14415,22 +11747,18 @@
         <v>43999.999490000002</v>
       </c>
       <c r="D57" s="23">
-        <f>'[1]B.M(Install)'!I57</f>
         <v>-544900</v>
       </c>
       <c r="E57" s="23">
-        <f>'[1]B.M(Operation)'!I57</f>
         <v>-626400</v>
       </c>
       <c r="F57" s="23">
-        <f>'[1]B.M(OperationX1_5)'!I57</f>
         <v>-696900</v>
       </c>
       <c r="G57" s="23">
-        <f>'[1]B.M(OperationX2)'!I57</f>
         <v>-767400</v>
       </c>
-      <c r="H57" s="43">
+      <c r="H57" s="42">
         <f>ABS(G57*1.05)</f>
         <v>805770</v>
       </c>
@@ -14510,8 +11838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DE3AAC-0E71-4FE2-950A-3FE943A48E43}">
   <dimension ref="B3:H61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -14558,23 +11886,18 @@
         <v>0</v>
       </c>
       <c r="D4" s="18">
-        <f>'[1]B.M(Install)'!I87</f>
         <v>6367</v>
       </c>
       <c r="E4" s="18">
-        <f>'[1]B.M(Operation)'!I87</f>
         <v>16000</v>
       </c>
       <c r="F4" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I87</f>
         <v>20830</v>
       </c>
       <c r="G4" s="18">
-        <f>'[1]B.M(OperationX2)'!I87</f>
         <v>25650</v>
       </c>
       <c r="H4" s="19">
-        <f>'[1]B.M(OperationX2)'!J87</f>
         <v>26932.5</v>
       </c>
     </row>
@@ -14586,23 +11909,18 @@
         <v>800.00009999999997</v>
       </c>
       <c r="D5" s="18">
-        <f>'[1]B.M(Install)'!I88</f>
         <v>7022</v>
       </c>
       <c r="E5" s="18">
-        <f>'[1]B.M(Operation)'!I88</f>
         <v>16570</v>
       </c>
       <c r="F5" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I88</f>
         <v>21390</v>
       </c>
       <c r="G5" s="18">
-        <f>'[1]B.M(OperationX2)'!I88</f>
         <v>26220</v>
       </c>
       <c r="H5" s="19">
-        <f>'[1]B.M(OperationX2)'!J88</f>
         <v>27531</v>
       </c>
     </row>
@@ -14614,23 +11932,18 @@
         <v>1600</v>
       </c>
       <c r="D6" s="18">
-        <f>'[1]B.M(Install)'!I89</f>
         <v>7677</v>
       </c>
       <c r="E6" s="18">
-        <f>'[1]B.M(Operation)'!I89</f>
         <v>17140</v>
       </c>
       <c r="F6" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I89</f>
         <v>21960</v>
       </c>
       <c r="G6" s="18">
-        <f>'[1]B.M(OperationX2)'!I89</f>
         <v>26790</v>
       </c>
       <c r="H6" s="19">
-        <f>'[1]B.M(OperationX2)'!J89</f>
         <v>28129.5</v>
       </c>
     </row>
@@ -14642,23 +11955,18 @@
         <v>2400</v>
       </c>
       <c r="D7" s="18">
-        <f>'[1]B.M(Install)'!I90</f>
         <v>8332</v>
       </c>
       <c r="E7" s="18">
-        <f>'[1]B.M(Operation)'!I90</f>
         <v>17700</v>
       </c>
       <c r="F7" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I90</f>
         <v>22530</v>
       </c>
       <c r="G7" s="18">
-        <f>'[1]B.M(OperationX2)'!I90</f>
         <v>27350</v>
       </c>
       <c r="H7" s="19">
-        <f>'[1]B.M(OperationX2)'!J90</f>
         <v>28717.5</v>
       </c>
     </row>
@@ -14670,23 +11978,18 @@
         <v>3200</v>
       </c>
       <c r="D8" s="18">
-        <f>'[1]B.M(Install)'!I91</f>
         <v>8987</v>
       </c>
       <c r="E8" s="18">
-        <f>'[1]B.M(Operation)'!I91</f>
         <v>18270</v>
       </c>
       <c r="F8" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I91</f>
         <v>23090</v>
       </c>
       <c r="G8" s="18">
-        <f>'[1]B.M(OperationX2)'!I91</f>
         <v>27920</v>
       </c>
       <c r="H8" s="19">
-        <f>'[1]B.M(OperationX2)'!J91</f>
         <v>29316</v>
       </c>
     </row>
@@ -14698,23 +12001,18 @@
         <v>3999.9999899999998</v>
       </c>
       <c r="D9" s="18">
-        <f>'[1]B.M(Install)'!I92</f>
         <v>9642</v>
       </c>
       <c r="E9" s="18">
-        <f>'[1]B.M(Operation)'!I92</f>
         <v>18840</v>
       </c>
       <c r="F9" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I92</f>
         <v>23660</v>
       </c>
       <c r="G9" s="18">
-        <f>'[1]B.M(OperationX2)'!I92</f>
         <v>28490</v>
       </c>
       <c r="H9" s="19">
-        <f>'[1]B.M(OperationX2)'!J92</f>
         <v>29914.5</v>
       </c>
     </row>
@@ -14726,23 +12024,18 @@
         <v>4799.9999799999996</v>
       </c>
       <c r="D10" s="18">
-        <f>'[1]B.M(Install)'!I93</f>
         <v>10300</v>
       </c>
       <c r="E10" s="18">
-        <f>'[1]B.M(Operation)'!I93</f>
         <v>19400</v>
       </c>
       <c r="F10" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I93</f>
         <v>24230</v>
       </c>
       <c r="G10" s="18">
-        <f>'[1]B.M(OperationX2)'!I93</f>
         <v>29050</v>
       </c>
       <c r="H10" s="19">
-        <f>'[1]B.M(OperationX2)'!J93</f>
         <v>30502.5</v>
       </c>
     </row>
@@ -14754,23 +12047,18 @@
         <v>5599.9999699999998</v>
       </c>
       <c r="D11" s="18">
-        <f>'[1]B.M(Install)'!I94</f>
         <v>10950</v>
       </c>
       <c r="E11" s="18">
-        <f>'[1]B.M(Operation)'!I94</f>
         <v>19970</v>
       </c>
       <c r="F11" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I94</f>
         <v>24800</v>
       </c>
       <c r="G11" s="18">
-        <f>'[1]B.M(OperationX2)'!I94</f>
         <v>29620</v>
       </c>
       <c r="H11" s="19">
-        <f>'[1]B.M(OperationX2)'!J94</f>
         <v>31101</v>
       </c>
     </row>
@@ -14782,23 +12070,18 @@
         <v>6399.9999600000001</v>
       </c>
       <c r="D12" s="18">
-        <f>'[1]B.M(Install)'!I95</f>
         <v>11620</v>
       </c>
       <c r="E12" s="18">
-        <f>'[1]B.M(Operation)'!I95</f>
         <v>20540</v>
       </c>
       <c r="F12" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I95</f>
         <v>25360</v>
       </c>
       <c r="G12" s="18">
-        <f>'[1]B.M(OperationX2)'!I95</f>
         <v>30190</v>
       </c>
       <c r="H12" s="19">
-        <f>'[1]B.M(OperationX2)'!J95</f>
         <v>31699.5</v>
       </c>
     </row>
@@ -14810,23 +12093,18 @@
         <v>7199.9999500000004</v>
       </c>
       <c r="D13" s="18">
-        <f>'[1]B.M(Install)'!I96</f>
         <v>12270</v>
       </c>
       <c r="E13" s="18">
-        <f>'[1]B.M(Operation)'!I96</f>
         <v>21110</v>
       </c>
       <c r="F13" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I96</f>
         <v>25930</v>
       </c>
       <c r="G13" s="18">
-        <f>'[1]B.M(OperationX2)'!I96</f>
         <v>30760</v>
       </c>
       <c r="H13" s="19">
-        <f>'[1]B.M(OperationX2)'!J96</f>
         <v>32298</v>
       </c>
     </row>
@@ -14838,23 +12116,18 @@
         <v>7999.9999399999997</v>
       </c>
       <c r="D14" s="23">
-        <f>'[1]B.M(Install)'!I97</f>
         <v>12920</v>
       </c>
       <c r="E14" s="23">
-        <f>'[1]B.M(Operation)'!I97</f>
         <v>21670</v>
       </c>
       <c r="F14" s="23">
-        <f>'[1]B.M(OperationX1_5)'!I97</f>
         <v>26500</v>
       </c>
       <c r="G14" s="23">
-        <f>'[1]B.M(OperationX2)'!I97</f>
         <v>31320</v>
       </c>
       <c r="H14" s="24">
-        <f>'[1]B.M(OperationX2)'!J97</f>
         <v>32886</v>
       </c>
     </row>
@@ -14866,23 +12139,18 @@
         <v>8799.9999299999999</v>
       </c>
       <c r="D15" s="18">
-        <f>'[1]B.M(Install)'!I98</f>
         <v>13630</v>
       </c>
       <c r="E15" s="18">
-        <f>'[1]B.M(Operation)'!I98</f>
         <v>22390</v>
       </c>
       <c r="F15" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I98</f>
         <v>27210</v>
       </c>
       <c r="G15" s="18">
-        <f>'[1]B.M(OperationX2)'!I98</f>
         <v>32040</v>
       </c>
       <c r="H15" s="19">
-        <f>'[1]B.M(OperationX2)'!J98</f>
         <v>33642</v>
       </c>
     </row>
@@ -14894,23 +12162,18 @@
         <v>9599.9999200000002</v>
       </c>
       <c r="D16" s="18">
-        <f>'[1]B.M(Install)'!I99</f>
         <v>14330</v>
       </c>
       <c r="E16" s="18">
-        <f>'[1]B.M(Operation)'!I99</f>
         <v>23100</v>
       </c>
       <c r="F16" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I99</f>
         <v>27930</v>
       </c>
       <c r="G16" s="18">
-        <f>'[1]B.M(OperationX2)'!I99</f>
         <v>32750</v>
       </c>
       <c r="H16" s="19">
-        <f>'[1]B.M(OperationX2)'!J99</f>
         <v>34387.5</v>
       </c>
     </row>
@@ -14922,23 +12185,18 @@
         <v>10399.99991</v>
       </c>
       <c r="D17" s="18">
-        <f>'[1]B.M(Install)'!I100</f>
         <v>15030</v>
       </c>
       <c r="E17" s="18">
-        <f>'[1]B.M(Operation)'!I100</f>
         <v>23810</v>
       </c>
       <c r="F17" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I100</f>
         <v>28640</v>
       </c>
       <c r="G17" s="18">
-        <f>'[1]B.M(OperationX2)'!I100</f>
         <v>33460</v>
       </c>
       <c r="H17" s="19">
-        <f>'[1]B.M(OperationX2)'!J100</f>
         <v>35133</v>
       </c>
     </row>
@@ -14950,23 +12208,18 @@
         <v>11199.999900000001</v>
       </c>
       <c r="D18" s="18">
-        <f>'[1]B.M(Install)'!I101</f>
         <v>15740</v>
       </c>
       <c r="E18" s="18">
-        <f>'[1]B.M(Operation)'!I101</f>
         <v>24530</v>
       </c>
       <c r="F18" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I101</f>
         <v>29350</v>
       </c>
       <c r="G18" s="18">
-        <f>'[1]B.M(OperationX2)'!I101</f>
         <v>34180</v>
       </c>
       <c r="H18" s="19">
-        <f>'[1]B.M(OperationX2)'!J101</f>
         <v>35889</v>
       </c>
     </row>
@@ -14978,23 +12231,18 @@
         <v>11999.999889999999</v>
       </c>
       <c r="D19" s="18">
-        <f>'[1]B.M(Install)'!I102</f>
         <v>16440</v>
       </c>
       <c r="E19" s="18">
-        <f>'[1]B.M(Operation)'!I102</f>
         <v>25240</v>
       </c>
       <c r="F19" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I102</f>
         <v>30070</v>
       </c>
       <c r="G19" s="18">
-        <f>'[1]B.M(OperationX2)'!I102</f>
         <v>34890</v>
       </c>
       <c r="H19" s="19">
-        <f>'[1]B.M(OperationX2)'!J102</f>
         <v>36634.5</v>
       </c>
     </row>
@@ -15006,23 +12254,18 @@
         <v>12799.999879999999</v>
       </c>
       <c r="D20" s="18">
-        <f>'[1]B.M(Install)'!I103</f>
         <v>17140</v>
       </c>
       <c r="E20" s="18">
-        <f>'[1]B.M(Operation)'!I103</f>
         <v>25950</v>
       </c>
       <c r="F20" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I103</f>
         <v>30780</v>
       </c>
       <c r="G20" s="18">
-        <f>'[1]B.M(OperationX2)'!I103</f>
         <v>35600</v>
       </c>
       <c r="H20" s="19">
-        <f>'[1]B.M(OperationX2)'!J103</f>
         <v>37380</v>
       </c>
     </row>
@@ -15034,23 +12277,18 @@
         <v>13599.99987</v>
       </c>
       <c r="D21" s="18">
-        <f>'[1]B.M(Install)'!I104</f>
         <v>17840</v>
       </c>
       <c r="E21" s="18">
-        <f>'[1]B.M(Operation)'!I104</f>
         <v>26670</v>
       </c>
       <c r="F21" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I104</f>
         <v>31490</v>
       </c>
       <c r="G21" s="18">
-        <f>'[1]B.M(OperationX2)'!I104</f>
         <v>36320</v>
       </c>
       <c r="H21" s="19">
-        <f>'[1]B.M(OperationX2)'!J104</f>
         <v>38136</v>
       </c>
     </row>
@@ -15062,23 +12300,18 @@
         <v>14399.99986</v>
       </c>
       <c r="D22" s="18">
-        <f>'[1]B.M(Install)'!I105</f>
         <v>18550</v>
       </c>
       <c r="E22" s="18">
-        <f>'[1]B.M(Operation)'!I105</f>
         <v>27380</v>
       </c>
       <c r="F22" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I105</f>
         <v>32200</v>
       </c>
       <c r="G22" s="18">
-        <f>'[1]B.M(OperationX2)'!I105</f>
         <v>37030</v>
       </c>
       <c r="H22" s="19">
-        <f>'[1]B.M(OperationX2)'!J105</f>
         <v>38881.5</v>
       </c>
     </row>
@@ -15090,23 +12323,18 @@
         <v>15199.99985</v>
       </c>
       <c r="D23" s="18">
-        <f>'[1]B.M(Install)'!I106</f>
         <v>19250</v>
       </c>
       <c r="E23" s="18">
-        <f>'[1]B.M(Operation)'!I106</f>
         <v>28090</v>
       </c>
       <c r="F23" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I106</f>
         <v>32920</v>
       </c>
       <c r="G23" s="18">
-        <f>'[1]B.M(OperationX2)'!I106</f>
         <v>37740</v>
       </c>
       <c r="H23" s="19">
-        <f>'[1]B.M(OperationX2)'!J106</f>
         <v>39627</v>
       </c>
     </row>
@@ -15118,23 +12346,18 @@
         <v>15999.99984</v>
       </c>
       <c r="D24" s="18">
-        <f>'[1]B.M(Install)'!I107</f>
         <v>19950</v>
       </c>
       <c r="E24" s="18">
-        <f>'[1]B.M(Operation)'!I107</f>
         <v>28810</v>
       </c>
       <c r="F24" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I107</f>
         <v>33630</v>
       </c>
       <c r="G24" s="18">
-        <f>'[1]B.M(OperationX2)'!I107</f>
         <v>38460</v>
       </c>
       <c r="H24" s="19">
-        <f>'[1]B.M(OperationX2)'!J107</f>
         <v>40383</v>
       </c>
     </row>
@@ -15146,23 +12369,18 @@
         <v>16799.999830000001</v>
       </c>
       <c r="D25" s="18">
-        <f>'[1]B.M(Install)'!I108</f>
         <v>20660</v>
       </c>
       <c r="E25" s="18">
-        <f>'[1]B.M(Operation)'!I108</f>
         <v>29520</v>
       </c>
       <c r="F25" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I108</f>
         <v>34340</v>
       </c>
       <c r="G25" s="18">
-        <f>'[1]B.M(OperationX2)'!I108</f>
         <v>39170</v>
       </c>
       <c r="H25" s="19">
-        <f>'[1]B.M(OperationX2)'!J108</f>
         <v>41128.5</v>
       </c>
     </row>
@@ -15174,23 +12392,18 @@
         <v>17599.999820000001</v>
       </c>
       <c r="D26" s="18">
-        <f>'[1]B.M(Install)'!I109</f>
         <v>21360</v>
       </c>
       <c r="E26" s="18">
-        <f>'[1]B.M(Operation)'!I109</f>
         <v>30230</v>
       </c>
       <c r="F26" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I109</f>
         <v>35060</v>
       </c>
       <c r="G26" s="18">
-        <f>'[1]B.M(OperationX2)'!I109</f>
         <v>39880</v>
       </c>
       <c r="H26" s="19">
-        <f>'[1]B.M(OperationX2)'!J109</f>
         <v>41874</v>
       </c>
     </row>
@@ -15202,23 +12415,18 @@
         <v>18399.999810000001</v>
       </c>
       <c r="D27" s="18">
-        <f>'[1]B.M(Install)'!I110</f>
         <v>22060</v>
       </c>
       <c r="E27" s="18">
-        <f>'[1]B.M(Operation)'!I110</f>
         <v>30950</v>
       </c>
       <c r="F27" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I110</f>
         <v>35770</v>
       </c>
       <c r="G27" s="18">
-        <f>'[1]B.M(OperationX2)'!I110</f>
         <v>40600</v>
       </c>
       <c r="H27" s="19">
-        <f>'[1]B.M(OperationX2)'!J110</f>
         <v>42630</v>
       </c>
     </row>
@@ -15230,23 +12438,18 @@
         <v>19199.999800000001</v>
       </c>
       <c r="D28" s="18">
-        <f>'[1]B.M(Install)'!I111</f>
         <v>22770</v>
       </c>
       <c r="E28" s="18">
-        <f>'[1]B.M(Operation)'!I111</f>
         <v>31660</v>
       </c>
       <c r="F28" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I111</f>
         <v>36480</v>
       </c>
       <c r="G28" s="18">
-        <f>'[1]B.M(OperationX2)'!I111</f>
         <v>41310</v>
       </c>
       <c r="H28" s="19">
-        <f>'[1]B.M(OperationX2)'!J111</f>
         <v>43375.5</v>
       </c>
     </row>
@@ -15258,23 +12461,18 @@
         <v>19999.999790000002</v>
       </c>
       <c r="D29" s="18">
-        <f>'[1]B.M(Install)'!I112</f>
         <v>23470</v>
       </c>
       <c r="E29" s="18">
-        <f>'[1]B.M(Operation)'!I112</f>
         <v>32370</v>
       </c>
       <c r="F29" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I112</f>
         <v>37200</v>
       </c>
       <c r="G29" s="18">
-        <f>'[1]B.M(OperationX2)'!I112</f>
         <v>42020</v>
       </c>
       <c r="H29" s="19">
-        <f>'[1]B.M(OperationX2)'!J112</f>
         <v>44121</v>
       </c>
     </row>
@@ -15286,23 +12484,18 @@
         <v>20799.999779999998</v>
       </c>
       <c r="D30" s="18">
-        <f>'[1]B.M(Install)'!I113</f>
         <v>24170</v>
       </c>
       <c r="E30" s="18">
-        <f>'[1]B.M(Operation)'!I113</f>
         <v>33090</v>
       </c>
       <c r="F30" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I113</f>
         <v>37910</v>
       </c>
       <c r="G30" s="18">
-        <f>'[1]B.M(OperationX2)'!I113</f>
         <v>42740</v>
       </c>
       <c r="H30" s="19">
-        <f>'[1]B.M(OperationX2)'!J113</f>
         <v>44877</v>
       </c>
     </row>
@@ -15314,23 +12507,18 @@
         <v>21599.999769999999</v>
       </c>
       <c r="D31" s="23">
-        <f>'[1]B.M(Install)'!I114</f>
         <v>24870</v>
       </c>
       <c r="E31" s="23">
-        <f>'[1]B.M(Operation)'!I114</f>
         <v>33800</v>
       </c>
       <c r="F31" s="23">
-        <f>'[1]B.M(OperationX1_5)'!I114</f>
         <v>38620</v>
       </c>
       <c r="G31" s="23">
-        <f>'[1]B.M(OperationX2)'!I114</f>
         <v>43450</v>
       </c>
       <c r="H31" s="24">
-        <f>'[1]B.M(OperationX2)'!J114</f>
         <v>45622.5</v>
       </c>
     </row>
@@ -15342,23 +12530,18 @@
         <v>22399.999759999999</v>
       </c>
       <c r="D32" s="23">
-        <f>'[1]B.M(Install)'!I115</f>
         <v>25580</v>
       </c>
       <c r="E32" s="23">
-        <f>'[1]B.M(Operation)'!I115</f>
         <v>34510</v>
       </c>
       <c r="F32" s="23">
-        <f>'[1]B.M(OperationX1_5)'!I115</f>
         <v>39340</v>
       </c>
       <c r="G32" s="23">
-        <f>'[1]B.M(OperationX2)'!I115</f>
         <v>44160</v>
       </c>
       <c r="H32" s="24">
-        <f>'[1]B.M(OperationX2)'!J115</f>
         <v>46368</v>
       </c>
     </row>
@@ -15370,23 +12553,18 @@
         <v>23199.999749999999</v>
       </c>
       <c r="D33" s="18">
-        <f>'[1]B.M(Install)'!I116</f>
         <v>26280</v>
       </c>
       <c r="E33" s="18">
-        <f>'[1]B.M(Operation)'!I116</f>
         <v>35220</v>
       </c>
       <c r="F33" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I116</f>
         <v>40050</v>
       </c>
       <c r="G33" s="18">
-        <f>'[1]B.M(OperationX2)'!I116</f>
         <v>44880</v>
       </c>
       <c r="H33" s="19">
-        <f>'[1]B.M(OperationX2)'!J116</f>
         <v>47124</v>
       </c>
     </row>
@@ -15398,23 +12576,18 @@
         <v>23999.999739999999</v>
       </c>
       <c r="D34" s="18">
-        <f>'[1]B.M(Install)'!I117</f>
         <v>26980</v>
       </c>
       <c r="E34" s="18">
-        <f>'[1]B.M(Operation)'!I117</f>
         <v>35940</v>
       </c>
       <c r="F34" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I117</f>
         <v>40760</v>
       </c>
       <c r="G34" s="18">
-        <f>'[1]B.M(OperationX2)'!I117</f>
         <v>45590</v>
       </c>
       <c r="H34" s="19">
-        <f>'[1]B.M(OperationX2)'!J117</f>
         <v>47869.5</v>
       </c>
     </row>
@@ -15426,23 +12599,18 @@
         <v>24799.99973</v>
       </c>
       <c r="D35" s="18">
-        <f>'[1]B.M(Install)'!I118</f>
         <v>27690</v>
       </c>
       <c r="E35" s="18">
-        <f>'[1]B.M(Operation)'!I118</f>
         <v>36650</v>
       </c>
       <c r="F35" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I118</f>
         <v>41480</v>
       </c>
       <c r="G35" s="18">
-        <f>'[1]B.M(OperationX2)'!I118</f>
         <v>46300</v>
       </c>
       <c r="H35" s="19">
-        <f>'[1]B.M(OperationX2)'!J118</f>
         <v>48615</v>
       </c>
     </row>
@@ -15454,23 +12622,18 @@
         <v>25599.99972</v>
       </c>
       <c r="D36" s="18">
-        <f>'[1]B.M(Install)'!I119</f>
         <v>28390</v>
       </c>
       <c r="E36" s="18">
-        <f>'[1]B.M(Operation)'!I119</f>
         <v>37360</v>
       </c>
       <c r="F36" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I119</f>
         <v>42190</v>
       </c>
       <c r="G36" s="18">
-        <f>'[1]B.M(OperationX2)'!I119</f>
         <v>47010</v>
       </c>
       <c r="H36" s="19">
-        <f>'[1]B.M(OperationX2)'!J119</f>
         <v>49360.5</v>
       </c>
     </row>
@@ -15482,23 +12645,18 @@
         <v>26399.99971</v>
       </c>
       <c r="D37" s="18">
-        <f>'[1]B.M(Install)'!I120</f>
         <v>29090</v>
       </c>
       <c r="E37" s="18">
-        <f>'[1]B.M(Operation)'!I120</f>
         <v>38080</v>
       </c>
       <c r="F37" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I120</f>
         <v>42900</v>
       </c>
       <c r="G37" s="18">
-        <f>'[1]B.M(OperationX2)'!I120</f>
         <v>47730</v>
       </c>
       <c r="H37" s="19">
-        <f>'[1]B.M(OperationX2)'!J120</f>
         <v>50116.5</v>
       </c>
     </row>
@@ -15510,23 +12668,18 @@
         <v>27199.9997</v>
       </c>
       <c r="D38" s="18">
-        <f>'[1]B.M(Install)'!I121</f>
         <v>29790</v>
       </c>
       <c r="E38" s="18">
-        <f>'[1]B.M(Operation)'!I121</f>
         <v>38790</v>
       </c>
       <c r="F38" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I121</f>
         <v>43620</v>
       </c>
       <c r="G38" s="18">
-        <f>'[1]B.M(OperationX2)'!I121</f>
         <v>48440</v>
       </c>
       <c r="H38" s="19">
-        <f>'[1]B.M(OperationX2)'!J121</f>
         <v>50862</v>
       </c>
     </row>
@@ -15538,23 +12691,18 @@
         <v>27999.999690000001</v>
       </c>
       <c r="D39" s="18">
-        <f>'[1]B.M(Install)'!I122</f>
         <v>30500</v>
       </c>
       <c r="E39" s="18">
-        <f>'[1]B.M(Operation)'!I122</f>
         <v>39500</v>
       </c>
       <c r="F39" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I122</f>
         <v>44330</v>
       </c>
       <c r="G39" s="18">
-        <f>'[1]B.M(OperationX2)'!I122</f>
         <v>49150</v>
       </c>
       <c r="H39" s="19">
-        <f>'[1]B.M(OperationX2)'!J122</f>
         <v>51607.5</v>
       </c>
     </row>
@@ -15566,23 +12714,18 @@
         <v>28799.999680000001</v>
       </c>
       <c r="D40" s="18">
-        <f>'[1]B.M(Install)'!I123</f>
         <v>31200</v>
       </c>
       <c r="E40" s="18">
-        <f>'[1]B.M(Operation)'!I123</f>
         <v>40220</v>
       </c>
       <c r="F40" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I123</f>
         <v>45040</v>
       </c>
       <c r="G40" s="18">
-        <f>'[1]B.M(OperationX2)'!I123</f>
         <v>49870</v>
       </c>
       <c r="H40" s="19">
-        <f>'[1]B.M(OperationX2)'!J123</f>
         <v>52363.5</v>
       </c>
     </row>
@@ -15594,23 +12737,18 @@
         <v>29599.999670000001</v>
       </c>
       <c r="D41" s="18">
-        <f>'[1]B.M(Install)'!I124</f>
         <v>31900</v>
       </c>
       <c r="E41" s="18">
-        <f>'[1]B.M(Operation)'!I124</f>
         <v>40930</v>
       </c>
       <c r="F41" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I124</f>
         <v>45760</v>
       </c>
       <c r="G41" s="18">
-        <f>'[1]B.M(OperationX2)'!I124</f>
         <v>50580</v>
       </c>
       <c r="H41" s="19">
-        <f>'[1]B.M(OperationX2)'!J124</f>
         <v>53109</v>
       </c>
     </row>
@@ -15622,23 +12760,18 @@
         <v>30399.999660000001</v>
       </c>
       <c r="D42" s="18">
-        <f>'[1]B.M(Install)'!I125</f>
         <v>32610</v>
       </c>
       <c r="E42" s="18">
-        <f>'[1]B.M(Operation)'!I125</f>
         <v>41640</v>
       </c>
       <c r="F42" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I125</f>
         <v>46470</v>
       </c>
       <c r="G42" s="18">
-        <f>'[1]B.M(OperationX2)'!I125</f>
         <v>51290</v>
       </c>
       <c r="H42" s="19">
-        <f>'[1]B.M(OperationX2)'!J125</f>
         <v>53854.5</v>
       </c>
     </row>
@@ -15650,23 +12783,18 @@
         <v>31199.999650000002</v>
       </c>
       <c r="D43" s="18">
-        <f>'[1]B.M(Install)'!I126</f>
         <v>33310</v>
       </c>
       <c r="E43" s="18">
-        <f>'[1]B.M(Operation)'!I126</f>
         <v>42360</v>
       </c>
       <c r="F43" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I126</f>
         <v>47180</v>
       </c>
       <c r="G43" s="18">
-        <f>'[1]B.M(OperationX2)'!I126</f>
         <v>52010</v>
       </c>
       <c r="H43" s="19">
-        <f>'[1]B.M(OperationX2)'!J126</f>
         <v>54610.5</v>
       </c>
     </row>
@@ -15678,23 +12806,18 @@
         <v>31999.999640000002</v>
       </c>
       <c r="D44" s="18">
-        <f>'[1]B.M(Install)'!I127</f>
         <v>34010</v>
       </c>
       <c r="E44" s="18">
-        <f>'[1]B.M(Operation)'!I127</f>
         <v>43070</v>
       </c>
       <c r="F44" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I127</f>
         <v>47900</v>
       </c>
       <c r="G44" s="18">
-        <f>'[1]B.M(OperationX2)'!I127</f>
         <v>52720</v>
       </c>
       <c r="H44" s="19">
-        <f>'[1]B.M(OperationX2)'!J127</f>
         <v>55356</v>
       </c>
     </row>
@@ -15706,23 +12829,18 @@
         <v>32799.999629999998</v>
       </c>
       <c r="D45" s="18">
-        <f>'[1]B.M(Install)'!I128</f>
         <v>34710</v>
       </c>
       <c r="E45" s="18">
-        <f>'[1]B.M(Operation)'!I128</f>
         <v>43780</v>
       </c>
       <c r="F45" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I128</f>
         <v>48610</v>
       </c>
       <c r="G45" s="18">
-        <f>'[1]B.M(OperationX2)'!I128</f>
         <v>53430</v>
       </c>
       <c r="H45" s="19">
-        <f>'[1]B.M(OperationX2)'!J128</f>
         <v>56101.5</v>
       </c>
     </row>
@@ -15734,23 +12852,18 @@
         <v>33599.999620000002</v>
       </c>
       <c r="D46" s="18">
-        <f>'[1]B.M(Install)'!I129</f>
         <v>35420</v>
       </c>
       <c r="E46" s="18">
-        <f>'[1]B.M(Operation)'!I129</f>
         <v>44500</v>
       </c>
       <c r="F46" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I129</f>
         <v>49320</v>
       </c>
       <c r="G46" s="18">
-        <f>'[1]B.M(OperationX2)'!I129</f>
         <v>54150</v>
       </c>
       <c r="H46" s="19">
-        <f>'[1]B.M(OperationX2)'!J129</f>
         <v>56857.5</v>
       </c>
     </row>
@@ -15762,23 +12875,18 @@
         <v>34399.999609999999</v>
       </c>
       <c r="D47" s="18">
-        <f>'[1]B.M(Install)'!I130</f>
         <v>36120</v>
       </c>
       <c r="E47" s="18">
-        <f>'[1]B.M(Operation)'!I130</f>
         <v>45210</v>
       </c>
       <c r="F47" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I130</f>
         <v>50030</v>
       </c>
       <c r="G47" s="18">
-        <f>'[1]B.M(OperationX2)'!I130</f>
         <v>54860</v>
       </c>
       <c r="H47" s="19">
-        <f>'[1]B.M(OperationX2)'!J130</f>
         <v>57603</v>
       </c>
     </row>
@@ -15790,23 +12898,18 @@
         <v>35199.999600000003</v>
       </c>
       <c r="D48" s="18">
-        <f>'[1]B.M(Install)'!I131</f>
         <v>36820</v>
       </c>
       <c r="E48" s="18">
-        <f>'[1]B.M(Operation)'!I131</f>
         <v>45920</v>
       </c>
       <c r="F48" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I131</f>
         <v>50750</v>
       </c>
       <c r="G48" s="18">
-        <f>'[1]B.M(OperationX2)'!I131</f>
         <v>55570</v>
       </c>
       <c r="H48" s="19">
-        <f>'[1]B.M(OperationX2)'!J131</f>
         <v>58348.5</v>
       </c>
     </row>
@@ -15818,23 +12921,18 @@
         <v>35999.999589999999</v>
       </c>
       <c r="D49" s="23">
-        <f>'[1]B.M(Install)'!I132</f>
         <v>37530</v>
       </c>
       <c r="E49" s="23">
-        <f>'[1]B.M(Operation)'!I132</f>
         <v>46640</v>
       </c>
       <c r="F49" s="23">
-        <f>'[1]B.M(OperationX1_5)'!I132</f>
         <v>51460</v>
       </c>
       <c r="G49" s="23">
-        <f>'[1]B.M(OperationX2)'!I132</f>
         <v>56290</v>
       </c>
       <c r="H49" s="24">
-        <f>'[1]B.M(OperationX2)'!J132</f>
         <v>59104.5</v>
       </c>
     </row>
@@ -15846,23 +12944,18 @@
         <v>36799.999580000003</v>
       </c>
       <c r="D50" s="18">
-        <f>'[1]B.M(Install)'!I133</f>
         <v>37730</v>
       </c>
       <c r="E50" s="18">
-        <f>'[1]B.M(Operation)'!I133</f>
         <v>46840</v>
       </c>
       <c r="F50" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I133</f>
         <v>51660</v>
       </c>
       <c r="G50" s="18">
-        <f>'[1]B.M(OperationX2)'!I133</f>
         <v>56490</v>
       </c>
       <c r="H50" s="19">
-        <f>'[1]B.M(OperationX2)'!J133</f>
         <v>59314.5</v>
       </c>
     </row>
@@ -15874,23 +12967,18 @@
         <v>37599.99957</v>
       </c>
       <c r="D51" s="18">
-        <f>'[1]B.M(Install)'!I134</f>
         <v>37930</v>
       </c>
       <c r="E51" s="18">
-        <f>'[1]B.M(Operation)'!I134</f>
         <v>47040</v>
       </c>
       <c r="F51" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I134</f>
         <v>51870</v>
       </c>
       <c r="G51" s="18">
-        <f>'[1]B.M(OperationX2)'!I134</f>
         <v>56690</v>
       </c>
       <c r="H51" s="19">
-        <f>'[1]B.M(OperationX2)'!J134</f>
         <v>59524.5</v>
       </c>
     </row>
@@ -15902,23 +12990,18 @@
         <v>38399.999559999997</v>
       </c>
       <c r="D52" s="18">
-        <f>'[1]B.M(Install)'!I135</f>
         <v>38130</v>
       </c>
       <c r="E52" s="18">
-        <f>'[1]B.M(Operation)'!I135</f>
         <v>47250</v>
       </c>
       <c r="F52" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I135</f>
         <v>52070</v>
       </c>
       <c r="G52" s="18">
-        <f>'[1]B.M(OperationX2)'!I135</f>
         <v>56900</v>
       </c>
       <c r="H52" s="19">
-        <f>'[1]B.M(OperationX2)'!J135</f>
         <v>59745</v>
       </c>
     </row>
@@ -15930,23 +13013,18 @@
         <v>39199.99955</v>
       </c>
       <c r="D53" s="18">
-        <f>'[1]B.M(Install)'!I136</f>
         <v>38340</v>
       </c>
       <c r="E53" s="18">
-        <f>'[1]B.M(Operation)'!I136</f>
         <v>47450</v>
       </c>
       <c r="F53" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I136</f>
         <v>52270</v>
       </c>
       <c r="G53" s="18">
-        <f>'[1]B.M(OperationX2)'!I136</f>
         <v>57100</v>
       </c>
       <c r="H53" s="19">
-        <f>'[1]B.M(OperationX2)'!J136</f>
         <v>59955</v>
       </c>
     </row>
@@ -15958,23 +13036,18 @@
         <v>39999.999539999997</v>
       </c>
       <c r="D54" s="18">
-        <f>'[1]B.M(Install)'!I137</f>
         <v>38810</v>
       </c>
       <c r="E54" s="18">
-        <f>'[1]B.M(Operation)'!I137</f>
         <v>47650</v>
       </c>
       <c r="F54" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I137</f>
         <v>52480</v>
       </c>
       <c r="G54" s="18">
-        <f>'[1]B.M(OperationX2)'!I137</f>
         <v>57300</v>
       </c>
       <c r="H54" s="19">
-        <f>'[1]B.M(OperationX2)'!J137</f>
         <v>60165</v>
       </c>
     </row>
@@ -15986,23 +13059,18 @@
         <v>40799.999530000001</v>
       </c>
       <c r="D55" s="18">
-        <f>'[1]B.M(Install)'!I138</f>
         <v>39020</v>
       </c>
       <c r="E55" s="18">
-        <f>'[1]B.M(Operation)'!I138</f>
         <v>47850</v>
       </c>
       <c r="F55" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I138</f>
         <v>52680</v>
       </c>
       <c r="G55" s="18">
-        <f>'[1]B.M(OperationX2)'!I138</f>
         <v>57500</v>
       </c>
       <c r="H55" s="19">
-        <f>'[1]B.M(OperationX2)'!J138</f>
         <v>60375</v>
       </c>
     </row>
@@ -16014,23 +13082,18 @@
         <v>41599.999519999998</v>
       </c>
       <c r="D56" s="18">
-        <f>'[1]B.M(Install)'!I139</f>
         <v>39220</v>
       </c>
       <c r="E56" s="18">
-        <f>'[1]B.M(Operation)'!I139</f>
         <v>48060</v>
       </c>
       <c r="F56" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I139</f>
         <v>52880</v>
       </c>
       <c r="G56" s="18">
-        <f>'[1]B.M(OperationX2)'!I139</f>
         <v>57710</v>
       </c>
       <c r="H56" s="19">
-        <f>'[1]B.M(OperationX2)'!J139</f>
         <v>60595.5</v>
       </c>
     </row>
@@ -16042,23 +13105,18 @@
         <v>42399.999510000001</v>
       </c>
       <c r="D57" s="18">
-        <f>'[1]B.M(Install)'!I140</f>
         <v>39420</v>
       </c>
       <c r="E57" s="18">
-        <f>'[1]B.M(Operation)'!I140</f>
         <v>48260</v>
       </c>
       <c r="F57" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I140</f>
         <v>53080</v>
       </c>
       <c r="G57" s="18">
-        <f>'[1]B.M(OperationX2)'!I140</f>
         <v>57910</v>
       </c>
       <c r="H57" s="19">
-        <f>'[1]B.M(OperationX2)'!J140</f>
         <v>60805.5</v>
       </c>
     </row>
@@ -16070,23 +13128,18 @@
         <v>43199.999499999998</v>
       </c>
       <c r="D58" s="18">
-        <f>'[1]B.M(Install)'!I141</f>
         <v>39630</v>
       </c>
       <c r="E58" s="18">
-        <f>'[1]B.M(Operation)'!I141</f>
         <v>48460</v>
       </c>
       <c r="F58" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I141</f>
         <v>53290</v>
       </c>
       <c r="G58" s="18">
-        <f>'[1]B.M(OperationX2)'!I141</f>
         <v>58110</v>
       </c>
       <c r="H58" s="19">
-        <f>'[1]B.M(OperationX2)'!J141</f>
         <v>61015.5</v>
       </c>
     </row>
@@ -16098,23 +13151,18 @@
         <v>43999.999490000002</v>
       </c>
       <c r="D59" s="18">
-        <f>'[1]B.M(Install)'!I142</f>
         <v>39830</v>
       </c>
       <c r="E59" s="18">
-        <f>'[1]B.M(Operation)'!I142</f>
         <v>48670</v>
       </c>
       <c r="F59" s="18">
-        <f>'[1]B.M(OperationX1_5)'!I142</f>
         <v>53490</v>
       </c>
       <c r="G59" s="18">
-        <f>'[1]B.M(OperationX2)'!I142</f>
         <v>58320</v>
       </c>
       <c r="H59" s="19">
-        <f>'[1]B.M(OperationX2)'!J142</f>
         <v>61236</v>
       </c>
     </row>

--- a/XEF.GlobalStrength.xlsx
+++ b/XEF.GlobalStrength.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git.Project\EngXExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F441C13A-AF73-4973-8ADD-E7E51094D866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2531C019-8F8E-4487-A3D9-F5AA68BB5507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40815" yWindow="1740" windowWidth="25575" windowHeight="13665" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HGBM(INT)" sheetId="2" state="hidden" r:id="rId1"/>
@@ -334,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -342,6 +342,7 @@
     <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="185" formatCode="0.0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -459,7 +460,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +482,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,9 +648,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,6 +679,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9637,7 +9650,7 @@
   <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -9683,29 +9696,29 @@
       <c r="B3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>0</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>8000</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="38">
         <v>160000</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <v>240000</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="38">
         <v>300000</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>360000</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="38">
         <v>440000</v>
       </c>
       <c r="K3" s="29"/>
-      <c r="N3" s="35"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
@@ -9714,25 +9727,25 @@
       <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>11.9</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>11.9</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>10.9</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <v>9.9</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="37">
         <v>9.15</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="37">
         <v>8.4</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="37">
         <v>8.4</v>
       </c>
     </row>
@@ -9743,26 +9756,26 @@
       <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="30">
-        <v>6.0730000000000004</v>
-      </c>
-      <c r="D5" s="30">
-        <v>5.9619999999999997</v>
-      </c>
-      <c r="E5" s="31">
-        <v>5.4370000000000003</v>
-      </c>
-      <c r="F5" s="31">
-        <v>4.32</v>
-      </c>
-      <c r="G5" s="31">
-        <v>3.8969999999999998</v>
-      </c>
-      <c r="H5" s="31">
-        <v>3.75</v>
-      </c>
-      <c r="I5" s="31">
-        <v>4.2949999999999999</v>
+      <c r="C5" s="43">
+        <v>5.8730000000000002</v>
+      </c>
+      <c r="D5" s="43">
+        <v>6.0910000000000002</v>
+      </c>
+      <c r="E5" s="44">
+        <v>5.5469999999999997</v>
+      </c>
+      <c r="F5" s="44">
+        <v>5.141</v>
+      </c>
+      <c r="G5" s="44">
+        <v>4.78</v>
+      </c>
+      <c r="H5" s="44">
+        <v>4.4829999999999997</v>
+      </c>
+      <c r="I5" s="44">
+        <v>4.2270000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -9772,26 +9785,30 @@
       <c r="B6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="30">
-        <v>31.586300000000001</v>
-      </c>
-      <c r="D6" s="30">
-        <v>29.778400000000001</v>
-      </c>
-      <c r="E6" s="30">
-        <v>23.956199999999999</v>
-      </c>
-      <c r="F6" s="30">
-        <v>13.785299999999999</v>
-      </c>
-      <c r="G6" s="30">
-        <v>11.864000000000001</v>
-      </c>
-      <c r="H6" s="30">
-        <v>11.5984</v>
-      </c>
-      <c r="I6" s="30">
-        <v>15.4503</v>
+      <c r="C6" s="43">
+        <v>27.2623</v>
+      </c>
+      <c r="D6" s="43">
+        <v>29.331</v>
+      </c>
+      <c r="E6" s="43">
+        <v>22.624700000000001</v>
+      </c>
+      <c r="F6" s="43">
+        <v>20.13</v>
+      </c>
+      <c r="G6" s="43">
+        <v>15.4458</v>
+      </c>
+      <c r="H6" s="43">
+        <v>13.4154</v>
+      </c>
+      <c r="I6" s="43">
+        <v>13.8017</v>
+      </c>
+      <c r="J6" s="33">
+        <f>C5*J8</f>
+        <v>25.47866913580247</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -9802,19 +9819,19 @@
         <v>14</v>
       </c>
       <c r="C7" s="30">
-        <v>51.558100000000003</v>
+        <v>46.789200000000001</v>
       </c>
       <c r="D7" s="30">
-        <v>27.726700000000001</v>
+        <v>26.389500000000002</v>
       </c>
       <c r="E7" s="30">
-        <v>24.478000000000002</v>
+        <v>22.651199999999999</v>
       </c>
       <c r="F7" s="30">
-        <v>20.8903</v>
+        <v>23.638000000000002</v>
       </c>
       <c r="G7" s="30">
-        <v>21.553000000000001</v>
+        <v>22.782699999999998</v>
       </c>
       <c r="H7" s="30">
         <v>23.785900000000002</v>
@@ -9830,33 +9847,37 @@
       <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <f t="shared" ref="C8:E8" si="0">C6/(C4-C5)</f>
-        <v>5.4206795949888456</v>
-      </c>
-      <c r="D8" s="32">
+        <v>4.5233615397378459</v>
+      </c>
+      <c r="D8" s="31">
         <f t="shared" si="0"/>
-        <v>5.014887167396429</v>
-      </c>
-      <c r="E8" s="32">
+        <v>5.0492339473231187</v>
+      </c>
+      <c r="E8" s="31">
         <f t="shared" si="0"/>
-        <v>4.3851729818780889</v>
-      </c>
-      <c r="F8" s="32">
+        <v>4.2265458621333831</v>
+      </c>
+      <c r="F8" s="31">
         <f>F6/(F4-F5)</f>
-        <v>2.4704838709677417</v>
-      </c>
-      <c r="G8" s="32">
+        <v>4.2298802269384321</v>
+      </c>
+      <c r="G8" s="31">
         <f>G6/(G4-G5)</f>
-        <v>2.2585189415572056</v>
-      </c>
-      <c r="H8" s="32">
+        <v>3.5345080091533179</v>
+      </c>
+      <c r="H8" s="31">
         <f>H6/(H4-H5)</f>
-        <v>2.4942795698924729</v>
-      </c>
-      <c r="I8" s="32">
+        <v>3.424917028338013</v>
+      </c>
+      <c r="I8" s="31">
         <f>I6/(I4-I5)</f>
-        <v>3.7637758830694272</v>
+        <v>3.3073807812125571</v>
+      </c>
+      <c r="J8" s="33">
+        <f>C10/243000</f>
+        <v>4.3382716049382717</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -9866,33 +9887,33 @@
       <c r="B9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <f t="shared" ref="C9:E9" si="1">C6/C5</f>
-        <v>5.2011032438662932</v>
-      </c>
-      <c r="D9" s="32">
+        <v>4.6419717350587435</v>
+      </c>
+      <c r="D9" s="31">
         <f t="shared" si="1"/>
-        <v>4.9946997651794707</v>
-      </c>
-      <c r="E9" s="32">
+        <v>4.8154654408143163</v>
+      </c>
+      <c r="E9" s="31">
         <f t="shared" si="1"/>
-        <v>4.4061430936178034</v>
-      </c>
-      <c r="F9" s="32">
+        <v>4.0787272399495222</v>
+      </c>
+      <c r="F9" s="31">
         <f t="shared" ref="F9:H9" si="2">F6/F5</f>
-        <v>3.1910416666666661</v>
-      </c>
-      <c r="G9" s="32">
+        <v>3.9155806263372881</v>
+      </c>
+      <c r="G9" s="31">
         <f t="shared" si="2"/>
-        <v>3.0443931229150634</v>
-      </c>
-      <c r="H9" s="32">
+        <v>3.2313389121338911</v>
+      </c>
+      <c r="H9" s="31">
         <f t="shared" si="2"/>
-        <v>3.0929066666666665</v>
-      </c>
-      <c r="I9" s="32">
+        <v>2.9925050189605176</v>
+      </c>
+      <c r="I9" s="31">
         <f>I6/I5</f>
-        <v>3.5972759022118743</v>
+        <v>3.2651289330494437</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -9902,105 +9923,109 @@
       <c r="B10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <f>VLOOKUP(C3,'Global BM'!$C$2:$I$57,7)</f>
         <v>1054200</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <f>VLOOKUP(D3,'Global BM'!$C$2:$I$57,7)</f>
         <v>855120</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <f>VLOOKUP(E3,'Global BM'!$C$2:$I$57,7)</f>
         <v>731745</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <f>VLOOKUP(F3,'Global BM'!$C$2:$I$57,7)</f>
         <v>731745</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <f>VLOOKUP(G3,'Global BM'!$C$2:$I$57,7)</f>
         <v>731745</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <f>VLOOKUP(H3,'Global BM'!$C$2:$I$57,7)</f>
         <v>731745</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <f>VLOOKUP(I3,'Global BM'!$C$2:$I$57,7)</f>
         <v>731745</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="39">
         <f>C10/(C8*1000)</f>
-        <v>194.47746016469162</v>
-      </c>
-      <c r="D11" s="40">
+        <v>233.05676336919484</v>
+      </c>
+      <c r="D11" s="39">
         <f>D10/(D8*1000)</f>
-        <v>170.51629906240768</v>
-      </c>
-      <c r="E11" s="40">
+        <v>169.35638334867548</v>
+      </c>
+      <c r="E11" s="39">
         <f t="shared" ref="E11:G11" si="3">E10/(E8*1000)</f>
-        <v>166.86798970621385</v>
-      </c>
-      <c r="F11" s="40">
+        <v>173.13073698214785</v>
+      </c>
+      <c r="F11" s="39">
         <f>F10/(F8*1000)</f>
-        <v>296.19501207808321</v>
-      </c>
-      <c r="G11" s="40">
+        <v>172.99426005961251</v>
+      </c>
+      <c r="G11" s="39">
         <f t="shared" si="3"/>
-        <v>323.99329779163855</v>
-      </c>
-      <c r="H11" s="40">
+        <v>207.02881365808182</v>
+      </c>
+      <c r="H11" s="39">
         <f>H10/(H8*1000)</f>
-        <v>293.36927938336328</v>
-      </c>
-      <c r="I11" s="40">
+        <v>213.65335099959751</v>
+      </c>
+      <c r="I11" s="39">
         <f>I10/(I8*1000)</f>
-        <v>194.4177928583911</v>
+        <v>221.24607004934174</v>
+      </c>
+      <c r="J11" s="42">
+        <f>I10/(I8*1000)</f>
+        <v>221.24607004934174</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="39">
         <f>C10/(C9*1000)</f>
-        <v>202.68776653169255</v>
-      </c>
-      <c r="D12" s="40">
+        <v>227.1017705769506</v>
+      </c>
+      <c r="D12" s="39">
         <f>D10/(D9*1000)</f>
-        <v>171.20548585551941</v>
-      </c>
-      <c r="E12" s="40">
+        <v>177.57785005625448</v>
+      </c>
+      <c r="E12" s="39">
         <f t="shared" ref="E12:G12" si="4">E10/(E9*1000)</f>
-        <v>166.07381659027729</v>
-      </c>
-      <c r="F12" s="40">
+        <v>179.40523034559575</v>
+      </c>
+      <c r="F12" s="39">
         <f t="shared" si="4"/>
-        <v>229.31226741529025</v>
-      </c>
-      <c r="G12" s="40">
+        <v>186.88033010432193</v>
+      </c>
+      <c r="G12" s="39">
         <f t="shared" si="4"/>
-        <v>240.35824890424809</v>
-      </c>
-      <c r="H12" s="40">
+        <v>226.45256963057921</v>
+      </c>
+      <c r="H12" s="39">
         <f>H10/(H9*1000)</f>
-        <v>236.58812853497037</v>
-      </c>
-      <c r="I12" s="40">
+        <v>244.52590567556686</v>
+      </c>
+      <c r="I12" s="39">
         <f>I10/(I9*1000)</f>
-        <v>203.41642395293294</v>
+        <v>224.10906736126711</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -10008,33 +10033,33 @@
         <v>21</v>
       </c>
       <c r="B13" s="27"/>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <f>C11/$E$16</f>
-        <v>0.80031876610984209</v>
-      </c>
-      <c r="D13" s="32">
+        <v>0.9590813307374273</v>
+      </c>
+      <c r="D13" s="31">
         <f t="shared" ref="D13:I13" si="5">D11/$E$16</f>
-        <v>0.70171316486587521</v>
-      </c>
-      <c r="E13" s="32">
+        <v>0.69693984917150398</v>
+      </c>
+      <c r="E13" s="31">
         <f t="shared" si="5"/>
-        <v>0.6866995461161064</v>
-      </c>
-      <c r="F13" s="32">
+        <v>0.7124721686508142</v>
+      </c>
+      <c r="F13" s="31">
         <f t="shared" si="5"/>
-        <v>1.2189095147246223</v>
-      </c>
-      <c r="G13" s="32">
+        <v>0.7119105352247429</v>
+      </c>
+      <c r="G13" s="31">
         <f t="shared" si="5"/>
-        <v>1.3333057522289653</v>
-      </c>
-      <c r="H13" s="32">
+        <v>0.85197042657646838</v>
+      </c>
+      <c r="H13" s="31">
         <f t="shared" si="5"/>
-        <v>1.2072809851167212</v>
-      </c>
-      <c r="I13" s="32">
-        <f t="shared" si="5"/>
-        <v>0.80007322163946948</v>
+        <v>0.87923189711768523</v>
+      </c>
+      <c r="I13" s="31">
+        <f>I11/$E$16</f>
+        <v>0.91047765452404006</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -10042,33 +10067,33 @@
         <v>22</v>
       </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <f>C12/$E$16</f>
-        <v>0.83410603510984582</v>
-      </c>
-      <c r="D14" s="32">
+        <v>0.93457518755946745</v>
+      </c>
+      <c r="D14" s="31">
         <f t="shared" ref="D14:I14" si="6">D12/$E$16</f>
-        <v>0.70454932450831032</v>
-      </c>
-      <c r="E14" s="32">
+        <v>0.73077304549898958</v>
+      </c>
+      <c r="E14" s="31">
         <f t="shared" si="6"/>
-        <v>0.68343134399291061</v>
-      </c>
-      <c r="F14" s="32">
+        <v>0.73829312899422117</v>
+      </c>
+      <c r="F14" s="31">
         <f t="shared" si="6"/>
-        <v>0.94367188236744959</v>
-      </c>
-      <c r="G14" s="32">
+        <v>0.76905485639638649</v>
+      </c>
+      <c r="G14" s="31">
         <f t="shared" si="6"/>
-        <v>0.98912859631377814</v>
-      </c>
-      <c r="H14" s="32">
+        <v>0.93190357872666341</v>
+      </c>
+      <c r="H14" s="31">
         <f t="shared" si="6"/>
-        <v>0.97361369767477512</v>
-      </c>
-      <c r="I14" s="32">
+        <v>1.0062794472245551</v>
+      </c>
+      <c r="I14" s="31">
         <f t="shared" si="6"/>
-        <v>0.83710462532071173</v>
+        <v>0.9222595364661198</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -10085,7 +10110,7 @@
       <c r="F16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="36" t="s">
         <v>41</v>
       </c>
     </row>
@@ -10097,26 +10122,26 @@
         <v>42</v>
       </c>
       <c r="B18" s="28"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="40">
         <v>1</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="29" t="s">
@@ -10208,7 +10233,7 @@
       <c r="G2" s="18">
         <v>1145000</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="41">
         <f>ABS(G2*1.05)</f>
         <v>1202250</v>
       </c>
@@ -10236,7 +10261,7 @@
       <c r="G3" s="18">
         <v>1125000</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="41">
         <f t="shared" ref="H3:H17" si="0">ABS(G3*1.05)</f>
         <v>1181250</v>
       </c>
@@ -10264,7 +10289,7 @@
       <c r="G4" s="18">
         <v>1104000</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="41">
         <f t="shared" si="0"/>
         <v>1159200</v>
       </c>
@@ -10292,7 +10317,7 @@
       <c r="G5" s="18">
         <v>1082000</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="41">
         <f t="shared" si="0"/>
         <v>1136100</v>
       </c>
@@ -10320,7 +10345,7 @@
       <c r="G6" s="18">
         <v>1060000</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="41">
         <f t="shared" si="0"/>
         <v>1113000</v>
       </c>
@@ -10348,7 +10373,7 @@
       <c r="G7" s="18">
         <v>1037000</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="41">
         <f t="shared" si="0"/>
         <v>1088850</v>
       </c>
@@ -10376,7 +10401,7 @@
       <c r="G8" s="18">
         <v>1014000</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <f t="shared" si="0"/>
         <v>1064700</v>
       </c>
@@ -10404,7 +10429,7 @@
       <c r="G9" s="18">
         <v>990700</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="41">
         <f t="shared" si="0"/>
         <v>1040235</v>
       </c>
@@ -10432,7 +10457,7 @@
       <c r="G10" s="18">
         <v>966800</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="41">
         <f t="shared" si="0"/>
         <v>1015140</v>
       </c>
@@ -10460,7 +10485,7 @@
       <c r="G11" s="18">
         <v>942400</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="41">
         <f t="shared" si="0"/>
         <v>989520</v>
       </c>
@@ -10488,7 +10513,7 @@
       <c r="G12" s="23">
         <v>917600</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="41">
         <f t="shared" si="0"/>
         <v>963480</v>
       </c>
@@ -10516,7 +10541,7 @@
       <c r="G13" s="18">
         <v>892200</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="41">
         <f t="shared" si="0"/>
         <v>936810</v>
       </c>
@@ -10544,7 +10569,7 @@
       <c r="G14" s="18">
         <v>866300</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="41">
         <f t="shared" si="0"/>
         <v>909615</v>
       </c>
@@ -10572,7 +10597,7 @@
       <c r="G15" s="18">
         <v>839800</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="41">
         <f t="shared" si="0"/>
         <v>881790</v>
       </c>
@@ -10600,7 +10625,7 @@
       <c r="G16" s="18">
         <v>812800</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="41">
         <f t="shared" si="0"/>
         <v>853440</v>
       </c>
@@ -10628,7 +10653,7 @@
       <c r="G17" s="18">
         <v>785200</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="41">
         <f t="shared" si="0"/>
         <v>824460</v>
       </c>
@@ -10656,7 +10681,7 @@
       <c r="G18" s="18">
         <v>757000</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="41">
         <f t="shared" ref="H18:H21" si="2">H19</f>
         <v>805770</v>
       </c>
@@ -10684,7 +10709,7 @@
       <c r="G19" s="18">
         <v>728200</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="41">
         <f t="shared" si="2"/>
         <v>805770</v>
       </c>
@@ -10712,7 +10737,7 @@
       <c r="G20" s="18">
         <v>698900</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <f t="shared" si="2"/>
         <v>805770</v>
       </c>
@@ -10740,7 +10765,7 @@
       <c r="G21" s="18">
         <v>669000</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <f t="shared" si="2"/>
         <v>805770</v>
       </c>
@@ -10768,7 +10793,7 @@
       <c r="G22" s="18">
         <v>638500</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="41">
         <f t="shared" ref="H22:H55" si="4">H23</f>
         <v>805770</v>
       </c>
@@ -10796,7 +10821,7 @@
       <c r="G23" s="18">
         <v>607400</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -10824,7 +10849,7 @@
       <c r="G24" s="18">
         <v>575800</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -10852,7 +10877,7 @@
       <c r="G25" s="18">
         <v>543600</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -10884,7 +10909,7 @@
       <c r="G26" s="18">
         <v>510800</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -10912,7 +10937,7 @@
       <c r="G27" s="18">
         <v>477500</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -10940,7 +10965,7 @@
       <c r="G28" s="18">
         <v>443600</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -10968,7 +10993,7 @@
       <c r="G29" s="23">
         <v>409100</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -10996,7 +11021,7 @@
       <c r="G30" s="23">
         <v>374100</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11024,7 +11049,7 @@
       <c r="G31" s="18">
         <v>338500</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11052,7 +11077,7 @@
       <c r="G32" s="18">
         <v>302300</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11080,7 +11105,7 @@
       <c r="G33" s="18">
         <v>265500</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11108,7 +11133,7 @@
       <c r="G34" s="18">
         <v>228200</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11136,7 +11161,7 @@
       <c r="G35" s="18">
         <v>190300</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11164,7 +11189,7 @@
       <c r="G36" s="18">
         <v>152800</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11192,7 +11217,7 @@
       <c r="G37" s="18">
         <v>114700</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11220,7 +11245,7 @@
       <c r="G38" s="18">
         <v>76070</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11248,7 +11273,7 @@
       <c r="G39" s="18">
         <v>36860</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11276,7 +11301,7 @@
       <c r="G40" s="18">
         <v>-49000</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11307,7 +11332,7 @@
       <c r="G41" s="18">
         <v>-67320</v>
       </c>
-      <c r="H41" s="42">
+      <c r="H41" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11335,7 +11360,7 @@
       <c r="G42" s="18">
         <v>-90940</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11363,7 +11388,7 @@
       <c r="G43" s="18">
         <v>-133400</v>
       </c>
-      <c r="H43" s="42">
+      <c r="H43" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11391,7 +11416,7 @@
       <c r="G44" s="18">
         <v>-176400</v>
       </c>
-      <c r="H44" s="42">
+      <c r="H44" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11419,7 +11444,7 @@
       <c r="G45" s="18">
         <v>-220000</v>
       </c>
-      <c r="H45" s="42">
+      <c r="H45" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11447,7 +11472,7 @@
       <c r="G46" s="18">
         <v>-264200</v>
       </c>
-      <c r="H46" s="42">
+      <c r="H46" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11475,7 +11500,7 @@
       <c r="G47" s="23">
         <v>-309000</v>
       </c>
-      <c r="H47" s="42">
+      <c r="H47" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11503,7 +11528,7 @@
       <c r="G48" s="18">
         <v>-354100</v>
       </c>
-      <c r="H48" s="42">
+      <c r="H48" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11531,7 +11556,7 @@
       <c r="G49" s="18">
         <v>-399300</v>
       </c>
-      <c r="H49" s="42">
+      <c r="H49" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11559,7 +11584,7 @@
       <c r="G50" s="18">
         <v>-444800</v>
       </c>
-      <c r="H50" s="42">
+      <c r="H50" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11590,7 +11615,7 @@
       <c r="G51" s="18">
         <v>-490400</v>
       </c>
-      <c r="H51" s="42">
+      <c r="H51" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11618,7 +11643,7 @@
       <c r="G52" s="18">
         <v>-536100</v>
       </c>
-      <c r="H52" s="42">
+      <c r="H52" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11646,7 +11671,7 @@
       <c r="G53" s="18">
         <v>-582100</v>
       </c>
-      <c r="H53" s="42">
+      <c r="H53" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11674,7 +11699,7 @@
       <c r="G54" s="18">
         <v>-628100</v>
       </c>
-      <c r="H54" s="42">
+      <c r="H54" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11702,7 +11727,7 @@
       <c r="G55" s="18">
         <v>-674400</v>
       </c>
-      <c r="H55" s="42">
+      <c r="H55" s="41">
         <f t="shared" si="4"/>
         <v>805770</v>
       </c>
@@ -11730,7 +11755,7 @@
       <c r="G56" s="18">
         <v>-720800</v>
       </c>
-      <c r="H56" s="42">
+      <c r="H56" s="41">
         <f>H57</f>
         <v>805770</v>
       </c>
@@ -11758,7 +11783,7 @@
       <c r="G57" s="23">
         <v>-767400</v>
       </c>
-      <c r="H57" s="42">
+      <c r="H57" s="41">
         <f>ABS(G57*1.05)</f>
         <v>805770</v>
       </c>
